--- a/InputData/fuels/FoICStCT/Fraction of Industry Category Subject to Carbon Tax.xlsx
+++ b/InputData/fuels/FoICStCT/Fraction of Industry Category Subject to Carbon Tax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\FoICStCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC0370-4CC0-4B56-842D-AB650186D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BDE65E-B0FD-402E-ADA9-E6C0FBF79E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59310" yWindow="1710" windowWidth="25020" windowHeight="13230" tabRatio="636" activeTab="6" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
+    <workbookView xWindow="2685" yWindow="1590" windowWidth="18555" windowHeight="9120" tabRatio="636" firstSheet="2" activeTab="4" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="CH4_to_CO2e">'[1]Cross-Page Data'!$C$12</definedName>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="182">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -587,15 +586,9 @@
     <t>https://www.reuters.com/business/sustainable-business/analysts-raise-eu-carbon-price-forecasts-after-reform-agreement-2023-04-28/#:~:text=EU%20Allowances%20(EUAs)%20are%20expected,%25%20to%20104.84%20euros%2Ftonne.</t>
   </si>
   <si>
-    <t>FF55 Scenario Setup</t>
-  </si>
-  <si>
     <t>BCTR</t>
   </si>
   <si>
-    <t>Max Carbon Tax Rate (ETS1 or ETS2)</t>
-  </si>
-  <si>
     <t>ETS2 Multiplier</t>
   </si>
   <si>
@@ -630,6 +623,27 @@
   </si>
   <si>
     <t>applying a multipler (&lt; 1) to industries with lower auction prices.</t>
+  </si>
+  <si>
+    <t>ETS2 Price [EUR 2023]</t>
+  </si>
+  <si>
+    <t>fuels/BCTR [2023 EUR]</t>
+  </si>
+  <si>
+    <t>FF55 Scenario Setup [2023 EUR]</t>
+  </si>
+  <si>
+    <t>ETS Price [EUR 2019]</t>
+  </si>
+  <si>
+    <t>ETS Price [USD 2012]</t>
+  </si>
+  <si>
+    <t>ETS Price [EUR 2023]</t>
+  </si>
+  <si>
+    <t>Addt'l Carbon Tax Rate (ETS1 or ETS2)</t>
   </si>
 </sst>
 </file>
@@ -646,7 +660,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1674,548 +1688,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'ETS Price Projections'!$B$36:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'ETS Price Projections'!$D$36:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>53.499312875163668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.777648219571262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.311213204015658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61.573121384209628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.726806142856148</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79.740717770099934</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87.618946176126954</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>94.934884535277575</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>102.92194327295809</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>112.83485811806231</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C256-4447-BDC0-84FB55047E59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[4]ETS Calculations'!$F$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BCTR [EUR2019]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'ETS Price Projections'!$B$36:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'ETS Price Projections'!$F$36:$F$45</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C256-4447-BDC0-84FB55047E59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ETS Price Projections'!$G$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Additional Carbon Tax [EUR2019]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'ETS Price Projections'!$B$36:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2030</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'ETS Price Projections'!$G$36:$G$45</c:f>
-              <c:numCache>
-                <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>18.499312875163668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.777648219571262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38.311213204015658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.573121384209628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.726806142856148</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.740717770099934</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46.618946176126954</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50.934884535277575</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55.921943272958089</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>62.834858118062314</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C256-4447-BDC0-84FB55047E59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1108196639"/>
-        <c:axId val="11074975"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1108196639"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="11074975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="11074975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[$€-2]\ #,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1108196639"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2237,7 +1709,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ETS Auction Projections</a:t>
+              <a:t>Auction Projections</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2284,7 +1756,7 @@
             <c:v>Max Price</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="50800" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2398,91 +1870,91 @@
                 <c:formatCode>[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>70.777648219571262</c:v>
+                  <c:v>83.192047717284055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.311213204015658</c:v>
+                  <c:v>86.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.573121384209628</c:v>
+                  <c:v>72.373046875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.726806142856148</c:v>
+                  <c:v>79.606087940313117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.740717770099934</c:v>
+                  <c:v>93.727239666975464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.618946176126954</c:v>
+                  <c:v>102.98730933541962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.934884535277575</c:v>
+                  <c:v>111.58646328276527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102.92194327295809</c:v>
+                  <c:v>120.97445212303494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.83485811806231</c:v>
+                  <c:v>132.62609223197043</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114.83485811806231</c:v>
+                  <c:v>134.97689223197045</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116.83485811806231</c:v>
+                  <c:v>137.32769223197045</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.83485811806231</c:v>
+                  <c:v>139.67849223197044</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120.83485811806231</c:v>
+                  <c:v>142.02929223197043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>122.83485811806231</c:v>
+                  <c:v>144.38009223197045</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124.83485811806231</c:v>
+                  <c:v>146.73089223197044</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>126.83485811806231</c:v>
+                  <c:v>149.08169223197044</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128.8348581180623</c:v>
+                  <c:v>151.43249223197043</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130.8348581180623</c:v>
+                  <c:v>153.78329223197042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132.8348581180623</c:v>
+                  <c:v>156.13409223197041</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.8348581180623</c:v>
+                  <c:v>158.48489223197043</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>136.8348581180623</c:v>
+                  <c:v>160.83569223197043</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>138.8348581180623</c:v>
+                  <c:v>163.18649223197042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>140.8348581180623</c:v>
+                  <c:v>165.53729223197044</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>147.72542009193839</c:v>
+                  <c:v>173.63645877606439</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>149.74742273978109</c:v>
+                  <c:v>176.01312068833869</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>151.76942538762378</c:v>
+                  <c:v>178.38978260061299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>153.79142803546648</c:v>
+                  <c:v>180.76644451288729</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>155.81343068330918</c:v>
+                  <c:v>183.14310642516162</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>157.83543333115188</c:v>
+                  <c:v>185.51976833743592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,7 +1970,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ETS 1 (BAU)</c:v>
+            <c:v>BAU ETS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2515,7 +1987,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ETS Price Projections'!$A$54:$AE$54</c:f>
+              <c:f>'ETS Price Projections'!$B$54:$AF$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2617,102 +2089,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ETS Price Projections'!$A$55:$AE$55</c:f>
+              <c:f>'ETS Price Projections'!$B$56:$AF$56</c:f>
               <c:numCache>
                 <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>24.983873327481177</c:v>
+                  <c:v>29.366044709121375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>41.139000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>41.139000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>41.139000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>41.139000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>41.139000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>44.665199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>48.191400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>51.717599999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47</c:v>
+                  <c:v>55.2438</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>58.77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52</c:v>
+                  <c:v>61.120800000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54</c:v>
+                  <c:v>63.471600000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56</c:v>
+                  <c:v>65.822400000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58</c:v>
+                  <c:v>68.173199999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60</c:v>
+                  <c:v>70.524000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62</c:v>
+                  <c:v>72.874799999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64</c:v>
+                  <c:v>75.2256</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66</c:v>
+                  <c:v>77.576400000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68</c:v>
+                  <c:v>79.927199999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>70</c:v>
+                  <c:v>82.278000000000006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72</c:v>
+                  <c:v>84.628799999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>74</c:v>
+                  <c:v>86.979600000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>76</c:v>
+                  <c:v>89.330399999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>78</c:v>
+                  <c:v>91.681200000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>80</c:v>
+                  <c:v>94.031999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>82</c:v>
+                  <c:v>96.382800000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>84</c:v>
+                  <c:v>98.733599999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>86</c:v>
+                  <c:v>101.0844</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>88</c:v>
+                  <c:v>103.43519999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>90</c:v>
+                  <c:v>105.786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2728,12 +2200,12 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>ETS 1 (FF55)</c:v>
+            <c:v>ETS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2846,102 +2318,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ETS Price Projections'!$B$48:$AF$48</c:f>
+              <c:f>'ETS Price Projections'!$B$50:$AF$50</c:f>
               <c:numCache>
                 <c:formatCode>[$€-2]\ #,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>24.983873327481177</c:v>
+                  <c:v>29.366044709121375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.499312875163668</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>70.777648219571262</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>73.311213204015658</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>61.573121384209628</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>67.726806142856148</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>79.740717770099934</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>87.618946176126954</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>94.934884535277575</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>102.92194327295809</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>112.83485811806231</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>114.83485811806231</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>116.83485811806231</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>118.83485811806231</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>120.83485811806231</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>122.83485811806231</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>124.83485811806231</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>126.83485811806231</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>128.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>130.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>132.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>134.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>136.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>138.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>140.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>142.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>144.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>146.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>148.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>150.8348581180623</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>152.8348581180623</c:v>
+                  <c:v>62.883092353467376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.192047717284055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.373046875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.606087940313117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.727239666975464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.98730933541962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111.58646328276527</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.97445212303494</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132.62609223197043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134.97689223197045</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137.32769223197045</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>139.67849223197044</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>142.02929223197043</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>144.38009223197045</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146.73089223197044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>149.08169223197044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>151.43249223197043</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153.78329223197042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>156.13409223197041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>158.48489223197043</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160.83569223197043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>163.18649223197042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>165.53729223197044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>167.88809223197043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170.23889223197042</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>172.58969223197042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>174.94049223197044</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>177.29129223197043</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>179.64209223197042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2962,7 +2434,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3069,7 +2541,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ETS Price Projections'!$B$90:$AD$90</c:f>
+              <c:f>'ETS Price Projections'!$B$92:$AD$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -3088,77 +2560,77 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>8.5922699814955887</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>8.5922699814955887</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>8.5922699814955887</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>8.5922699814955887</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>18.56911486995098</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>28.545959758406376</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>38.522804646861765</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>48.499649535317161</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>58.476494423772557</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>66.515117829248467</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>74.553741234724384</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>82.592364640200287</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>90.63098804567619</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>98.669611451152107</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>108.48077317930937</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>118.29193490746661</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>128.10309663562387</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>137.91425836378113</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>147.72542009193839</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>149.74742273978109</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>151.76942538762378</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>153.79142803546648</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>155.81343068330918</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>157.83543333115188</c:v>
+                <c:pt idx="5">
+                  <c:v>10.099354136249914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.099354136249914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.099354136249914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.099354136249914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.826137618140383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.552921100030851</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.279704581921315</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.006488063811794</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68.733271545702266</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.181869496498649</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.630467447295047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.079065398091416</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106.5276633488878</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.97626129968418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>127.50830079496023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>139.04034029023626</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150.57237978551231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>162.10441928078833</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>173.63645877606439</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>176.01312068833869</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>178.38978260061299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180.76644451288729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>183.14310642516162</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>185.51976833743592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,7 +2740,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>EUR 2019</a:t>
+                  <a:t>EUR 2023</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3462,46 +2934,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4573,522 +4005,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5134,44 +4050,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>759571</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9898</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>543485</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>60513</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B62495-E69B-4091-BB7F-F00C60EC25F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5199,7 +4077,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5243,7 +4121,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5290,7 +4168,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5494,54 +4372,6 @@
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ETS Auction Prices"/>
-      <sheetName val="EPS 3.4.5 (2023) Modeling --&gt;"/>
-      <sheetName val="Top-Down Targets"/>
-      <sheetName val="Fit for 55 (2022)"/>
-      <sheetName val="FIt for 55 (2023)"/>
-      <sheetName val="Bottom-Up EUGD EPS Inputs"/>
-      <sheetName val="Bottom-Up EUGD Policies"/>
-      <sheetName val="Efficiency Target"/>
-      <sheetName val="ETS Calculations"/>
-      <sheetName val="Buildings RES Target"/>
-      <sheetName val="Industry RES Target"/>
-      <sheetName val="LCFS EPS Settings"/>
-      <sheetName val="Crosswalk"/>
-      <sheetName val="Output Graphs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="33">
-          <cell r="F33" t="str">
-            <v>BCTR [EUR2019]</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5850,17 +4680,17 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -5873,28 +4703,28 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>40</v>
@@ -5905,28 +4735,28 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>59</v>
@@ -5937,40 +4767,40 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="10">
         <v>45052</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
         <v>63</v>
@@ -5981,29 +4811,29 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
         <v>159</v>
@@ -6014,110 +4844,110 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="B29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -6125,7 +4955,7 @@
         <v>0.9237749814519286</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -6133,7 +4963,7 @@
         <v>1.2847999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="B52" s="3"/>
     </row>
   </sheetData>
@@ -6150,21 +4980,21 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="43.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" style="12" customWidth="1"/>
     <col min="3" max="3" width="57.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6175,7 +5005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6183,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6195,7 +5025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6206,7 +5036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6217,7 +5047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6228,7 +5058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6239,7 +5069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6247,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6259,7 +5089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6267,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6279,7 +5109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6287,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6298,7 +5128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6306,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6314,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6322,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6330,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6338,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6346,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6354,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6362,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6370,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6378,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6386,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6394,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6418,22 +5248,22 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="43.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33">
       <c r="B1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33">
       <c r="B3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33">
       <c r="C4">
         <v>2020</v>
       </c>
@@ -6528,7 +5358,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33">
       <c r="B5" s="41" t="s">
         <v>137</v>
       </c>
@@ -6626,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33">
       <c r="B6" s="9" t="s">
         <v>57</v>
       </c>
@@ -6724,12 +5554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33">
       <c r="B8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33">
       <c r="C9">
         <v>2020</v>
       </c>
@@ -6824,7 +5654,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -6953,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33">
       <c r="B11" t="s">
         <v>57</v>
       </c>
@@ -7102,12 +5932,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>135</v>
       </c>
@@ -7121,30 +5951,30 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -7155,7 +5985,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>0</v>
       </c>
@@ -7169,7 +5999,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>2</v>
       </c>
@@ -7183,7 +6013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="B10">
         <v>2</v>
       </c>
@@ -7197,7 +6027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="B11">
         <v>2</v>
       </c>
@@ -7205,7 +6035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="B12">
         <v>2</v>
       </c>
@@ -7213,7 +6043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="B13">
         <v>2</v>
       </c>
@@ -7221,7 +6051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="B14">
         <v>2</v>
       </c>
@@ -7229,7 +6059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="B15">
         <v>1</v>
       </c>
@@ -7237,7 +6067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>1</v>
       </c>
@@ -7245,7 +6075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -7253,7 +6083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -7261,7 +6091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -7269,7 +6099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -7277,7 +6107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -7285,7 +6115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -7293,7 +6123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3">
       <c r="B23">
         <v>2</v>
       </c>
@@ -7301,7 +6131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3">
       <c r="B24">
         <v>2</v>
       </c>
@@ -7309,7 +6139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3">
       <c r="B25">
         <v>2</v>
       </c>
@@ -7317,7 +6147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3">
       <c r="B26">
         <v>2</v>
       </c>
@@ -7325,7 +6155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -7333,7 +6163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3">
       <c r="B28">
         <v>2</v>
       </c>
@@ -7341,7 +6171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3">
       <c r="B29">
         <v>2</v>
       </c>
@@ -7349,7 +6179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3">
       <c r="B30">
         <v>2</v>
       </c>
@@ -7357,7 +6187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3">
       <c r="B31">
         <v>0</v>
       </c>
@@ -7365,7 +6195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3">
       <c r="B32">
         <v>2</v>
       </c>
@@ -7382,11 +6212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51415790-FCED-4F1B-A968-7C9062D5254E}">
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33.7265625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -7398,7 +6228,7 @@
     <col min="8" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="5" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>158</v>
       </c>
@@ -7408,8 +6238,8 @@
       <c r="G1" s="46"/>
       <c r="H1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15" thickBot="1"/>
+    <row r="3" spans="1:29">
       <c r="B3" s="9" t="s">
         <v>141</v>
       </c>
@@ -7436,7 +6266,7 @@
       <c r="Q3" s="19"/>
       <c r="R3" s="17"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29">
       <c r="B4" s="20" t="s">
         <v>74</v>
       </c>
@@ -7470,7 +6300,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29">
       <c r="B5" s="20" t="s">
         <v>79</v>
       </c>
@@ -7516,7 +6346,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="15" thickBot="1">
       <c r="B6" s="20" t="s">
         <v>86</v>
       </c>
@@ -7563,7 +6393,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="15" thickBot="1">
       <c r="I7" s="28" t="s">
         <v>92</v>
       </c>
@@ -7588,7 +6418,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="B8" s="9" t="s">
         <v>140</v>
       </c>
@@ -7599,7 +6429,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="B9" s="20" t="s">
         <v>96</v>
       </c>
@@ -7610,7 +6440,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29">
       <c r="B10" s="20" t="s">
         <v>98</v>
       </c>
@@ -7621,7 +6451,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29">
       <c r="B11" s="20" t="s">
         <v>100</v>
       </c>
@@ -7632,7 +6462,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29">
       <c r="AB12" t="s">
         <v>102</v>
       </c>
@@ -7640,7 +6470,7 @@
         <v>26.93</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29">
       <c r="B13" s="9" t="s">
         <v>139</v>
       </c>
@@ -7651,7 +6481,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29">
       <c r="V14">
         <v>1.182841</v>
       </c>
@@ -7662,7 +6492,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29">
       <c r="G15" s="1" t="s">
         <v>106</v>
       </c>
@@ -7673,7 +6503,7 @@
         <v>32.72</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29">
       <c r="G16" t="s">
         <v>108</v>
       </c>
@@ -7708,7 +6538,7 @@
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:29">
       <c r="D17" s="35" t="s">
         <v>116</v>
       </c>
@@ -7762,7 +6592,7 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="18" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:29">
       <c r="G18">
         <v>2025</v>
       </c>
@@ -7816,7 +6646,7 @@
         <v>42.55</v>
       </c>
     </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:29">
       <c r="G19">
         <v>2026</v>
       </c>
@@ -7874,7 +6704,7 @@
         <v>48.84</v>
       </c>
     </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:29">
       <c r="G20">
         <v>2027</v>
       </c>
@@ -7932,7 +6762,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="21" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:29">
       <c r="G21">
         <v>2028</v>
       </c>
@@ -7990,7 +6820,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:29">
       <c r="G22">
         <v>2029</v>
       </c>
@@ -8048,7 +6878,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:29">
       <c r="G23">
         <v>2030</v>
       </c>
@@ -8105,7 +6935,7 @@
         <v>60.76</v>
       </c>
     </row>
-    <row r="24" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:29">
       <c r="AB24" t="s">
         <v>102</v>
       </c>
@@ -8113,7 +6943,7 @@
         <v>61.74</v>
       </c>
     </row>
-    <row r="25" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:29">
       <c r="AB25" t="s">
         <v>104</v>
       </c>
@@ -8121,7 +6951,7 @@
         <v>58.71</v>
       </c>
     </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:29">
       <c r="AB26" t="s">
         <v>105</v>
       </c>
@@ -8129,7 +6959,7 @@
         <v>75.37</v>
       </c>
     </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:29">
       <c r="AB27" t="s">
         <v>107</v>
       </c>
@@ -8137,7 +6967,7 @@
         <v>80.650000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32">
       <c r="B34" t="s">
         <v>119</v>
       </c>
@@ -8157,7 +6987,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32">
       <c r="B35">
         <v>2020</v>
       </c>
@@ -8170,7 +7000,7 @@
         <v>24.983873327481177</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32">
       <c r="B36">
         <v>2021</v>
       </c>
@@ -8187,7 +7017,7 @@
         <v>0.47413816765015843</v>
       </c>
       <c r="F36" s="22" cm="1">
-        <f t="array" ref="F36:F45">TRANSPOSE(B55:K55)</f>
+        <f t="array" ref="F36:F45">TRANSPOSE(C55:L55)</f>
         <v>35</v>
       </c>
       <c r="G36" s="38">
@@ -8199,7 +7029,7 @@
         <v>0.29441162802348897</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32">
       <c r="B37">
         <v>2022</v>
       </c>
@@ -8226,7 +7056,7 @@
         <v>0.56939172445249353</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32">
       <c r="B38">
         <v>2023</v>
       </c>
@@ -8253,7 +7083,7 @@
         <v>0.60971273511959811</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32">
       <c r="B39">
         <v>2024</v>
       </c>
@@ -8280,7 +7110,7 @@
         <v>0.42290413601763194</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32">
       <c r="B40">
         <v>2025</v>
       </c>
@@ -8307,7 +7137,7 @@
         <v>0.52083838689290529</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32">
       <c r="B41">
         <v>2026</v>
       </c>
@@ -8334,7 +7164,7 @@
         <v>0.66429238515462286</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32">
       <c r="B42">
         <v>2027</v>
       </c>
@@ -8358,7 +7188,7 @@
         <v>0.7419280885226669</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32">
       <c r="B43">
         <v>2028</v>
       </c>
@@ -8382,7 +7212,7 @@
         <v>0.81061509583700309</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32">
       <c r="B44">
         <v>2029</v>
       </c>
@@ -8406,7 +7236,7 @@
         <v>0.88998280489286152</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32">
       <c r="B45">
         <v>2030</v>
       </c>
@@ -8430,14 +7260,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32">
       <c r="D46" s="38"/>
       <c r="E46" s="39"/>
       <c r="F46" s="22"/>
       <c r="G46" s="38"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -8535,9 +7365,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B48" s="38">
         <f>D35</f>
@@ -8576,7 +7406,7 @@
         <v>112.83485811806231</v>
       </c>
       <c r="M48" s="45">
-        <f t="shared" ref="M48:AF48" si="6">L55+$G45</f>
+        <f t="shared" ref="M48:AF48" si="6">M55+$G45</f>
         <v>114.83485811806231</v>
       </c>
       <c r="N48" s="45">
@@ -8656,9 +7486,9 @@
         <v>152.8348581180623</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B49" s="43">
         <f>B48*About!$B51*About!$B50</f>
@@ -8785,14 +7615,136 @@
         <v>181.39451141319449</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
-    </row>
-    <row r="51" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="38">
+        <f>B48*$F6</f>
+        <v>29.366044709121375</v>
+      </c>
+      <c r="C50" s="38">
+        <f t="shared" ref="C50:AF50" si="7">C48*$F6</f>
+        <v>62.883092353467376</v>
+      </c>
+      <c r="D50" s="38">
+        <f t="shared" si="7"/>
+        <v>83.192047717284055</v>
+      </c>
+      <c r="E50" s="38">
+        <f t="shared" si="7"/>
+        <v>86.17</v>
+      </c>
+      <c r="F50" s="38">
+        <f t="shared" si="7"/>
+        <v>72.373046875</v>
+      </c>
+      <c r="G50" s="38">
+        <f t="shared" si="7"/>
+        <v>79.606087940313117</v>
+      </c>
+      <c r="H50" s="38">
+        <f t="shared" si="7"/>
+        <v>93.727239666975464</v>
+      </c>
+      <c r="I50" s="38">
+        <f t="shared" si="7"/>
+        <v>102.98730933541962</v>
+      </c>
+      <c r="J50" s="38">
+        <f t="shared" si="7"/>
+        <v>111.58646328276527</v>
+      </c>
+      <c r="K50" s="38">
+        <f t="shared" si="7"/>
+        <v>120.97445212303494</v>
+      </c>
+      <c r="L50" s="38">
+        <f t="shared" si="7"/>
+        <v>132.62609223197043</v>
+      </c>
+      <c r="M50" s="38">
+        <f t="shared" si="7"/>
+        <v>134.97689223197045</v>
+      </c>
+      <c r="N50" s="38">
+        <f t="shared" si="7"/>
+        <v>137.32769223197045</v>
+      </c>
+      <c r="O50" s="38">
+        <f t="shared" si="7"/>
+        <v>139.67849223197044</v>
+      </c>
+      <c r="P50" s="38">
+        <f t="shared" si="7"/>
+        <v>142.02929223197043</v>
+      </c>
+      <c r="Q50" s="38">
+        <f t="shared" si="7"/>
+        <v>144.38009223197045</v>
+      </c>
+      <c r="R50" s="38">
+        <f t="shared" si="7"/>
+        <v>146.73089223197044</v>
+      </c>
+      <c r="S50" s="38">
+        <f t="shared" si="7"/>
+        <v>149.08169223197044</v>
+      </c>
+      <c r="T50" s="38">
+        <f t="shared" si="7"/>
+        <v>151.43249223197043</v>
+      </c>
+      <c r="U50" s="38">
+        <f t="shared" si="7"/>
+        <v>153.78329223197042</v>
+      </c>
+      <c r="V50" s="38">
+        <f t="shared" si="7"/>
+        <v>156.13409223197041</v>
+      </c>
+      <c r="W50" s="38">
+        <f t="shared" si="7"/>
+        <v>158.48489223197043</v>
+      </c>
+      <c r="X50" s="38">
+        <f t="shared" si="7"/>
+        <v>160.83569223197043</v>
+      </c>
+      <c r="Y50" s="38">
+        <f t="shared" si="7"/>
+        <v>163.18649223197042</v>
+      </c>
+      <c r="Z50" s="38">
+        <f t="shared" si="7"/>
+        <v>165.53729223197044</v>
+      </c>
+      <c r="AA50" s="38">
+        <f t="shared" si="7"/>
+        <v>167.88809223197043</v>
+      </c>
+      <c r="AB50" s="38">
+        <f t="shared" si="7"/>
+        <v>170.23889223197042</v>
+      </c>
+      <c r="AC50" s="38">
+        <f t="shared" si="7"/>
+        <v>172.58969223197042</v>
+      </c>
+      <c r="AD50" s="38">
+        <f t="shared" si="7"/>
+        <v>174.94049223197044</v>
+      </c>
+      <c r="AE50" s="38">
+        <f t="shared" si="7"/>
+        <v>177.29129223197043</v>
+      </c>
+      <c r="AF50" s="38">
+        <f t="shared" si="7"/>
+        <v>179.64209223197042</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="5" customFormat="1">
       <c r="A51" s="6" t="s">
         <v>153</v>
       </c>
@@ -8802,126 +7754,126 @@
       <c r="G51" s="46"/>
       <c r="H51" s="47"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32">
       <c r="D52" s="38"/>
       <c r="E52" s="39"/>
       <c r="F52" s="22"/>
       <c r="G52" s="38"/>
       <c r="H52" s="39"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:32">
+      <c r="C53" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="F53" s="38"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="39"/>
+    </row>
+    <row r="54" spans="1:32">
+      <c r="B54">
         <v>2020</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>2021</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>2022</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>2023</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>2024</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>2025</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>2026</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>2027</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>2028</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>2029</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>2030</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>2031</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>2032</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>2033</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>2034</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>2035</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>2036</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>2037</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>2038</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>2039</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>2040</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>2041</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>2042</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>2043</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>2044</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>2045</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>2046</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>2047</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>2048</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>2049</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>2050</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A55" s="38">
+    <row r="55" spans="1:32">
+      <c r="A55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="38">
         <f>D35</f>
         <v>24.983873327481177</v>
       </c>
-      <c r="B55" s="38">
-        <v>35</v>
-      </c>
       <c r="C55" s="38">
         <v>35</v>
       </c>
@@ -8935,87 +7887,219 @@
         <v>35</v>
       </c>
       <c r="G55" s="38">
+        <v>35</v>
+      </c>
+      <c r="H55" s="38">
         <v>38</v>
       </c>
-      <c r="H55" s="38">
+      <c r="I55" s="38">
         <v>41</v>
       </c>
-      <c r="I55" s="38">
+      <c r="J55" s="38">
         <v>44</v>
       </c>
-      <c r="J55" s="38">
+      <c r="K55" s="38">
         <v>47</v>
       </c>
-      <c r="K55" s="38">
+      <c r="L55" s="38">
         <v>50</v>
       </c>
-      <c r="L55" s="38">
+      <c r="M55" s="38">
         <v>52</v>
       </c>
-      <c r="M55" s="38">
+      <c r="N55" s="38">
         <v>54</v>
       </c>
-      <c r="N55" s="38">
+      <c r="O55" s="38">
         <v>56</v>
       </c>
-      <c r="O55" s="38">
+      <c r="P55" s="38">
         <v>58</v>
       </c>
-      <c r="P55" s="38">
+      <c r="Q55" s="38">
         <v>60</v>
       </c>
-      <c r="Q55" s="38">
+      <c r="R55" s="38">
         <v>62</v>
       </c>
-      <c r="R55" s="38">
+      <c r="S55" s="38">
         <v>64</v>
       </c>
-      <c r="S55" s="38">
+      <c r="T55" s="38">
         <v>66</v>
       </c>
-      <c r="T55" s="38">
+      <c r="U55" s="38">
         <v>68</v>
       </c>
-      <c r="U55" s="38">
+      <c r="V55" s="38">
         <v>70</v>
       </c>
-      <c r="V55" s="38">
+      <c r="W55" s="38">
         <v>72</v>
       </c>
-      <c r="W55" s="38">
+      <c r="X55" s="38">
         <v>74</v>
       </c>
-      <c r="X55" s="38">
+      <c r="Y55" s="38">
         <v>76</v>
       </c>
-      <c r="Y55" s="38">
+      <c r="Z55" s="38">
         <v>78</v>
       </c>
-      <c r="Z55" s="38">
+      <c r="AA55" s="38">
         <v>80</v>
       </c>
-      <c r="AA55" s="38">
+      <c r="AB55" s="38">
         <v>82</v>
       </c>
-      <c r="AB55" s="38">
+      <c r="AC55" s="38">
         <v>84</v>
       </c>
-      <c r="AC55" s="38">
+      <c r="AD55" s="38">
         <v>86</v>
       </c>
-      <c r="AD55" s="38">
+      <c r="AE55" s="38">
         <v>88</v>
       </c>
-      <c r="AE55" s="38">
+      <c r="AF55" s="38">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32">
+      <c r="A56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="38">
+        <f>B55*$F6</f>
+        <v>29.366044709121375</v>
+      </c>
+      <c r="C56" s="38">
+        <f t="shared" ref="C56:AF56" si="8">C55*$F6</f>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="D56" s="38">
+        <f t="shared" si="8"/>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="E56" s="38">
+        <f t="shared" si="8"/>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="F56" s="38">
+        <f t="shared" si="8"/>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="G56" s="38">
+        <f t="shared" si="8"/>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="H56" s="38">
+        <f t="shared" si="8"/>
+        <v>44.665199999999999</v>
+      </c>
+      <c r="I56" s="38">
+        <f t="shared" si="8"/>
+        <v>48.191400000000002</v>
+      </c>
+      <c r="J56" s="38">
+        <f t="shared" si="8"/>
+        <v>51.717599999999997</v>
+      </c>
+      <c r="K56" s="38">
+        <f t="shared" si="8"/>
+        <v>55.2438</v>
+      </c>
+      <c r="L56" s="38">
+        <f t="shared" si="8"/>
+        <v>58.77</v>
+      </c>
+      <c r="M56" s="38">
+        <f t="shared" si="8"/>
+        <v>61.120800000000003</v>
+      </c>
+      <c r="N56" s="38">
+        <f t="shared" si="8"/>
+        <v>63.471600000000002</v>
+      </c>
+      <c r="O56" s="38">
+        <f t="shared" si="8"/>
+        <v>65.822400000000002</v>
+      </c>
+      <c r="P56" s="38">
+        <f t="shared" si="8"/>
+        <v>68.173199999999994</v>
+      </c>
+      <c r="Q56" s="38">
+        <f t="shared" si="8"/>
+        <v>70.524000000000001</v>
+      </c>
+      <c r="R56" s="38">
+        <f t="shared" si="8"/>
+        <v>72.874799999999993</v>
+      </c>
+      <c r="S56" s="38">
+        <f t="shared" si="8"/>
+        <v>75.2256</v>
+      </c>
+      <c r="T56" s="38">
+        <f t="shared" si="8"/>
+        <v>77.576400000000007</v>
+      </c>
+      <c r="U56" s="38">
+        <f t="shared" si="8"/>
+        <v>79.927199999999999</v>
+      </c>
+      <c r="V56" s="38">
+        <f t="shared" si="8"/>
+        <v>82.278000000000006</v>
+      </c>
+      <c r="W56" s="38">
+        <f t="shared" si="8"/>
+        <v>84.628799999999998</v>
+      </c>
+      <c r="X56" s="38">
+        <f t="shared" si="8"/>
+        <v>86.979600000000005</v>
+      </c>
+      <c r="Y56" s="38">
+        <f t="shared" si="8"/>
+        <v>89.330399999999997</v>
+      </c>
+      <c r="Z56" s="38">
+        <f t="shared" si="8"/>
+        <v>91.681200000000004</v>
+      </c>
+      <c r="AA56" s="38">
+        <f t="shared" si="8"/>
+        <v>94.031999999999996</v>
+      </c>
+      <c r="AB56" s="38">
+        <f t="shared" si="8"/>
+        <v>96.382800000000003</v>
+      </c>
+      <c r="AC56" s="38">
+        <f t="shared" si="8"/>
+        <v>98.733599999999996</v>
+      </c>
+      <c r="AD56" s="38">
+        <f t="shared" si="8"/>
+        <v>101.0844</v>
+      </c>
+      <c r="AE56" s="38">
+        <f t="shared" si="8"/>
+        <v>103.43519999999999</v>
+      </c>
+      <c r="AF56" s="38">
+        <f t="shared" si="8"/>
+        <v>105.786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32">
       <c r="B57" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32">
       <c r="B58" t="s">
         <v>126</v>
       </c>
@@ -9107,7 +8191,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32">
       <c r="B59" t="s">
         <v>127</v>
       </c>
@@ -9199,7 +8283,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32">
       <c r="B60" t="s">
         <v>128</v>
       </c>
@@ -9291,7 +8375,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32">
       <c r="B61" t="s">
         <v>129</v>
       </c>
@@ -9383,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32">
       <c r="B62" t="s">
         <v>130</v>
       </c>
@@ -9475,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32">
       <c r="B63" t="s">
         <v>131</v>
       </c>
@@ -9567,7 +8651,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32">
       <c r="B64" t="s">
         <v>132</v>
       </c>
@@ -9659,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31">
       <c r="B65" t="s">
         <v>133</v>
       </c>
@@ -9751,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31">
       <c r="B66" t="s">
         <v>134</v>
       </c>
@@ -9843,22 +8927,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" s="6" customFormat="1">
       <c r="A68" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31">
       <c r="D71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31">
       <c r="D72" t="s">
         <v>119</v>
       </c>
@@ -9872,7 +8956,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31">
       <c r="D73">
         <v>2030</v>
       </c>
@@ -9888,7 +8972,7 @@
         <v>8.5922699814955887</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31">
       <c r="D74">
         <v>2035</v>
       </c>
@@ -9900,11 +8984,11 @@
         <v>0.62881217380368482</v>
       </c>
       <c r="G74" s="45">
-        <f t="shared" ref="G74:G77" si="7">E74*F74</f>
+        <f t="shared" ref="G74:G77" si="9">E74*F74</f>
         <v>58.476494423772557</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31">
       <c r="D75">
         <v>2040</v>
       </c>
@@ -9916,11 +9000,11 @@
         <v>0.55577168899016283</v>
       </c>
       <c r="G75" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>98.669611451152107</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31">
       <c r="D76">
         <v>2045</v>
       </c>
@@ -9932,11 +9016,11 @@
         <v>0.49123151741415733</v>
       </c>
       <c r="G76" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>147.72542009193839</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31">
       <c r="D77">
         <v>2050</v>
       </c>
@@ -9948,23 +9032,23 @@
         <v>0.43417853421326852</v>
       </c>
       <c r="G77" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>157.83543333115188</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31">
       <c r="F78" s="9" t="s">
         <v>146</v>
       </c>
       <c r="G78" s="45"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30">
       <c r="H87" s="50"/>
       <c r="I87" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -10056,7 +9140,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -10080,15 +9164,15 @@
         <v>8.5922699814955887</v>
       </c>
       <c r="H90" s="49">
-        <f t="shared" ref="H90:J90" si="8">$G73</f>
+        <f t="shared" ref="H90:J90" si="10">$G73</f>
         <v>8.5922699814955887</v>
       </c>
       <c r="I90" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.5922699814955887</v>
       </c>
       <c r="J90" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.5922699814955887</v>
       </c>
       <c r="K90" s="45">
@@ -10096,15 +9180,15 @@
         <v>18.56911486995098</v>
       </c>
       <c r="L90" s="45">
-        <f t="shared" ref="L90:N90" si="9">$J90+($O90-$J90)*(L89-$J89)/5</f>
+        <f t="shared" ref="L90:N90" si="11">$J90+($O90-$J90)*(L89-$J89)/5</f>
         <v>28.545959758406376</v>
       </c>
       <c r="M90" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38.522804646861765</v>
       </c>
       <c r="N90" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.499649535317161</v>
       </c>
       <c r="O90" s="49">
@@ -10116,15 +9200,15 @@
         <v>66.515117829248467</v>
       </c>
       <c r="Q90" s="45">
-        <f t="shared" ref="Q90:S90" si="10">$O90+($T90-$O90)*(Q89-$O89)/5</f>
+        <f t="shared" ref="Q90:S90" si="12">$O90+($T90-$O90)*(Q89-$O89)/5</f>
         <v>74.553741234724384</v>
       </c>
       <c r="R90" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>82.592364640200287</v>
       </c>
       <c r="S90" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>90.63098804567619</v>
       </c>
       <c r="T90" s="49">
@@ -10136,15 +9220,15 @@
         <v>108.48077317930937</v>
       </c>
       <c r="V90" s="45">
-        <f t="shared" ref="V90:X90" si="11">$T90+($Y90-$T90)*(V89-$T89)/5</f>
+        <f t="shared" ref="V90:X90" si="13">$T90+($Y90-$T90)*(V89-$T89)/5</f>
         <v>118.29193490746661</v>
       </c>
       <c r="W90" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>128.10309663562387</v>
       </c>
       <c r="X90" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>137.91425836378113</v>
       </c>
       <c r="Y90" s="49">
@@ -10156,15 +9240,15 @@
         <v>149.74742273978109</v>
       </c>
       <c r="AA90" s="45">
-        <f t="shared" ref="AA90:AC90" si="12">$Y90+($AD90-$Y90)*(AA89-$Y89)/5</f>
+        <f t="shared" ref="AA90:AC90" si="14">$Y90+($AD90-$Y90)*(AA89-$Y89)/5</f>
         <v>151.76942538762378</v>
       </c>
       <c r="AB90" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>153.79142803546648</v>
       </c>
       <c r="AC90" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>155.81343068330918</v>
       </c>
       <c r="AD90" s="49">
@@ -10172,7 +9256,7 @@
         <v>157.83543333115188</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
         <v>157</v>
       </c>
@@ -10293,12 +9377,133 @@
         <v>187.32952459495581</v>
       </c>
     </row>
-    <row r="110" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30">
+      <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92">
+        <f>B90*$F6-B51</f>
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ref="C92:AD92" si="15">C90*$F6</f>
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="15"/>
+        <v>10.099354136249914</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="15"/>
+        <v>10.099354136249914</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="15"/>
+        <v>10.099354136249914</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="15"/>
+        <v>10.099354136249914</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="15"/>
+        <v>21.826137618140383</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="15"/>
+        <v>33.552921100030851</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="15"/>
+        <v>45.279704581921315</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="15"/>
+        <v>57.006488063811794</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="15"/>
+        <v>68.733271545702266</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="15"/>
+        <v>78.181869496498649</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="15"/>
+        <v>87.630467447295047</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="15"/>
+        <v>97.079065398091416</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="15"/>
+        <v>106.5276633488878</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="15"/>
+        <v>115.97626129968418</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="15"/>
+        <v>127.50830079496023</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="15"/>
+        <v>139.04034029023626</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="15"/>
+        <v>150.57237978551231</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="15"/>
+        <v>162.10441928078833</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="15"/>
+        <v>173.63645877606439</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="15"/>
+        <v>176.01312068833869</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="15"/>
+        <v>178.38978260061299</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="15"/>
+        <v>180.76644451288729</v>
+      </c>
+      <c r="AC92">
+        <f t="shared" si="15"/>
+        <v>183.14310642516162</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="15"/>
+        <v>185.51976833743592</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" s="6" customFormat="1">
       <c r="A110" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -10390,482 +9595,487 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30">
       <c r="A112" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="38">
+        <f>D56</f>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="C112" s="38">
+        <f t="shared" ref="C112:AD112" si="16">E56</f>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="D112" s="38">
+        <f t="shared" si="16"/>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="E112" s="38">
+        <f t="shared" si="16"/>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="F112" s="38">
+        <f t="shared" si="16"/>
+        <v>44.665199999999999</v>
+      </c>
+      <c r="G112" s="38">
+        <f t="shared" si="16"/>
+        <v>48.191400000000002</v>
+      </c>
+      <c r="H112" s="38">
+        <f t="shared" si="16"/>
+        <v>51.717599999999997</v>
+      </c>
+      <c r="I112" s="38">
+        <f t="shared" si="16"/>
+        <v>55.2438</v>
+      </c>
+      <c r="J112" s="38">
+        <f t="shared" si="16"/>
+        <v>58.77</v>
+      </c>
+      <c r="K112" s="38">
+        <f t="shared" si="16"/>
+        <v>61.120800000000003</v>
+      </c>
+      <c r="L112" s="38">
+        <f t="shared" si="16"/>
+        <v>63.471600000000002</v>
+      </c>
+      <c r="M112" s="38">
+        <f t="shared" si="16"/>
+        <v>65.822400000000002</v>
+      </c>
+      <c r="N112" s="38">
+        <f t="shared" si="16"/>
+        <v>68.173199999999994</v>
+      </c>
+      <c r="O112" s="38">
+        <f t="shared" si="16"/>
+        <v>70.524000000000001</v>
+      </c>
+      <c r="P112" s="38">
+        <f t="shared" si="16"/>
+        <v>72.874799999999993</v>
+      </c>
+      <c r="Q112" s="38">
+        <f t="shared" si="16"/>
+        <v>75.2256</v>
+      </c>
+      <c r="R112" s="38">
+        <f t="shared" si="16"/>
+        <v>77.576400000000007</v>
+      </c>
+      <c r="S112" s="38">
+        <f t="shared" si="16"/>
+        <v>79.927199999999999</v>
+      </c>
+      <c r="T112" s="38">
+        <f t="shared" si="16"/>
+        <v>82.278000000000006</v>
+      </c>
+      <c r="U112" s="38">
+        <f t="shared" si="16"/>
+        <v>84.628799999999998</v>
+      </c>
+      <c r="V112" s="38">
+        <f t="shared" si="16"/>
+        <v>86.979600000000005</v>
+      </c>
+      <c r="W112" s="38">
+        <f t="shared" si="16"/>
+        <v>89.330399999999997</v>
+      </c>
+      <c r="X112" s="38">
+        <f t="shared" si="16"/>
+        <v>91.681200000000004</v>
+      </c>
+      <c r="Y112" s="38">
+        <f t="shared" si="16"/>
+        <v>94.031999999999996</v>
+      </c>
+      <c r="Z112" s="38">
+        <f t="shared" si="16"/>
+        <v>96.382800000000003</v>
+      </c>
+      <c r="AA112" s="38">
+        <f t="shared" si="16"/>
+        <v>98.733599999999996</v>
+      </c>
+      <c r="AB112" s="38">
+        <f t="shared" si="16"/>
+        <v>101.0844</v>
+      </c>
+      <c r="AC112" s="38">
+        <f t="shared" si="16"/>
+        <v>103.43519999999999</v>
+      </c>
+      <c r="AD112" s="38">
+        <f t="shared" si="16"/>
+        <v>105.786</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30">
+      <c r="A113" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113" s="45">
+        <f>MAX(B92,D50)</f>
+        <v>83.192047717284055</v>
+      </c>
+      <c r="C113" s="45">
+        <f t="shared" ref="C113:AD113" si="17">MAX(C92,E50)</f>
+        <v>86.17</v>
+      </c>
+      <c r="D113" s="45">
+        <f t="shared" si="17"/>
+        <v>72.373046875</v>
+      </c>
+      <c r="E113" s="45">
+        <f t="shared" si="17"/>
+        <v>79.606087940313117</v>
+      </c>
+      <c r="F113" s="45">
+        <f t="shared" si="17"/>
+        <v>93.727239666975464</v>
+      </c>
+      <c r="G113" s="45">
+        <f t="shared" si="17"/>
+        <v>102.98730933541962</v>
+      </c>
+      <c r="H113" s="45">
+        <f t="shared" si="17"/>
+        <v>111.58646328276527</v>
+      </c>
+      <c r="I113" s="45">
+        <f t="shared" si="17"/>
+        <v>120.97445212303494</v>
+      </c>
+      <c r="J113" s="45">
+        <f t="shared" si="17"/>
+        <v>132.62609223197043</v>
+      </c>
+      <c r="K113" s="45">
+        <f t="shared" si="17"/>
+        <v>134.97689223197045</v>
+      </c>
+      <c r="L113" s="45">
+        <f t="shared" si="17"/>
+        <v>137.32769223197045</v>
+      </c>
+      <c r="M113" s="45">
+        <f t="shared" si="17"/>
+        <v>139.67849223197044</v>
+      </c>
+      <c r="N113" s="45">
+        <f t="shared" si="17"/>
+        <v>142.02929223197043</v>
+      </c>
+      <c r="O113" s="45">
+        <f t="shared" si="17"/>
+        <v>144.38009223197045</v>
+      </c>
+      <c r="P113" s="45">
+        <f t="shared" si="17"/>
+        <v>146.73089223197044</v>
+      </c>
+      <c r="Q113" s="45">
+        <f t="shared" si="17"/>
+        <v>149.08169223197044</v>
+      </c>
+      <c r="R113" s="45">
+        <f t="shared" si="17"/>
+        <v>151.43249223197043</v>
+      </c>
+      <c r="S113" s="45">
+        <f t="shared" si="17"/>
+        <v>153.78329223197042</v>
+      </c>
+      <c r="T113" s="45">
+        <f t="shared" si="17"/>
+        <v>156.13409223197041</v>
+      </c>
+      <c r="U113" s="45">
+        <f t="shared" si="17"/>
+        <v>158.48489223197043</v>
+      </c>
+      <c r="V113" s="45">
+        <f t="shared" si="17"/>
+        <v>160.83569223197043</v>
+      </c>
+      <c r="W113" s="45">
+        <f t="shared" si="17"/>
+        <v>163.18649223197042</v>
+      </c>
+      <c r="X113" s="45">
+        <f t="shared" si="17"/>
+        <v>165.53729223197044</v>
+      </c>
+      <c r="Y113" s="45">
+        <f t="shared" si="17"/>
+        <v>173.63645877606439</v>
+      </c>
+      <c r="Z113" s="45">
+        <f t="shared" si="17"/>
+        <v>176.01312068833869</v>
+      </c>
+      <c r="AA113" s="45">
+        <f t="shared" si="17"/>
+        <v>178.38978260061299</v>
+      </c>
+      <c r="AB113" s="45">
+        <f t="shared" si="17"/>
+        <v>180.76644451288729</v>
+      </c>
+      <c r="AC113" s="45">
+        <f t="shared" si="17"/>
+        <v>183.14310642516162</v>
+      </c>
+      <c r="AD113" s="45">
+        <f t="shared" si="17"/>
+        <v>185.51976833743592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30">
+      <c r="A114" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="8">
+        <f>D50/B113</f>
+        <v>1</v>
+      </c>
+      <c r="C114" s="8">
+        <f t="shared" ref="C114:AD114" si="18">E50/C113</f>
+        <v>1</v>
+      </c>
+      <c r="D114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="F114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="H114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="I114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="L114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="S114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="T114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="W114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="X114" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y114" s="8">
+        <f t="shared" si="18"/>
+        <v>0.96689424223107712</v>
+      </c>
+      <c r="Z114" s="8">
+        <f t="shared" si="18"/>
+        <v>0.967194329412564</v>
+      </c>
+      <c r="AA114" s="8">
+        <f t="shared" si="18"/>
+        <v>0.96748642055566558</v>
+      </c>
+      <c r="AB114" s="8">
+        <f t="shared" si="18"/>
+        <v>0.96777083104878181</v>
+      </c>
+      <c r="AC114" s="8">
+        <f t="shared" si="18"/>
+        <v>0.96804785990903552</v>
+      </c>
+      <c r="AD114" s="8">
+        <f t="shared" si="18"/>
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30">
+      <c r="A115" t="s">
         <v>163</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112" s="49">
-        <f>$G95</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="49">
-        <f t="shared" ref="H112:J112" si="13">$G95</f>
-        <v>0</v>
-      </c>
-      <c r="I112" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K112" s="45">
-        <f>$J112+($O112-$J112)*(K111-$J111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="L112" s="45">
-        <f t="shared" ref="L112" si="14">$J112+($O112-$J112)*(L111-$J111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="M112" s="45">
-        <f t="shared" ref="M112" si="15">$J112+($O112-$J112)*(M111-$J111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="N112" s="45">
-        <f t="shared" ref="N112" si="16">$J112+($O112-$J112)*(N111-$J111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="O112" s="49">
-        <f>G96</f>
-        <v>0</v>
-      </c>
-      <c r="P112" s="45">
-        <f>$O112+($T112-$O112)*(P111-$O111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="Q112" s="45">
-        <f t="shared" ref="Q112" si="17">$O112+($T112-$O112)*(Q111-$O111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="R112" s="45">
-        <f t="shared" ref="R112" si="18">$O112+($T112-$O112)*(R111-$O111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="S112" s="45">
-        <f t="shared" ref="S112" si="19">$O112+($T112-$O112)*(S111-$O111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T112" s="49">
-        <f>G97</f>
-        <v>0</v>
-      </c>
-      <c r="U112" s="45">
-        <f>$T112+($Y112-$T112)*(U111-$T111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="V112" s="45">
-        <f t="shared" ref="V112" si="20">$T112+($Y112-$T112)*(V111-$T111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="W112" s="45">
-        <f t="shared" ref="W112" si="21">$T112+($Y112-$T112)*(W111-$T111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="X112" s="45">
-        <f t="shared" ref="X112" si="22">$T112+($Y112-$T112)*(X111-$T111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="Y112" s="49">
-        <f>G98</f>
-        <v>0</v>
-      </c>
-      <c r="Z112" s="45">
-        <f>$Y112+($AD112-$Y112)*(Z111-$Y111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="AA112" s="45">
-        <f t="shared" ref="AA112" si="23">$Y112+($AD112-$Y112)*(AA111-$Y111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="AB112" s="45">
-        <f t="shared" ref="AB112" si="24">$Y112+($AD112-$Y112)*(AB111-$Y111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="AC112" s="45">
-        <f t="shared" ref="AC112" si="25">$Y112+($AD112-$Y112)*(AC111-$Y111)/5</f>
-        <v>0</v>
-      </c>
-      <c r="AD112" s="49">
-        <f>G99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>164</v>
-      </c>
-      <c r="B113" s="45">
-        <f>MAX(B90,D48)</f>
-        <v>70.777648219571262</v>
-      </c>
-      <c r="C113" s="45">
-        <f t="shared" ref="C113:AD113" si="26">MAX(C90,E48)</f>
-        <v>73.311213204015658</v>
-      </c>
-      <c r="D113" s="45">
-        <f t="shared" si="26"/>
-        <v>61.573121384209628</v>
-      </c>
-      <c r="E113" s="45">
-        <f t="shared" si="26"/>
-        <v>67.726806142856148</v>
-      </c>
-      <c r="F113" s="45">
-        <f t="shared" si="26"/>
-        <v>79.740717770099934</v>
-      </c>
-      <c r="G113" s="45">
-        <f t="shared" si="26"/>
-        <v>87.618946176126954</v>
-      </c>
-      <c r="H113" s="45">
-        <f t="shared" si="26"/>
-        <v>94.934884535277575</v>
-      </c>
-      <c r="I113" s="45">
-        <f t="shared" si="26"/>
-        <v>102.92194327295809</v>
-      </c>
-      <c r="J113" s="45">
-        <f t="shared" si="26"/>
-        <v>112.83485811806231</v>
-      </c>
-      <c r="K113" s="45">
-        <f t="shared" si="26"/>
-        <v>114.83485811806231</v>
-      </c>
-      <c r="L113" s="45">
-        <f t="shared" si="26"/>
-        <v>116.83485811806231</v>
-      </c>
-      <c r="M113" s="45">
-        <f t="shared" si="26"/>
-        <v>118.83485811806231</v>
-      </c>
-      <c r="N113" s="45">
-        <f t="shared" si="26"/>
-        <v>120.83485811806231</v>
-      </c>
-      <c r="O113" s="45">
-        <f t="shared" si="26"/>
-        <v>122.83485811806231</v>
-      </c>
-      <c r="P113" s="45">
-        <f t="shared" si="26"/>
-        <v>124.83485811806231</v>
-      </c>
-      <c r="Q113" s="45">
-        <f t="shared" si="26"/>
-        <v>126.83485811806231</v>
-      </c>
-      <c r="R113" s="45">
-        <f t="shared" si="26"/>
-        <v>128.8348581180623</v>
-      </c>
-      <c r="S113" s="45">
-        <f t="shared" si="26"/>
-        <v>130.8348581180623</v>
-      </c>
-      <c r="T113" s="45">
-        <f t="shared" si="26"/>
-        <v>132.8348581180623</v>
-      </c>
-      <c r="U113" s="45">
-        <f t="shared" si="26"/>
-        <v>134.8348581180623</v>
-      </c>
-      <c r="V113" s="45">
-        <f t="shared" si="26"/>
-        <v>136.8348581180623</v>
-      </c>
-      <c r="W113" s="45">
-        <f t="shared" si="26"/>
-        <v>138.8348581180623</v>
-      </c>
-      <c r="X113" s="45">
-        <f t="shared" si="26"/>
-        <v>140.8348581180623</v>
-      </c>
-      <c r="Y113" s="45">
-        <f t="shared" si="26"/>
-        <v>147.72542009193839</v>
-      </c>
-      <c r="Z113" s="45">
-        <f t="shared" si="26"/>
-        <v>149.74742273978109</v>
-      </c>
-      <c r="AA113" s="45">
-        <f t="shared" si="26"/>
-        <v>151.76942538762378</v>
-      </c>
-      <c r="AB113" s="45">
-        <f t="shared" si="26"/>
-        <v>153.79142803546648</v>
-      </c>
-      <c r="AC113" s="45">
-        <f t="shared" si="26"/>
-        <v>155.81343068330918</v>
-      </c>
-      <c r="AD113" s="45">
-        <f t="shared" si="26"/>
-        <v>157.83543333115188</v>
-      </c>
-    </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>166</v>
-      </c>
-      <c r="B114">
-        <f>D48/B113</f>
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <f t="shared" ref="C114:AD114" si="27">E48/C113</f>
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="P114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="R114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="S114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="T114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="U114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="V114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="W114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="X114">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Y114">
-        <f t="shared" si="27"/>
-        <v>0.96689424223107712</v>
-      </c>
-      <c r="Z114">
-        <f t="shared" si="27"/>
-        <v>0.967194329412564</v>
-      </c>
-      <c r="AA114">
-        <f t="shared" si="27"/>
-        <v>0.96748642055566558</v>
-      </c>
-      <c r="AB114">
-        <f t="shared" si="27"/>
-        <v>0.9677708310487817</v>
-      </c>
-      <c r="AC114">
-        <f t="shared" si="27"/>
-        <v>0.96804785990903552</v>
-      </c>
-      <c r="AD114">
-        <f t="shared" si="27"/>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>165</v>
-      </c>
-      <c r="B115">
-        <f>B90/B113</f>
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <f t="shared" ref="C115:AD115" si="28">C90/C113</f>
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="28"/>
-        <v>9.8064064411638369E-2</v>
-      </c>
-      <c r="H115">
-        <f t="shared" si="28"/>
+      <c r="B115" s="8">
+        <f>B92/B113</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="8">
+        <f t="shared" ref="C115:AD115" si="19">C92/C113</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
+        <f t="shared" si="19"/>
+        <v>9.8064064411638355E-2</v>
+      </c>
+      <c r="H115" s="8">
+        <f t="shared" si="19"/>
         <v>9.0506983007945005E-2</v>
       </c>
-      <c r="I115">
-        <f t="shared" si="28"/>
+      <c r="I115" s="8">
+        <f t="shared" si="19"/>
         <v>8.3483363297058327E-2</v>
       </c>
-      <c r="J115">
-        <f t="shared" si="28"/>
+      <c r="J115" s="8">
+        <f t="shared" si="19"/>
         <v>7.614907418508253E-2</v>
       </c>
-      <c r="K115">
-        <f t="shared" si="28"/>
+      <c r="K115" s="8">
+        <f t="shared" si="19"/>
         <v>0.16170277191321103</v>
       </c>
-      <c r="L115">
-        <f t="shared" si="28"/>
-        <v>0.2443274226392308</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="28"/>
+      <c r="L115" s="8">
+        <f t="shared" si="19"/>
+        <v>0.24432742263923077</v>
+      </c>
+      <c r="M115" s="8">
+        <f t="shared" si="19"/>
         <v>0.32417091463675918</v>
       </c>
-      <c r="N115">
-        <f t="shared" si="28"/>
-        <v>0.40137134507933409</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="28"/>
+      <c r="N115" s="8">
+        <f t="shared" si="19"/>
+        <v>0.40137134507933414</v>
+      </c>
+      <c r="O115" s="8">
+        <f t="shared" si="19"/>
         <v>0.47605781713500306</v>
       </c>
-      <c r="P115">
-        <f t="shared" si="28"/>
+      <c r="P115" s="8">
+        <f t="shared" si="19"/>
         <v>0.53282487625645336</v>
       </c>
-      <c r="Q115">
-        <f t="shared" si="28"/>
-        <v>0.58780166857069494</v>
-      </c>
-      <c r="R115">
-        <f t="shared" si="28"/>
-        <v>0.64107156903540741</v>
-      </c>
-      <c r="S115">
-        <f t="shared" si="28"/>
-        <v>0.69271285458110032</v>
-      </c>
-      <c r="T115">
-        <f t="shared" si="28"/>
+      <c r="Q115" s="8">
+        <f t="shared" si="19"/>
+        <v>0.58780166857069505</v>
+      </c>
+      <c r="R115" s="8">
+        <f t="shared" si="19"/>
+        <v>0.6410715690354073</v>
+      </c>
+      <c r="S115" s="8">
+        <f t="shared" si="19"/>
+        <v>0.69271285458110043</v>
+      </c>
+      <c r="T115" s="8">
+        <f t="shared" si="19"/>
         <v>0.74279908789796378</v>
       </c>
-      <c r="U115">
-        <f t="shared" si="28"/>
+      <c r="U115" s="8">
+        <f t="shared" si="19"/>
         <v>0.8045454617108202</v>
       </c>
-      <c r="V115">
-        <f t="shared" si="28"/>
-        <v>0.86448684592783587</v>
-      </c>
-      <c r="W115">
-        <f t="shared" si="28"/>
-        <v>0.9227012464455262</v>
-      </c>
-      <c r="X115">
-        <f t="shared" si="28"/>
-        <v>0.97926223810419988</v>
-      </c>
-      <c r="Y115">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="Z115">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AA115">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AB115">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AC115">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AD115">
-        <f t="shared" si="28"/>
+      <c r="V115" s="8">
+        <f t="shared" si="19"/>
+        <v>0.86448684592783598</v>
+      </c>
+      <c r="W115" s="8">
+        <f t="shared" si="19"/>
+        <v>0.92270124644552631</v>
+      </c>
+      <c r="X115" s="8">
+        <f t="shared" si="19"/>
+        <v>0.97926223810419977</v>
+      </c>
+      <c r="Y115" s="8">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Z115" s="8">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AA115" s="8">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AB115" s="8">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AC115" s="8">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AD115" s="8">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -10892,21 +10102,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8486577C-0E32-4384-B16C-CD7287F2B54A}">
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33">
       <c r="C3">
         <v>2020</v>
       </c>
@@ -11001,7 +10211,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -11128,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -11160,7 +10370,7 @@
       </c>
       <c r="J5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!H$115,0))</f>
@@ -11180,7 +10390,7 @@
       </c>
       <c r="O5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!M$115,0))</f>
@@ -11188,7 +10398,7 @@
       </c>
       <c r="Q5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!O$115,0))</f>
@@ -11200,15 +10410,15 @@
       </c>
       <c r="T5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!T$115,0))</f>
@@ -11220,15 +10430,15 @@
       </c>
       <c r="Y5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11255,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -11287,7 +10497,7 @@
       </c>
       <c r="J6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!H$115,0))</f>
@@ -11307,7 +10517,7 @@
       </c>
       <c r="O6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!M$115,0))</f>
@@ -11315,7 +10525,7 @@
       </c>
       <c r="Q6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!O$115,0))</f>
@@ -11327,15 +10537,15 @@
       </c>
       <c r="T6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!T$115,0))</f>
@@ -11347,15 +10557,15 @@
       </c>
       <c r="Y6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11382,7 +10592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -11414,7 +10624,7 @@
       </c>
       <c r="J7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!H$115,0))</f>
@@ -11434,7 +10644,7 @@
       </c>
       <c r="O7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!M$115,0))</f>
@@ -11442,7 +10652,7 @@
       </c>
       <c r="Q7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!O$115,0))</f>
@@ -11454,15 +10664,15 @@
       </c>
       <c r="T7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!T$115,0))</f>
@@ -11474,15 +10684,15 @@
       </c>
       <c r="Y7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11509,7 +10719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -11541,7 +10751,7 @@
       </c>
       <c r="J8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!H$115,0))</f>
@@ -11561,7 +10771,7 @@
       </c>
       <c r="O8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!M$115,0))</f>
@@ -11569,7 +10779,7 @@
       </c>
       <c r="Q8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!O$115,0))</f>
@@ -11581,15 +10791,15 @@
       </c>
       <c r="T8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!T$115,0))</f>
@@ -11601,15 +10811,15 @@
       </c>
       <c r="Y8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11636,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -11668,7 +10878,7 @@
       </c>
       <c r="J9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!H$115,0))</f>
@@ -11688,7 +10898,7 @@
       </c>
       <c r="O9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!M$115,0))</f>
@@ -11696,7 +10906,7 @@
       </c>
       <c r="Q9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!O$115,0))</f>
@@ -11708,15 +10918,15 @@
       </c>
       <c r="T9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!T$115,0))</f>
@@ -11728,15 +10938,15 @@
       </c>
       <c r="Y9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11763,7 +10973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -11795,7 +11005,7 @@
       </c>
       <c r="J10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!H$115,0))</f>
@@ -11815,7 +11025,7 @@
       </c>
       <c r="O10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!M$115,0))</f>
@@ -11823,7 +11033,7 @@
       </c>
       <c r="Q10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!O$115,0))</f>
@@ -11835,15 +11045,15 @@
       </c>
       <c r="T10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!T$115,0))</f>
@@ -11855,15 +11065,15 @@
       </c>
       <c r="Y10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11890,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -12006,7 +11216,7 @@
       </c>
       <c r="AE11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AF11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!AC$115,0))</f>
@@ -12014,10 +11224,10 @@
       </c>
       <c r="AG11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -12133,7 +11343,7 @@
       </c>
       <c r="AE12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AF12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!AC$115,0))</f>
@@ -12141,10 +11351,10 @@
       </c>
       <c r="AG12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -12260,7 +11470,7 @@
       </c>
       <c r="AE13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AF13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!AC$115,0))</f>
@@ -12268,10 +11478,10 @@
       </c>
       <c r="AG13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -12303,7 +11513,7 @@
       </c>
       <c r="J14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!H$115,0))</f>
@@ -12323,7 +11533,7 @@
       </c>
       <c r="O14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!M$115,0))</f>
@@ -12331,7 +11541,7 @@
       </c>
       <c r="Q14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!O$115,0))</f>
@@ -12343,15 +11553,15 @@
       </c>
       <c r="T14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!T$115,0))</f>
@@ -12363,15 +11573,15 @@
       </c>
       <c r="Y14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!Y$115,0))</f>
@@ -12398,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -12514,7 +11724,7 @@
       </c>
       <c r="AE15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AF15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!AC$115,0))</f>
@@ -12522,10 +11732,10 @@
       </c>
       <c r="AG15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -12641,7 +11851,7 @@
       </c>
       <c r="AE16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AF16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!AC$115,0))</f>
@@ -12649,10 +11859,10 @@
       </c>
       <c r="AG16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -12768,7 +11978,7 @@
       </c>
       <c r="AE17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AF17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!AC$115,0))</f>
@@ -12776,10 +11986,10 @@
       </c>
       <c r="AG17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -12895,7 +12105,7 @@
       </c>
       <c r="AE18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AF18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!AC$115,0))</f>
@@ -12903,10 +12113,10 @@
       </c>
       <c r="AG18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -12938,7 +12148,7 @@
       </c>
       <c r="J19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!H$115,0))</f>
@@ -12958,7 +12168,7 @@
       </c>
       <c r="O19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!M$115,0))</f>
@@ -12966,7 +12176,7 @@
       </c>
       <c r="Q19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!O$115,0))</f>
@@ -12978,15 +12188,15 @@
       </c>
       <c r="T19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!T$115,0))</f>
@@ -12998,15 +12208,15 @@
       </c>
       <c r="Y19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13033,7 +12243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:33">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -13065,7 +12275,7 @@
       </c>
       <c r="J20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!H$115,0))</f>
@@ -13085,7 +12295,7 @@
       </c>
       <c r="O20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!M$115,0))</f>
@@ -13093,7 +12303,7 @@
       </c>
       <c r="Q20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!O$115,0))</f>
@@ -13105,15 +12315,15 @@
       </c>
       <c r="T20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!T$115,0))</f>
@@ -13125,15 +12335,15 @@
       </c>
       <c r="Y20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13160,7 +12370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:33">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -13192,7 +12402,7 @@
       </c>
       <c r="J21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!H$115,0))</f>
@@ -13212,7 +12422,7 @@
       </c>
       <c r="O21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!M$115,0))</f>
@@ -13220,7 +12430,7 @@
       </c>
       <c r="Q21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!O$115,0))</f>
@@ -13232,15 +12442,15 @@
       </c>
       <c r="T21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!T$115,0))</f>
@@ -13252,15 +12462,15 @@
       </c>
       <c r="Y21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13287,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:33">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -13319,7 +12529,7 @@
       </c>
       <c r="J22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!H$115,0))</f>
@@ -13339,7 +12549,7 @@
       </c>
       <c r="O22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!M$115,0))</f>
@@ -13347,7 +12557,7 @@
       </c>
       <c r="Q22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!O$115,0))</f>
@@ -13359,15 +12569,15 @@
       </c>
       <c r="T22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!T$115,0))</f>
@@ -13379,15 +12589,15 @@
       </c>
       <c r="Y22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13414,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:33">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -13446,7 +12656,7 @@
       </c>
       <c r="J23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!H$115,0))</f>
@@ -13466,7 +12676,7 @@
       </c>
       <c r="O23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!M$115,0))</f>
@@ -13474,7 +12684,7 @@
       </c>
       <c r="Q23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!O$115,0))</f>
@@ -13486,15 +12696,15 @@
       </c>
       <c r="T23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!T$115,0))</f>
@@ -13506,15 +12716,15 @@
       </c>
       <c r="Y23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13541,7 +12751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:33">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -13573,7 +12783,7 @@
       </c>
       <c r="J24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!H$115,0))</f>
@@ -13593,7 +12803,7 @@
       </c>
       <c r="O24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!M$115,0))</f>
@@ -13601,7 +12811,7 @@
       </c>
       <c r="Q24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!O$115,0))</f>
@@ -13613,15 +12823,15 @@
       </c>
       <c r="T24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!T$115,0))</f>
@@ -13633,15 +12843,15 @@
       </c>
       <c r="Y24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13668,7 +12878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:33">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -13700,7 +12910,7 @@
       </c>
       <c r="J25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!H$115,0))</f>
@@ -13720,7 +12930,7 @@
       </c>
       <c r="O25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!M$115,0))</f>
@@ -13728,7 +12938,7 @@
       </c>
       <c r="Q25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!O$115,0))</f>
@@ -13740,15 +12950,15 @@
       </c>
       <c r="T25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!T$115,0))</f>
@@ -13760,15 +12970,15 @@
       </c>
       <c r="Y25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13795,7 +13005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:33">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -13827,7 +13037,7 @@
       </c>
       <c r="J26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!H$115,0))</f>
@@ -13847,7 +13057,7 @@
       </c>
       <c r="O26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!M$115,0))</f>
@@ -13855,7 +13065,7 @@
       </c>
       <c r="Q26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!O$115,0))</f>
@@ -13867,15 +13077,15 @@
       </c>
       <c r="T26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!T$115,0))</f>
@@ -13887,15 +13097,15 @@
       </c>
       <c r="Y26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13922,7 +13132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:33">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -14049,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:33">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -14081,7 +13291,7 @@
       </c>
       <c r="J28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="K28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!H$115,0))</f>
@@ -14101,7 +13311,7 @@
       </c>
       <c r="O28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="P28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!M$115,0))</f>
@@ -14109,7 +13319,7 @@
       </c>
       <c r="Q28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="R28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!O$115,0))</f>
@@ -14121,15 +13331,15 @@
       </c>
       <c r="T28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="U28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="V28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="W28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!T$115,0))</f>
@@ -14141,15 +13351,15 @@
       </c>
       <c r="Y28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="Z28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="AA28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="AB28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!Y$115,0))</f>
@@ -14200,17 +13410,17 @@
   </sheetPr>
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AE26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="46.26953125" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14305,7 +13515,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14430,7 +13640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14460,7 +13670,7 @@
       </c>
       <c r="H3" s="7">
         <f>Calcs!J5</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I3" s="7">
         <f>Calcs!K5</f>
@@ -14480,7 +13690,7 @@
       </c>
       <c r="M3" s="7">
         <f>Calcs!O5</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N3" s="7">
         <f>Calcs!P5</f>
@@ -14488,7 +13698,7 @@
       </c>
       <c r="O3" s="7">
         <f>Calcs!Q5</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P3" s="7">
         <f>Calcs!R5</f>
@@ -14500,15 +13710,15 @@
       </c>
       <c r="R3" s="7">
         <f>Calcs!T5</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S3" s="7">
         <f>Calcs!U5</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T3" s="7">
         <f>Calcs!V5</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U3" s="7">
         <f>Calcs!W5</f>
@@ -14520,15 +13730,15 @@
       </c>
       <c r="W3" s="7">
         <f>Calcs!Y5</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X3" s="7">
         <f>Calcs!Z5</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y3" s="7">
         <f>Calcs!AA5</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z3" s="7">
         <f>Calcs!AB5</f>
@@ -14555,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14585,7 +13795,7 @@
       </c>
       <c r="H4" s="7">
         <f>Calcs!J6</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I4" s="7">
         <f>Calcs!K6</f>
@@ -14605,7 +13815,7 @@
       </c>
       <c r="M4" s="7">
         <f>Calcs!O6</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N4" s="7">
         <f>Calcs!P6</f>
@@ -14613,7 +13823,7 @@
       </c>
       <c r="O4" s="7">
         <f>Calcs!Q6</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P4" s="7">
         <f>Calcs!R6</f>
@@ -14625,15 +13835,15 @@
       </c>
       <c r="R4" s="7">
         <f>Calcs!T6</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S4" s="7">
         <f>Calcs!U6</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T4" s="7">
         <f>Calcs!V6</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U4" s="7">
         <f>Calcs!W6</f>
@@ -14645,15 +13855,15 @@
       </c>
       <c r="W4" s="7">
         <f>Calcs!Y6</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X4" s="7">
         <f>Calcs!Z6</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y4" s="7">
         <f>Calcs!AA6</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z4" s="7">
         <f>Calcs!AB6</f>
@@ -14680,7 +13890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14710,7 +13920,7 @@
       </c>
       <c r="H5" s="7">
         <f>Calcs!J7</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I5" s="7">
         <f>Calcs!K7</f>
@@ -14730,7 +13940,7 @@
       </c>
       <c r="M5" s="7">
         <f>Calcs!O7</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N5" s="7">
         <f>Calcs!P7</f>
@@ -14738,7 +13948,7 @@
       </c>
       <c r="O5" s="7">
         <f>Calcs!Q7</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P5" s="7">
         <f>Calcs!R7</f>
@@ -14750,15 +13960,15 @@
       </c>
       <c r="R5" s="7">
         <f>Calcs!T7</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S5" s="7">
         <f>Calcs!U7</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T5" s="7">
         <f>Calcs!V7</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U5" s="7">
         <f>Calcs!W7</f>
@@ -14770,15 +13980,15 @@
       </c>
       <c r="W5" s="7">
         <f>Calcs!Y7</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X5" s="7">
         <f>Calcs!Z7</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y5" s="7">
         <f>Calcs!AA7</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z5" s="7">
         <f>Calcs!AB7</f>
@@ -14805,7 +14015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14835,7 +14045,7 @@
       </c>
       <c r="H6" s="7">
         <f>Calcs!J8</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I6" s="7">
         <f>Calcs!K8</f>
@@ -14855,7 +14065,7 @@
       </c>
       <c r="M6" s="7">
         <f>Calcs!O8</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N6" s="7">
         <f>Calcs!P8</f>
@@ -14863,7 +14073,7 @@
       </c>
       <c r="O6" s="7">
         <f>Calcs!Q8</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P6" s="7">
         <f>Calcs!R8</f>
@@ -14875,15 +14085,15 @@
       </c>
       <c r="R6" s="7">
         <f>Calcs!T8</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S6" s="7">
         <f>Calcs!U8</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T6" s="7">
         <f>Calcs!V8</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U6" s="7">
         <f>Calcs!W8</f>
@@ -14895,15 +14105,15 @@
       </c>
       <c r="W6" s="7">
         <f>Calcs!Y8</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X6" s="7">
         <f>Calcs!Z8</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y6" s="7">
         <f>Calcs!AA8</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z6" s="7">
         <f>Calcs!AB8</f>
@@ -14930,7 +14140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14960,7 +14170,7 @@
       </c>
       <c r="H7" s="7">
         <f>Calcs!J9</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I7" s="7">
         <f>Calcs!K9</f>
@@ -14980,7 +14190,7 @@
       </c>
       <c r="M7" s="7">
         <f>Calcs!O9</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N7" s="7">
         <f>Calcs!P9</f>
@@ -14988,7 +14198,7 @@
       </c>
       <c r="O7" s="7">
         <f>Calcs!Q9</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P7" s="7">
         <f>Calcs!R9</f>
@@ -15000,15 +14210,15 @@
       </c>
       <c r="R7" s="7">
         <f>Calcs!T9</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S7" s="7">
         <f>Calcs!U9</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T7" s="7">
         <f>Calcs!V9</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U7" s="7">
         <f>Calcs!W9</f>
@@ -15020,15 +14230,15 @@
       </c>
       <c r="W7" s="7">
         <f>Calcs!Y9</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X7" s="7">
         <f>Calcs!Z9</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y7" s="7">
         <f>Calcs!AA9</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z7" s="7">
         <f>Calcs!AB9</f>
@@ -15055,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15085,7 +14295,7 @@
       </c>
       <c r="H8" s="7">
         <f>Calcs!J10</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I8" s="7">
         <f>Calcs!K10</f>
@@ -15105,7 +14315,7 @@
       </c>
       <c r="M8" s="7">
         <f>Calcs!O10</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N8" s="7">
         <f>Calcs!P10</f>
@@ -15113,7 +14323,7 @@
       </c>
       <c r="O8" s="7">
         <f>Calcs!Q10</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P8" s="7">
         <f>Calcs!R10</f>
@@ -15125,15 +14335,15 @@
       </c>
       <c r="R8" s="7">
         <f>Calcs!T10</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S8" s="7">
         <f>Calcs!U10</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T8" s="7">
         <f>Calcs!V10</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U8" s="7">
         <f>Calcs!W10</f>
@@ -15145,15 +14355,15 @@
       </c>
       <c r="W8" s="7">
         <f>Calcs!Y10</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X8" s="7">
         <f>Calcs!Z10</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y8" s="7">
         <f>Calcs!AA10</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z8" s="7">
         <f>Calcs!AB10</f>
@@ -15180,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -15294,7 +14504,7 @@
       </c>
       <c r="AC9" s="7">
         <f>Calcs!AE11</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AD9" s="7">
         <f>Calcs!AF11</f>
@@ -15302,10 +14512,10 @@
       </c>
       <c r="AE9" s="7">
         <f>Calcs!AG11</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -15419,7 +14629,7 @@
       </c>
       <c r="AC10" s="7">
         <f>Calcs!AE12</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AD10" s="7">
         <f>Calcs!AF12</f>
@@ -15427,10 +14637,10 @@
       </c>
       <c r="AE10" s="7">
         <f>Calcs!AG12</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -15544,7 +14754,7 @@
       </c>
       <c r="AC11" s="7">
         <f>Calcs!AE13</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AD11" s="7">
         <f>Calcs!AF13</f>
@@ -15552,10 +14762,10 @@
       </c>
       <c r="AE11" s="7">
         <f>Calcs!AG13</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -15585,7 +14795,7 @@
       </c>
       <c r="H12" s="7">
         <f>Calcs!J14</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I12" s="7">
         <f>Calcs!K14</f>
@@ -15605,7 +14815,7 @@
       </c>
       <c r="M12" s="7">
         <f>Calcs!O14</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N12" s="7">
         <f>Calcs!P14</f>
@@ -15613,7 +14823,7 @@
       </c>
       <c r="O12" s="7">
         <f>Calcs!Q14</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P12" s="7">
         <f>Calcs!R14</f>
@@ -15625,15 +14835,15 @@
       </c>
       <c r="R12" s="7">
         <f>Calcs!T14</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S12" s="7">
         <f>Calcs!U14</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T12" s="7">
         <f>Calcs!V14</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U12" s="7">
         <f>Calcs!W14</f>
@@ -15645,15 +14855,15 @@
       </c>
       <c r="W12" s="7">
         <f>Calcs!Y14</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X12" s="7">
         <f>Calcs!Z14</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y12" s="7">
         <f>Calcs!AA14</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z12" s="7">
         <f>Calcs!AB14</f>
@@ -15680,7 +14890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -15794,7 +15004,7 @@
       </c>
       <c r="AC13" s="7">
         <f>Calcs!AE15</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AD13" s="7">
         <f>Calcs!AF15</f>
@@ -15802,10 +15012,10 @@
       </c>
       <c r="AE13" s="7">
         <f>Calcs!AG15</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -15919,7 +15129,7 @@
       </c>
       <c r="AC14" s="7">
         <f>Calcs!AE16</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AD14" s="7">
         <f>Calcs!AF16</f>
@@ -15927,10 +15137,10 @@
       </c>
       <c r="AE14" s="7">
         <f>Calcs!AG16</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -16044,7 +15254,7 @@
       </c>
       <c r="AC15" s="7">
         <f>Calcs!AE17</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AD15" s="7">
         <f>Calcs!AF17</f>
@@ -16052,10 +15262,10 @@
       </c>
       <c r="AE15" s="7">
         <f>Calcs!AG17</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -16169,7 +15379,7 @@
       </c>
       <c r="AC16" s="7">
         <f>Calcs!AE18</f>
-        <v>0.9677708310487817</v>
+        <v>0.96777083104878181</v>
       </c>
       <c r="AD16" s="7">
         <f>Calcs!AF18</f>
@@ -16177,10 +15387,10 @@
       </c>
       <c r="AE16" s="7">
         <f>Calcs!AG18</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.96831779083092218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -16210,7 +15420,7 @@
       </c>
       <c r="H17" s="7">
         <f>Calcs!J19</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I17" s="7">
         <f>Calcs!K19</f>
@@ -16230,7 +15440,7 @@
       </c>
       <c r="M17" s="7">
         <f>Calcs!O19</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N17" s="7">
         <f>Calcs!P19</f>
@@ -16238,7 +15448,7 @@
       </c>
       <c r="O17" s="7">
         <f>Calcs!Q19</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P17" s="7">
         <f>Calcs!R19</f>
@@ -16250,15 +15460,15 @@
       </c>
       <c r="R17" s="7">
         <f>Calcs!T19</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S17" s="7">
         <f>Calcs!U19</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T17" s="7">
         <f>Calcs!V19</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U17" s="7">
         <f>Calcs!W19</f>
@@ -16270,15 +15480,15 @@
       </c>
       <c r="W17" s="7">
         <f>Calcs!Y19</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X17" s="7">
         <f>Calcs!Z19</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y17" s="7">
         <f>Calcs!AA19</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z17" s="7">
         <f>Calcs!AB19</f>
@@ -16305,7 +15515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -16335,7 +15545,7 @@
       </c>
       <c r="H18" s="7">
         <f>Calcs!J20</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I18" s="7">
         <f>Calcs!K20</f>
@@ -16355,7 +15565,7 @@
       </c>
       <c r="M18" s="7">
         <f>Calcs!O20</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N18" s="7">
         <f>Calcs!P20</f>
@@ -16363,7 +15573,7 @@
       </c>
       <c r="O18" s="7">
         <f>Calcs!Q20</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P18" s="7">
         <f>Calcs!R20</f>
@@ -16375,15 +15585,15 @@
       </c>
       <c r="R18" s="7">
         <f>Calcs!T20</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S18" s="7">
         <f>Calcs!U20</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T18" s="7">
         <f>Calcs!V20</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U18" s="7">
         <f>Calcs!W20</f>
@@ -16395,15 +15605,15 @@
       </c>
       <c r="W18" s="7">
         <f>Calcs!Y20</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X18" s="7">
         <f>Calcs!Z20</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y18" s="7">
         <f>Calcs!AA20</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z18" s="7">
         <f>Calcs!AB20</f>
@@ -16430,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -16460,7 +15670,7 @@
       </c>
       <c r="H19" s="7">
         <f>Calcs!J21</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I19" s="7">
         <f>Calcs!K21</f>
@@ -16480,7 +15690,7 @@
       </c>
       <c r="M19" s="7">
         <f>Calcs!O21</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N19" s="7">
         <f>Calcs!P21</f>
@@ -16488,7 +15698,7 @@
       </c>
       <c r="O19" s="7">
         <f>Calcs!Q21</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P19" s="7">
         <f>Calcs!R21</f>
@@ -16500,15 +15710,15 @@
       </c>
       <c r="R19" s="7">
         <f>Calcs!T21</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S19" s="7">
         <f>Calcs!U21</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T19" s="7">
         <f>Calcs!V21</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U19" s="7">
         <f>Calcs!W21</f>
@@ -16520,15 +15730,15 @@
       </c>
       <c r="W19" s="7">
         <f>Calcs!Y21</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X19" s="7">
         <f>Calcs!Z21</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y19" s="7">
         <f>Calcs!AA21</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z19" s="7">
         <f>Calcs!AB21</f>
@@ -16555,7 +15765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -16585,7 +15795,7 @@
       </c>
       <c r="H20" s="7">
         <f>Calcs!J22</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I20" s="7">
         <f>Calcs!K22</f>
@@ -16605,7 +15815,7 @@
       </c>
       <c r="M20" s="7">
         <f>Calcs!O22</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N20" s="7">
         <f>Calcs!P22</f>
@@ -16613,7 +15823,7 @@
       </c>
       <c r="O20" s="7">
         <f>Calcs!Q22</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P20" s="7">
         <f>Calcs!R22</f>
@@ -16625,15 +15835,15 @@
       </c>
       <c r="R20" s="7">
         <f>Calcs!T22</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S20" s="7">
         <f>Calcs!U22</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T20" s="7">
         <f>Calcs!V22</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U20" s="7">
         <f>Calcs!W22</f>
@@ -16645,15 +15855,15 @@
       </c>
       <c r="W20" s="7">
         <f>Calcs!Y22</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X20" s="7">
         <f>Calcs!Z22</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y20" s="7">
         <f>Calcs!AA22</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z20" s="7">
         <f>Calcs!AB22</f>
@@ -16680,7 +15890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -16710,7 +15920,7 @@
       </c>
       <c r="H21" s="7">
         <f>Calcs!J23</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I21" s="7">
         <f>Calcs!K23</f>
@@ -16730,7 +15940,7 @@
       </c>
       <c r="M21" s="7">
         <f>Calcs!O23</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N21" s="7">
         <f>Calcs!P23</f>
@@ -16738,7 +15948,7 @@
       </c>
       <c r="O21" s="7">
         <f>Calcs!Q23</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P21" s="7">
         <f>Calcs!R23</f>
@@ -16750,15 +15960,15 @@
       </c>
       <c r="R21" s="7">
         <f>Calcs!T23</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S21" s="7">
         <f>Calcs!U23</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T21" s="7">
         <f>Calcs!V23</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U21" s="7">
         <f>Calcs!W23</f>
@@ -16770,15 +15980,15 @@
       </c>
       <c r="W21" s="7">
         <f>Calcs!Y23</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X21" s="7">
         <f>Calcs!Z23</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y21" s="7">
         <f>Calcs!AA23</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z21" s="7">
         <f>Calcs!AB23</f>
@@ -16805,7 +16015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -16835,7 +16045,7 @@
       </c>
       <c r="H22" s="7">
         <f>Calcs!J24</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I22" s="7">
         <f>Calcs!K24</f>
@@ -16855,7 +16065,7 @@
       </c>
       <c r="M22" s="7">
         <f>Calcs!O24</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N22" s="7">
         <f>Calcs!P24</f>
@@ -16863,7 +16073,7 @@
       </c>
       <c r="O22" s="7">
         <f>Calcs!Q24</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P22" s="7">
         <f>Calcs!R24</f>
@@ -16875,15 +16085,15 @@
       </c>
       <c r="R22" s="7">
         <f>Calcs!T24</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S22" s="7">
         <f>Calcs!U24</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T22" s="7">
         <f>Calcs!V24</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U22" s="7">
         <f>Calcs!W24</f>
@@ -16895,15 +16105,15 @@
       </c>
       <c r="W22" s="7">
         <f>Calcs!Y24</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X22" s="7">
         <f>Calcs!Z24</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y22" s="7">
         <f>Calcs!AA24</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z22" s="7">
         <f>Calcs!AB24</f>
@@ -16930,7 +16140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -16960,7 +16170,7 @@
       </c>
       <c r="H23" s="7">
         <f>Calcs!J25</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I23" s="7">
         <f>Calcs!K25</f>
@@ -16980,7 +16190,7 @@
       </c>
       <c r="M23" s="7">
         <f>Calcs!O25</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N23" s="7">
         <f>Calcs!P25</f>
@@ -16988,7 +16198,7 @@
       </c>
       <c r="O23" s="7">
         <f>Calcs!Q25</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P23" s="7">
         <f>Calcs!R25</f>
@@ -17000,15 +16210,15 @@
       </c>
       <c r="R23" s="7">
         <f>Calcs!T25</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S23" s="7">
         <f>Calcs!U25</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T23" s="7">
         <f>Calcs!V25</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U23" s="7">
         <f>Calcs!W25</f>
@@ -17020,15 +16230,15 @@
       </c>
       <c r="W23" s="7">
         <f>Calcs!Y25</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X23" s="7">
         <f>Calcs!Z25</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y23" s="7">
         <f>Calcs!AA25</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z23" s="7">
         <f>Calcs!AB25</f>
@@ -17055,7 +16265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -17085,7 +16295,7 @@
       </c>
       <c r="H24" s="7">
         <f>Calcs!J26</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I24" s="7">
         <f>Calcs!K26</f>
@@ -17105,7 +16315,7 @@
       </c>
       <c r="M24" s="7">
         <f>Calcs!O26</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N24" s="7">
         <f>Calcs!P26</f>
@@ -17113,7 +16323,7 @@
       </c>
       <c r="O24" s="7">
         <f>Calcs!Q26</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P24" s="7">
         <f>Calcs!R26</f>
@@ -17125,15 +16335,15 @@
       </c>
       <c r="R24" s="7">
         <f>Calcs!T26</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S24" s="7">
         <f>Calcs!U26</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T24" s="7">
         <f>Calcs!V26</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U24" s="7">
         <f>Calcs!W26</f>
@@ -17145,15 +16355,15 @@
       </c>
       <c r="W24" s="7">
         <f>Calcs!Y26</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X24" s="7">
         <f>Calcs!Z26</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y24" s="7">
         <f>Calcs!AA26</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z24" s="7">
         <f>Calcs!AB26</f>
@@ -17180,7 +16390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -17305,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -17335,7 +16545,7 @@
       </c>
       <c r="H26" s="7">
         <f>Calcs!J28</f>
-        <v>9.8064064411638369E-2</v>
+        <v>9.8064064411638355E-2</v>
       </c>
       <c r="I26" s="7">
         <f>Calcs!K28</f>
@@ -17355,7 +16565,7 @@
       </c>
       <c r="M26" s="7">
         <f>Calcs!O28</f>
-        <v>0.2443274226392308</v>
+        <v>0.24432742263923077</v>
       </c>
       <c r="N26" s="7">
         <f>Calcs!P28</f>
@@ -17363,7 +16573,7 @@
       </c>
       <c r="O26" s="7">
         <f>Calcs!Q28</f>
-        <v>0.40137134507933409</v>
+        <v>0.40137134507933414</v>
       </c>
       <c r="P26" s="7">
         <f>Calcs!R28</f>
@@ -17375,15 +16585,15 @@
       </c>
       <c r="R26" s="7">
         <f>Calcs!T28</f>
-        <v>0.58780166857069494</v>
+        <v>0.58780166857069505</v>
       </c>
       <c r="S26" s="7">
         <f>Calcs!U28</f>
-        <v>0.64107156903540741</v>
+        <v>0.6410715690354073</v>
       </c>
       <c r="T26" s="7">
         <f>Calcs!V28</f>
-        <v>0.69271285458110032</v>
+        <v>0.69271285458110043</v>
       </c>
       <c r="U26" s="7">
         <f>Calcs!W28</f>
@@ -17395,15 +16605,15 @@
       </c>
       <c r="W26" s="7">
         <f>Calcs!Y28</f>
-        <v>0.86448684592783587</v>
+        <v>0.86448684592783598</v>
       </c>
       <c r="X26" s="7">
         <f>Calcs!Z28</f>
-        <v>0.9227012464455262</v>
+        <v>0.92270124644552631</v>
       </c>
       <c r="Y26" s="7">
         <f>Calcs!AA28</f>
-        <v>0.97926223810419988</v>
+        <v>0.97926223810419977</v>
       </c>
       <c r="Z26" s="7">
         <f>Calcs!AB28</f>
@@ -17430,7 +16640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>

--- a/InputData/fuels/FoICStCT/Fraction of Industry Category Subject to Carbon Tax.xlsx
+++ b/InputData/fuels/FoICStCT/Fraction of Industry Category Subject to Carbon Tax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\FoICStCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC0370-4CC0-4B56-842D-AB650186D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204976B2-1717-49D5-853A-AE7AE19B3B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59310" yWindow="1710" windowWidth="25020" windowHeight="13230" tabRatio="636" activeTab="6" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
+    <workbookView xWindow="6330" yWindow="2700" windowWidth="21600" windowHeight="10950" tabRatio="636" activeTab="4" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="180">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -554,9 +554,6 @@
     <t>inflation correction</t>
   </si>
   <si>
-    <t>exchange rate 2012</t>
-  </si>
-  <si>
     <t>From fuels/BCTR</t>
   </si>
   <si>
@@ -630,6 +627,18 @@
   </si>
   <si>
     <t>applying a multipler (&lt; 1) to industries with lower auction prices.</t>
+  </si>
+  <si>
+    <t>exchange rate 2019</t>
+  </si>
+  <si>
+    <t>ETS2 Price [EUR2023]</t>
+  </si>
+  <si>
+    <t>OCCF:</t>
+  </si>
+  <si>
+    <t>2012USD to 2023EUR</t>
   </si>
 </sst>
 </file>
@@ -646,7 +655,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +718,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -827,7 +842,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -889,6 +904,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -1750,25 +1766,25 @@
                   <c:v>73.311213204015658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.573121384209628</c:v>
+                  <c:v>53.140154415518118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.726806142856148</c:v>
+                  <c:v>60.158248164342268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.740717770099934</c:v>
+                  <c:v>73.648472779175492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.618946176126954</c:v>
+                  <c:v>80.924799184742042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.934884535277575</c:v>
+                  <c:v>87.681794884874364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102.92194327295809</c:v>
+                  <c:v>95.05863691084754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112.83485811806231</c:v>
+                  <c:v>104.21419832975535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,25 +1989,25 @@
                   <c:v>38.311213204015658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.573121384209628</c:v>
+                  <c:v>18.140154415518118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.726806142856148</c:v>
+                  <c:v>25.158248164342268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.740717770099934</c:v>
+                  <c:v>35.648472779175492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.618946176126954</c:v>
+                  <c:v>39.924799184742042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.934884535277575</c:v>
+                  <c:v>43.681794884874364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.921943272958089</c:v>
+                  <c:v>48.05863691084754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.834858118062314</c:v>
+                  <c:v>54.214198329755348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,67 +2420,67 @@
                   <c:v>73.311213204015658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.573121384209628</c:v>
+                  <c:v>53.140154415518118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.726806142856148</c:v>
+                  <c:v>60.158248164342268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.740717770099934</c:v>
+                  <c:v>73.648472779175492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.618946176126954</c:v>
+                  <c:v>80.924799184742042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.934884535277575</c:v>
+                  <c:v>87.681794884874364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102.92194327295809</c:v>
+                  <c:v>95.05863691084754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.83485811806231</c:v>
+                  <c:v>104.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114.83485811806231</c:v>
+                  <c:v>106.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116.83485811806231</c:v>
+                  <c:v>108.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.83485811806231</c:v>
+                  <c:v>110.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120.83485811806231</c:v>
+                  <c:v>112.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>122.83485811806231</c:v>
+                  <c:v>114.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124.83485811806231</c:v>
+                  <c:v>116.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>126.83485811806231</c:v>
+                  <c:v>118.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128.8348581180623</c:v>
+                  <c:v>120.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130.8348581180623</c:v>
+                  <c:v>122.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132.8348581180623</c:v>
+                  <c:v>124.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.8348581180623</c:v>
+                  <c:v>126.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>136.8348581180623</c:v>
+                  <c:v>128.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>138.8348581180623</c:v>
+                  <c:v>130.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>140.8348581180623</c:v>
+                  <c:v>137.91425836378113</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>147.72542009193839</c:v>
@@ -2863,85 +2879,85 @@
                   <c:v>73.311213204015658</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>61.573121384209628</c:v>
+                  <c:v>53.140154415518118</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>67.726806142856148</c:v>
+                  <c:v>60.158248164342268</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>79.740717770099934</c:v>
+                  <c:v>73.648472779175492</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>87.618946176126954</c:v>
+                  <c:v>80.924799184742042</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>94.934884535277575</c:v>
+                  <c:v>87.681794884874364</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>102.92194327295809</c:v>
+                  <c:v>95.05863691084754</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>112.83485811806231</c:v>
+                  <c:v>104.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>114.83485811806231</c:v>
+                  <c:v>106.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>116.83485811806231</c:v>
+                  <c:v>108.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>118.83485811806231</c:v>
+                  <c:v>110.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>120.83485811806231</c:v>
+                  <c:v>112.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>122.83485811806231</c:v>
+                  <c:v>114.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>124.83485811806231</c:v>
+                  <c:v>116.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>126.83485811806231</c:v>
+                  <c:v>118.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>128.8348581180623</c:v>
+                  <c:v>120.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>130.8348581180623</c:v>
+                  <c:v>122.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>132.8348581180623</c:v>
+                  <c:v>124.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>134.8348581180623</c:v>
+                  <c:v>126.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>136.8348581180623</c:v>
+                  <c:v>128.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>138.8348581180623</c:v>
+                  <c:v>130.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>140.8348581180623</c:v>
+                  <c:v>132.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>142.8348581180623</c:v>
+                  <c:v>134.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>144.8348581180623</c:v>
+                  <c:v>136.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>146.8348581180623</c:v>
+                  <c:v>138.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>148.8348581180623</c:v>
+                  <c:v>140.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>150.8348581180623</c:v>
+                  <c:v>142.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>152.8348581180623</c:v>
+                  <c:v>144.21419832975533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,7 +5197,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>951191</xdr:colOff>
+      <xdr:colOff>939986</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>40728</xdr:rowOff>
     </xdr:to>
@@ -5846,21 +5862,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE5FEEC-01CE-4291-999E-35B30A1256CF}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -5873,28 +5889,28 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>40</v>
@@ -5905,28 +5921,28 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>59</v>
@@ -5937,40 +5953,40 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="10">
         <v>45052</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
         <v>63</v>
@@ -5981,32 +5997,32 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -6014,126 +6030,126 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>150</v>
       </c>
       <c r="B50">
-        <v>0.9237749814519286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.90049000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51">
-        <v>1.2847999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="B51" s="51">
+        <v>1.1198999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
     </row>
   </sheetData>
@@ -6150,21 +6166,21 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="57.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6175,7 +6191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6183,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6195,7 +6211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6206,7 +6222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6217,7 +6233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6228,7 +6244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6239,7 +6255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6247,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6259,7 +6275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6267,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6279,7 +6295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6287,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6298,7 +6314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6306,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6314,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6322,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6330,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6338,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6346,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6354,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6362,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6370,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6378,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6386,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6394,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6418,22 +6434,22 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2020</v>
       </c>
@@ -6528,7 +6544,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>137</v>
       </c>
@@ -6626,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>57</v>
       </c>
@@ -6724,12 +6740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2020</v>
       </c>
@@ -6824,7 +6840,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -6953,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>57</v>
       </c>
@@ -7102,12 +7118,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>135</v>
       </c>
@@ -7121,30 +7137,30 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -7155,7 +7171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -7169,7 +7185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -7183,7 +7199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2</v>
       </c>
@@ -7197,7 +7213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -7205,7 +7221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2</v>
       </c>
@@ -7213,7 +7229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -7221,7 +7237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2</v>
       </c>
@@ -7229,7 +7245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -7237,7 +7253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
@@ -7245,7 +7261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -7253,7 +7269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
@@ -7261,7 +7277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
@@ -7269,7 +7285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -7277,7 +7293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1</v>
       </c>
@@ -7285,7 +7301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1</v>
       </c>
@@ -7293,7 +7309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2</v>
       </c>
@@ -7301,7 +7317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2</v>
       </c>
@@ -7309,7 +7325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -7317,7 +7333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -7325,7 +7341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -7333,7 +7349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2</v>
       </c>
@@ -7341,7 +7357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2</v>
       </c>
@@ -7349,7 +7365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2</v>
       </c>
@@ -7357,7 +7373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0</v>
       </c>
@@ -7365,7 +7381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
@@ -7382,25 +7398,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51415790-FCED-4F1B-A968-7C9062D5254E}">
   <dimension ref="A1:AF115"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N119" sqref="N119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="47"/>
@@ -7408,8 +7425,8 @@
       <c r="G1" s="46"/>
       <c r="H1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>141</v>
       </c>
@@ -7435,8 +7452,11 @@
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="T3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>74</v>
       </c>
@@ -7460,6 +7480,12 @@
         <v>77</v>
       </c>
       <c r="R4" s="23"/>
+      <c r="T4">
+        <v>0.81612960000000001</v>
+      </c>
+      <c r="U4" t="s">
+        <v>179</v>
+      </c>
       <c r="AA4" s="9">
         <v>2020</v>
       </c>
@@ -7470,7 +7496,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>79</v>
       </c>
@@ -7516,7 +7542,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>86</v>
       </c>
@@ -7563,7 +7589,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I7" s="28" t="s">
         <v>92</v>
       </c>
@@ -7588,7 +7614,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>140</v>
       </c>
@@ -7599,7 +7625,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>96</v>
       </c>
@@ -7610,7 +7636,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>98</v>
       </c>
@@ -7621,7 +7647,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>100</v>
       </c>
@@ -7632,7 +7658,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AB12" t="s">
         <v>102</v>
       </c>
@@ -7640,7 +7666,7 @@
         <v>26.93</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>139</v>
       </c>
@@ -7651,7 +7677,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="V14">
         <v>1.182841</v>
       </c>
@@ -7662,7 +7688,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
         <v>106</v>
       </c>
@@ -7673,7 +7699,7 @@
         <v>32.72</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>108</v>
       </c>
@@ -7708,7 +7734,7 @@
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D17" s="35" t="s">
         <v>116</v>
       </c>
@@ -7762,7 +7788,7 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="18" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:29" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>2025</v>
       </c>
@@ -7816,7 +7842,7 @@
         <v>42.55</v>
       </c>
     </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:29" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>2026</v>
       </c>
@@ -7874,7 +7900,7 @@
         <v>48.84</v>
       </c>
     </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:29" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>2027</v>
       </c>
@@ -7932,7 +7958,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="21" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:29" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>2028</v>
       </c>
@@ -7990,7 +8016,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:29" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>2029</v>
       </c>
@@ -8048,7 +8074,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:29" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>2030</v>
       </c>
@@ -8105,7 +8131,7 @@
         <v>60.76</v>
       </c>
     </row>
-    <row r="24" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:29" x14ac:dyDescent="0.25">
       <c r="AB24" t="s">
         <v>102</v>
       </c>
@@ -8113,7 +8139,7 @@
         <v>61.74</v>
       </c>
     </row>
-    <row r="25" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:29" x14ac:dyDescent="0.25">
       <c r="AB25" t="s">
         <v>104</v>
       </c>
@@ -8121,7 +8147,7 @@
         <v>58.71</v>
       </c>
     </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:29" x14ac:dyDescent="0.25">
       <c r="AB26" t="s">
         <v>105</v>
       </c>
@@ -8129,7 +8155,7 @@
         <v>75.37</v>
       </c>
     </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:29" x14ac:dyDescent="0.25">
       <c r="AB27" t="s">
         <v>107</v>
       </c>
@@ -8137,7 +8163,7 @@
         <v>80.650000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>119</v>
       </c>
@@ -8157,7 +8183,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2020</v>
       </c>
@@ -8170,7 +8196,7 @@
         <v>24.983873327481177</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2021</v>
       </c>
@@ -8184,7 +8210,7 @@
       </c>
       <c r="E36" s="39">
         <f>D36/MAX(D$38:D$45)</f>
-        <v>0.47413816765015843</v>
+        <v>0.51335915578298397</v>
       </c>
       <c r="F36" s="22" cm="1">
         <f t="array" ref="F36:F45">TRANSPOSE(B55:K55)</f>
@@ -8196,10 +8222,10 @@
       </c>
       <c r="H36" s="39">
         <f t="shared" ref="H36:H37" si="3">G36/MAX(G$38:G$45)</f>
-        <v>0.29441162802348897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.34122634743471542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2022</v>
       </c>
@@ -8212,7 +8238,7 @@
       </c>
       <c r="E37" s="39">
         <f t="shared" ref="E37:E45" si="4">D37/MAX(D$38:D$45)</f>
-        <v>0.62726757847751802</v>
+        <v>0.67915552155010683</v>
       </c>
       <c r="F37" s="22">
         <v>35</v>
@@ -8223,10 +8249,10 @@
       </c>
       <c r="H37" s="39">
         <f t="shared" si="3"/>
-        <v>0.56939172445249353</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.65993133389071579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2023</v>
       </c>
@@ -8239,7 +8265,7 @@
       </c>
       <c r="E38" s="39">
         <f t="shared" si="4"/>
-        <v>0.64972132217606071</v>
+        <v>0.70346665213547743</v>
       </c>
       <c r="F38" s="22">
         <v>35</v>
@@ -8250,73 +8276,73 @@
       </c>
       <c r="H38" s="39">
         <f>G38/MAX(G$38:G$45)</f>
-        <v>0.60971273511959811</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.70666383317133052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2024</v>
       </c>
       <c r="C39">
-        <v>74.11</v>
+        <v>63.96</v>
       </c>
       <c r="D39" s="38">
         <f>C39/M5</f>
-        <v>61.573121384209628</v>
+        <v>53.140154415518118</v>
       </c>
       <c r="E39" s="39">
         <f t="shared" si="4"/>
-        <v>0.5456923721194733</v>
+        <v>0.50991280715293363</v>
       </c>
       <c r="F39" s="22">
         <v>35</v>
       </c>
       <c r="G39" s="38">
         <f t="shared" si="2"/>
-        <v>26.573121384209628</v>
+        <v>18.140154415518118</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" ref="H39:H45" si="5">G39/MAX(G$38:G$45)</f>
-        <v>0.42290413601763194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.3346015430345658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2025</v>
       </c>
       <c r="C40">
-        <v>83.31</v>
+        <v>74</v>
       </c>
       <c r="D40" s="38">
         <f>C40/M6</f>
-        <v>67.726806142856148</v>
+        <v>60.158248164342268</v>
       </c>
       <c r="E40" s="39">
         <f t="shared" si="4"/>
-        <v>0.60022946164377389</v>
+        <v>0.57725577827686292</v>
       </c>
       <c r="F40" s="22">
         <v>35</v>
       </c>
       <c r="G40" s="38">
         <f t="shared" si="2"/>
-        <v>32.726806142856148</v>
+        <v>25.158248164342268</v>
       </c>
       <c r="H40" s="39">
         <f t="shared" si="5"/>
-        <v>0.52083838689290529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.46405275627831644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2026</v>
       </c>
       <c r="C41">
-        <v>100.13</v>
+        <v>92.48</v>
       </c>
       <c r="D41" s="38">
         <f>C41/(M6+(M7-M6)/5)</f>
-        <v>79.740717770099934</v>
+        <v>73.648472779175492</v>
       </c>
       <c r="E41" s="39">
         <f t="shared" si="4"/>
@@ -8327,20 +8353,20 @@
       </c>
       <c r="G41" s="38">
         <f t="shared" si="2"/>
-        <v>41.740717770099934</v>
+        <v>35.648472779175492</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="5"/>
-        <v>0.66429238515462286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.65754864735516905</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2027</v>
       </c>
       <c r="D42" s="38">
         <f>D41*(1+U20)</f>
-        <v>87.618946176126954</v>
+        <v>80.924799184742042</v>
       </c>
       <c r="E42" s="39">
         <f t="shared" si="4"/>
@@ -8351,20 +8377,20 @@
       </c>
       <c r="G42" s="38">
         <f t="shared" si="2"/>
-        <v>46.618946176126954</v>
+        <v>39.924799184742042</v>
       </c>
       <c r="H42" s="39">
         <f t="shared" si="5"/>
-        <v>0.7419280885226669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.73642699541366086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2028</v>
       </c>
       <c r="D43" s="38">
         <f>D42*(1+U21)</f>
-        <v>94.934884535277575</v>
+        <v>87.681794884874364</v>
       </c>
       <c r="E43" s="39">
         <f t="shared" si="4"/>
@@ -8375,44 +8401,44 @@
       </c>
       <c r="G43" s="38">
         <f t="shared" si="2"/>
-        <v>50.934884535277575</v>
+        <v>43.681794884874364</v>
       </c>
       <c r="H43" s="39">
         <f t="shared" si="5"/>
-        <v>0.81061509583700309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.80572610553386537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2029</v>
       </c>
       <c r="D44" s="38">
         <f>D43*(1+U22)</f>
-        <v>102.92194327295809</v>
+        <v>95.05863691084754</v>
       </c>
       <c r="E44" s="39">
         <f t="shared" si="4"/>
-        <v>0.91214669818849725</v>
+        <v>0.91214669818849714</v>
       </c>
       <c r="F44" s="22">
         <v>47</v>
       </c>
       <c r="G44" s="38">
         <f t="shared" si="2"/>
-        <v>55.921943272958089</v>
+        <v>48.05863691084754</v>
       </c>
       <c r="H44" s="39">
         <f t="shared" si="5"/>
-        <v>0.88998280489286152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.88645849964492895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2030</v>
       </c>
       <c r="D45" s="38">
         <f>D44*(1+U23)</f>
-        <v>112.83485811806231</v>
+        <v>104.21419832975535</v>
       </c>
       <c r="E45" s="39">
         <f t="shared" si="4"/>
@@ -8423,21 +8449,21 @@
       </c>
       <c r="G45" s="38">
         <f t="shared" si="2"/>
-        <v>62.834858118062314</v>
+        <v>54.214198329755348</v>
       </c>
       <c r="H45" s="39">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D46" s="38"/>
       <c r="E46" s="39"/>
       <c r="F46" s="22"/>
       <c r="G46" s="38"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -8535,9 +8561,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" s="38">
         <f>D35</f>
@@ -8555,246 +8581,368 @@
         <v>73.311213204015658</v>
       </c>
       <c r="F48" s="45">
-        <v>61.573121384209628</v>
+        <v>53.140154415518118</v>
       </c>
       <c r="G48" s="45">
-        <v>67.726806142856148</v>
+        <v>60.158248164342268</v>
       </c>
       <c r="H48" s="45">
-        <v>79.740717770099934</v>
+        <v>73.648472779175492</v>
       </c>
       <c r="I48" s="45">
-        <v>87.618946176126954</v>
+        <v>80.924799184742042</v>
       </c>
       <c r="J48" s="45">
-        <v>94.934884535277575</v>
+        <v>87.681794884874364</v>
       </c>
       <c r="K48" s="45">
-        <v>102.92194327295809</v>
+        <v>95.05863691084754</v>
       </c>
       <c r="L48" s="45">
-        <v>112.83485811806231</v>
+        <v>104.21419832975535</v>
       </c>
       <c r="M48" s="45">
         <f t="shared" ref="M48:AF48" si="6">L55+$G45</f>
-        <v>114.83485811806231</v>
+        <v>106.21419832975535</v>
       </c>
       <c r="N48" s="45">
         <f t="shared" si="6"/>
-        <v>116.83485811806231</v>
+        <v>108.21419832975535</v>
       </c>
       <c r="O48" s="45">
         <f t="shared" si="6"/>
-        <v>118.83485811806231</v>
+        <v>110.21419832975535</v>
       </c>
       <c r="P48" s="45">
         <f t="shared" si="6"/>
-        <v>120.83485811806231</v>
+        <v>112.21419832975535</v>
       </c>
       <c r="Q48" s="45">
         <f t="shared" si="6"/>
-        <v>122.83485811806231</v>
+        <v>114.21419832975535</v>
       </c>
       <c r="R48" s="45">
         <f t="shared" si="6"/>
-        <v>124.83485811806231</v>
+        <v>116.21419832975535</v>
       </c>
       <c r="S48" s="45">
         <f t="shared" si="6"/>
-        <v>126.83485811806231</v>
+        <v>118.21419832975535</v>
       </c>
       <c r="T48" s="45">
         <f t="shared" si="6"/>
-        <v>128.8348581180623</v>
+        <v>120.21419832975535</v>
       </c>
       <c r="U48" s="45">
         <f t="shared" si="6"/>
-        <v>130.8348581180623</v>
+        <v>122.21419832975535</v>
       </c>
       <c r="V48" s="45">
         <f t="shared" si="6"/>
-        <v>132.8348581180623</v>
+        <v>124.21419832975535</v>
       </c>
       <c r="W48" s="45">
         <f t="shared" si="6"/>
-        <v>134.8348581180623</v>
+        <v>126.21419832975535</v>
       </c>
       <c r="X48" s="45">
         <f t="shared" si="6"/>
-        <v>136.8348581180623</v>
+        <v>128.21419832975533</v>
       </c>
       <c r="Y48" s="45">
         <f t="shared" si="6"/>
-        <v>138.8348581180623</v>
+        <v>130.21419832975533</v>
       </c>
       <c r="Z48" s="45">
         <f t="shared" si="6"/>
-        <v>140.8348581180623</v>
+        <v>132.21419832975533</v>
       </c>
       <c r="AA48" s="45">
         <f t="shared" si="6"/>
-        <v>142.8348581180623</v>
+        <v>134.21419832975533</v>
       </c>
       <c r="AB48" s="45">
         <f t="shared" si="6"/>
-        <v>144.8348581180623</v>
+        <v>136.21419832975533</v>
       </c>
       <c r="AC48" s="45">
         <f t="shared" si="6"/>
-        <v>146.8348581180623</v>
+        <v>138.21419832975533</v>
       </c>
       <c r="AD48" s="45">
         <f t="shared" si="6"/>
-        <v>148.8348581180623</v>
+        <v>140.21419832975533</v>
       </c>
       <c r="AE48" s="45">
         <f t="shared" si="6"/>
-        <v>150.8348581180623</v>
+        <v>142.21419832975533</v>
       </c>
       <c r="AF48" s="45">
         <f t="shared" si="6"/>
-        <v>152.8348581180623</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+        <v>144.21419832975533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B49" s="43">
-        <f>B48*About!$B51*About!$B50</f>
-        <v>29.652512203379324</v>
+        <f>B48*$Q5*$Q6</f>
+        <v>25.127471701343662</v>
       </c>
       <c r="C49" s="43">
-        <f>C48*About!$B51*About!$B50</f>
-        <v>63.496520619892848</v>
+        <f t="shared" ref="C49:AF49" si="7">C48*$Q5*$Q6</f>
+        <v>53.806807803229269</v>
       </c>
       <c r="D49" s="43">
-        <f>D48*About!$B51*About!$B50</f>
-        <v>84.003591038416303</v>
+        <f t="shared" si="7"/>
+        <v>71.184452843374814</v>
       </c>
       <c r="E49" s="43">
-        <f>E48*About!$B51*About!$B50</f>
-        <v>87.010593420895404</v>
+        <f t="shared" si="7"/>
+        <v>73.7325798537738</v>
       </c>
       <c r="F49" s="43">
-        <f>F48*About!$B51*About!$B50</f>
-        <v>73.079050206243807</v>
+        <f t="shared" si="7"/>
+        <v>53.445585029132225</v>
       </c>
       <c r="G49" s="43">
-        <f>G48*About!$B51*About!$B50</f>
-        <v>80.382650012795978</v>
+        <f t="shared" si="7"/>
+        <v>60.504016272336685</v>
       </c>
       <c r="H49" s="43">
-        <f>H48*About!$B51*About!$B50</f>
-        <v>94.641554405547438</v>
+        <f t="shared" si="7"/>
+        <v>74.071777876424449</v>
       </c>
       <c r="I49" s="43">
-        <f>I48*About!$B51*About!$B50</f>
-        <v>103.9919565985399</v>
+        <f t="shared" si="7"/>
+        <v>81.389926005381781</v>
       </c>
       <c r="J49" s="43">
-        <f>J48*About!$B51*About!$B50</f>
-        <v>112.67499579868122</v>
+        <f t="shared" si="7"/>
+        <v>88.185758501635206</v>
       </c>
       <c r="K49" s="43">
-        <f>K48*About!$B51*About!$B50</f>
-        <v>122.15456502254808</v>
+        <f t="shared" si="7"/>
+        <v>95.604999978857791</v>
       </c>
       <c r="L49" s="43">
-        <f>L48*About!$B51*About!$B50</f>
-        <v>133.91986756641703</v>
+        <f t="shared" si="7"/>
+        <v>104.81318429231523</v>
       </c>
       <c r="M49" s="43">
-        <f>M48*About!$B51*About!$B50</f>
-        <v>136.2935997587559</v>
+        <f t="shared" si="7"/>
+        <v>106.82467957745219</v>
       </c>
       <c r="N49" s="43">
-        <f>N48*About!$B51*About!$B50</f>
-        <v>138.66733195109475</v>
+        <f t="shared" si="7"/>
+        <v>108.83617486258913</v>
       </c>
       <c r="O49" s="43">
-        <f>O48*About!$B51*About!$B50</f>
-        <v>141.04106414343363</v>
+        <f t="shared" si="7"/>
+        <v>110.84767014772609</v>
       </c>
       <c r="P49" s="43">
-        <f>P48*About!$B51*About!$B50</f>
-        <v>143.41479633577254</v>
+        <f t="shared" si="7"/>
+        <v>112.85916543286305</v>
       </c>
       <c r="Q49" s="43">
-        <f>Q48*About!$B51*About!$B50</f>
-        <v>145.78852852811141</v>
+        <f t="shared" si="7"/>
+        <v>114.87066071800001</v>
       </c>
       <c r="R49" s="43">
-        <f>R48*About!$B51*About!$B50</f>
-        <v>148.16226072045026</v>
+        <f t="shared" si="7"/>
+        <v>116.88215600313697</v>
       </c>
       <c r="S49" s="43">
-        <f>S48*About!$B51*About!$B50</f>
-        <v>150.53599291278914</v>
+        <f t="shared" si="7"/>
+        <v>118.89365128827393</v>
       </c>
       <c r="T49" s="43">
-        <f>T48*About!$B51*About!$B50</f>
-        <v>152.90972510512802</v>
+        <f t="shared" si="7"/>
+        <v>120.90514657341089</v>
       </c>
       <c r="U49" s="43">
-        <f>U48*About!$B51*About!$B50</f>
-        <v>155.2834572974669</v>
+        <f t="shared" si="7"/>
+        <v>122.91664185854785</v>
       </c>
       <c r="V49" s="43">
-        <f>V48*About!$B51*About!$B50</f>
-        <v>157.65718948980575</v>
+        <f t="shared" si="7"/>
+        <v>124.92813714368478</v>
       </c>
       <c r="W49" s="43">
-        <f>W48*About!$B51*About!$B50</f>
-        <v>160.03092168214462</v>
+        <f t="shared" si="7"/>
+        <v>126.93963242882174</v>
       </c>
       <c r="X49" s="43">
-        <f>X48*About!$B51*About!$B50</f>
-        <v>162.4046538744835</v>
+        <f t="shared" si="7"/>
+        <v>128.9511277139587</v>
       </c>
       <c r="Y49" s="43">
-        <f>Y48*About!$B51*About!$B50</f>
-        <v>164.77838606682241</v>
+        <f t="shared" si="7"/>
+        <v>130.96262299909566</v>
       </c>
       <c r="Z49" s="43">
-        <f>Z48*About!$B51*About!$B50</f>
-        <v>167.15211825916126</v>
+        <f t="shared" si="7"/>
+        <v>132.97411828423259</v>
       </c>
       <c r="AA49" s="43">
-        <f>AA48*About!$B51*About!$B50</f>
-        <v>169.52585045150013</v>
+        <f t="shared" si="7"/>
+        <v>134.98561356936955</v>
       </c>
       <c r="AB49" s="43">
-        <f>AB48*About!$B51*About!$B50</f>
-        <v>171.89958264383901</v>
+        <f t="shared" si="7"/>
+        <v>136.99710885450651</v>
       </c>
       <c r="AC49" s="43">
-        <f>AC48*About!$B51*About!$B50</f>
-        <v>174.27331483617789</v>
+        <f t="shared" si="7"/>
+        <v>139.00860413964347</v>
       </c>
       <c r="AD49" s="43">
-        <f>AD48*About!$B51*About!$B50</f>
-        <v>176.64704702851677</v>
+        <f t="shared" si="7"/>
+        <v>141.0200994247804</v>
       </c>
       <c r="AE49" s="43">
-        <f>AE48*About!$B51*About!$B50</f>
-        <v>179.02077922085564</v>
+        <f t="shared" si="7"/>
+        <v>143.03159470991736</v>
       </c>
       <c r="AF49" s="43">
-        <f>AF48*About!$B51*About!$B50</f>
-        <v>181.39451141319449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
-    </row>
-    <row r="51" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>145.04308999505432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="38">
+        <f>B49/$T$4</f>
+        <v>30.788580271250623</v>
+      </c>
+      <c r="C50" s="38">
+        <f t="shared" ref="C50:AF50" si="8">C49/$T$4</f>
+        <v>65.929244329857994</v>
+      </c>
+      <c r="D50" s="38">
+        <f t="shared" si="8"/>
+        <v>87.221996167489593</v>
+      </c>
+      <c r="E50" s="38">
+        <f t="shared" si="8"/>
+        <v>90.344204956876695</v>
+      </c>
+      <c r="F50" s="38">
+        <f t="shared" si="8"/>
+        <v>65.48663965763798</v>
+      </c>
+      <c r="G50" s="38">
+        <f t="shared" si="8"/>
+        <v>74.135304334430074</v>
+      </c>
+      <c r="H50" s="38">
+        <f t="shared" si="8"/>
+        <v>90.759822798271799</v>
+      </c>
+      <c r="I50" s="38">
+        <f t="shared" si="8"/>
+        <v>99.726717429905477</v>
+      </c>
+      <c r="J50" s="38">
+        <f t="shared" si="8"/>
+        <v>108.05362102003799</v>
+      </c>
+      <c r="K50" s="38">
+        <f t="shared" si="8"/>
+        <v>117.14438488551058</v>
+      </c>
+      <c r="L50" s="38">
+        <f t="shared" si="8"/>
+        <v>128.42713251953518</v>
+      </c>
+      <c r="M50" s="38">
+        <f t="shared" si="8"/>
+        <v>130.89180882233921</v>
+      </c>
+      <c r="N50" s="38">
+        <f t="shared" si="8"/>
+        <v>133.35648512514328</v>
+      </c>
+      <c r="O50" s="38">
+        <f t="shared" si="8"/>
+        <v>135.82116142794735</v>
+      </c>
+      <c r="P50" s="38">
+        <f t="shared" si="8"/>
+        <v>138.28583773075141</v>
+      </c>
+      <c r="Q50" s="38">
+        <f t="shared" si="8"/>
+        <v>140.75051403355548</v>
+      </c>
+      <c r="R50" s="38">
+        <f t="shared" si="8"/>
+        <v>143.21519033635954</v>
+      </c>
+      <c r="S50" s="38">
+        <f t="shared" si="8"/>
+        <v>145.67986663916361</v>
+      </c>
+      <c r="T50" s="38">
+        <f t="shared" si="8"/>
+        <v>148.14454294196764</v>
+      </c>
+      <c r="U50" s="38">
+        <f t="shared" si="8"/>
+        <v>150.60921924477171</v>
+      </c>
+      <c r="V50" s="38">
+        <f t="shared" si="8"/>
+        <v>153.07389554757575</v>
+      </c>
+      <c r="W50" s="38">
+        <f t="shared" si="8"/>
+        <v>155.53857185037981</v>
+      </c>
+      <c r="X50" s="38">
+        <f t="shared" si="8"/>
+        <v>158.00324815318388</v>
+      </c>
+      <c r="Y50" s="38">
+        <f t="shared" si="8"/>
+        <v>160.46792445598794</v>
+      </c>
+      <c r="Z50" s="38">
+        <f t="shared" si="8"/>
+        <v>162.93260075879198</v>
+      </c>
+      <c r="AA50" s="38">
+        <f t="shared" si="8"/>
+        <v>165.39727706159604</v>
+      </c>
+      <c r="AB50" s="38">
+        <f t="shared" si="8"/>
+        <v>167.86195336440011</v>
+      </c>
+      <c r="AC50" s="38">
+        <f t="shared" si="8"/>
+        <v>170.32662966720417</v>
+      </c>
+      <c r="AD50" s="38">
+        <f t="shared" si="8"/>
+        <v>172.79130597000818</v>
+      </c>
+      <c r="AE50" s="38">
+        <f t="shared" si="8"/>
+        <v>175.25598227281225</v>
+      </c>
+      <c r="AF50" s="38">
+        <f t="shared" si="8"/>
+        <v>177.72065857561631</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="46"/>
       <c r="E51" s="47"/>
@@ -8802,14 +8950,14 @@
       <c r="G51" s="46"/>
       <c r="H51" s="47"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D52" s="38"/>
       <c r="E52" s="39"/>
       <c r="F52" s="22"/>
       <c r="G52" s="38"/>
       <c r="H52" s="39"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>124</v>
       </c>
@@ -8819,7 +8967,7 @@
       <c r="H53" s="38"/>
       <c r="I53" s="39"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -8914,7 +9062,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <f>D35</f>
         <v>24.983873327481177</v>
@@ -9010,12 +9158,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>126</v>
       </c>
@@ -9107,191 +9255,191 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>127</v>
       </c>
       <c r="C59">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D59">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E59">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F59">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G59">
-        <v>45.1</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H59">
-        <v>48.7</v>
+        <v>41.2</v>
       </c>
       <c r="I59">
-        <v>52.2</v>
+        <v>44.3</v>
       </c>
       <c r="J59">
-        <v>55.8</v>
+        <v>47.3</v>
       </c>
       <c r="K59">
-        <v>59.3</v>
+        <v>50.3</v>
       </c>
       <c r="L59">
-        <v>61.7</v>
+        <v>52.3</v>
       </c>
       <c r="M59">
-        <v>64.099999999999994</v>
+        <v>54.3</v>
       </c>
       <c r="N59">
-        <v>66.5</v>
+        <v>56.3</v>
       </c>
       <c r="O59">
-        <v>68.8</v>
+        <v>58.3</v>
       </c>
       <c r="P59">
-        <v>71.2</v>
+        <v>60.3</v>
       </c>
       <c r="Q59">
-        <v>73.599999999999994</v>
+        <v>62.4</v>
       </c>
       <c r="R59">
-        <v>76</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="S59">
-        <v>78.3</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="T59">
-        <v>80.7</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="U59">
-        <v>83.1</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="V59">
-        <v>85.5</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="W59">
-        <v>87.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="X59">
-        <v>90.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="Y59">
-        <v>92.6</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="Z59">
-        <v>94.9</v>
+        <v>80.5</v>
       </c>
       <c r="AA59">
-        <v>97.3</v>
+        <v>82.5</v>
       </c>
       <c r="AB59">
-        <v>99.7</v>
+        <v>84.5</v>
       </c>
       <c r="AC59">
-        <v>102.1</v>
+        <v>86.5</v>
       </c>
       <c r="AD59">
-        <v>104.4</v>
+        <v>88.5</v>
       </c>
       <c r="AE59">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>128</v>
       </c>
       <c r="C60">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D60">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E60">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F60">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G60">
-        <v>45.1</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H60">
-        <v>48.7</v>
+        <v>41.2</v>
       </c>
       <c r="I60">
-        <v>52.2</v>
+        <v>44.3</v>
       </c>
       <c r="J60">
-        <v>55.8</v>
+        <v>47.3</v>
       </c>
       <c r="K60">
-        <v>59.3</v>
+        <v>50.3</v>
       </c>
       <c r="L60">
-        <v>61.7</v>
+        <v>52.3</v>
       </c>
       <c r="M60">
-        <v>64.099999999999994</v>
+        <v>54.3</v>
       </c>
       <c r="N60">
-        <v>66.5</v>
+        <v>56.3</v>
       </c>
       <c r="O60">
-        <v>68.8</v>
+        <v>58.3</v>
       </c>
       <c r="P60">
-        <v>71.2</v>
+        <v>60.3</v>
       </c>
       <c r="Q60">
-        <v>73.599999999999994</v>
+        <v>62.4</v>
       </c>
       <c r="R60">
-        <v>76</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="S60">
-        <v>78.3</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="T60">
-        <v>80.7</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="U60">
-        <v>83.1</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="V60">
-        <v>85.5</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="W60">
-        <v>87.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="X60">
-        <v>90.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="Y60">
-        <v>92.6</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="Z60">
-        <v>94.9</v>
+        <v>80.5</v>
       </c>
       <c r="AA60">
-        <v>97.3</v>
+        <v>82.5</v>
       </c>
       <c r="AB60">
-        <v>99.7</v>
+        <v>84.5</v>
       </c>
       <c r="AC60">
-        <v>102.1</v>
+        <v>86.5</v>
       </c>
       <c r="AD60">
-        <v>104.4</v>
+        <v>88.5</v>
       </c>
       <c r="AE60">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>129</v>
       </c>
@@ -9383,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>130</v>
       </c>
@@ -9475,191 +9623,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>131</v>
       </c>
       <c r="C63">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D63">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E63">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F63">
-        <v>41.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G63">
-        <v>45.1</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H63">
-        <v>48.7</v>
+        <v>41.2</v>
       </c>
       <c r="I63">
-        <v>52.2</v>
+        <v>44.3</v>
       </c>
       <c r="J63">
-        <v>55.8</v>
+        <v>47.3</v>
       </c>
       <c r="K63">
-        <v>59.3</v>
+        <v>50.3</v>
       </c>
       <c r="L63">
-        <v>61.7</v>
+        <v>52.3</v>
       </c>
       <c r="M63">
-        <v>64.099999999999994</v>
+        <v>54.3</v>
       </c>
       <c r="N63">
-        <v>66.5</v>
+        <v>56.3</v>
       </c>
       <c r="O63">
-        <v>68.8</v>
+        <v>58.3</v>
       </c>
       <c r="P63">
-        <v>71.2</v>
+        <v>60.3</v>
       </c>
       <c r="Q63">
-        <v>73.599999999999994</v>
+        <v>62.4</v>
       </c>
       <c r="R63">
-        <v>76</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="S63">
-        <v>78.3</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="T63">
-        <v>80.7</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="U63">
-        <v>83.1</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="V63">
-        <v>85.5</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="W63">
-        <v>87.8</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="X63">
-        <v>90.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="Y63">
-        <v>92.6</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="Z63">
-        <v>94.9</v>
+        <v>80.5</v>
       </c>
       <c r="AA63">
-        <v>97.3</v>
+        <v>82.5</v>
       </c>
       <c r="AB63">
-        <v>99.7</v>
+        <v>84.5</v>
       </c>
       <c r="AC63">
-        <v>102.1</v>
+        <v>86.5</v>
       </c>
       <c r="AD63">
-        <v>104.4</v>
+        <v>88.5</v>
       </c>
       <c r="AE63">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>132</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>52.7</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>84.5</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="AE64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>133</v>
       </c>
@@ -9751,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>134</v>
       </c>
@@ -9843,22 +9991,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>119</v>
       </c>
@@ -9872,7 +10020,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>2030</v>
       </c>
@@ -9888,7 +10036,7 @@
         <v>8.5922699814955887</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>2035</v>
       </c>
@@ -9900,11 +10048,11 @@
         <v>0.62881217380368482</v>
       </c>
       <c r="G74" s="45">
-        <f t="shared" ref="G74:G77" si="7">E74*F74</f>
+        <f t="shared" ref="G74:G77" si="9">E74*F74</f>
         <v>58.476494423772557</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>2040</v>
       </c>
@@ -9916,11 +10064,11 @@
         <v>0.55577168899016283</v>
       </c>
       <c r="G75" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>98.669611451152107</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>2045</v>
       </c>
@@ -9932,11 +10080,11 @@
         <v>0.49123151741415733</v>
       </c>
       <c r="G76" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>147.72542009193839</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>2050</v>
       </c>
@@ -9948,23 +10096,23 @@
         <v>0.43417853421326852</v>
       </c>
       <c r="G77" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>157.83543333115188</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F78" s="9" t="s">
         <v>146</v>
       </c>
       <c r="G78" s="45"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="H87" s="50"/>
       <c r="I87" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -10056,9 +10204,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10080,15 +10228,15 @@
         <v>8.5922699814955887</v>
       </c>
       <c r="H90" s="49">
-        <f t="shared" ref="H90:J90" si="8">$G73</f>
+        <f t="shared" ref="H90:J90" si="10">$G73</f>
         <v>8.5922699814955887</v>
       </c>
       <c r="I90" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.5922699814955887</v>
       </c>
       <c r="J90" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.5922699814955887</v>
       </c>
       <c r="K90" s="45">
@@ -10096,15 +10244,15 @@
         <v>18.56911486995098</v>
       </c>
       <c r="L90" s="45">
-        <f t="shared" ref="L90:N90" si="9">$J90+($O90-$J90)*(L89-$J89)/5</f>
+        <f t="shared" ref="L90:N90" si="11">$J90+($O90-$J90)*(L89-$J89)/5</f>
         <v>28.545959758406376</v>
       </c>
       <c r="M90" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38.522804646861765</v>
       </c>
       <c r="N90" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48.499649535317161</v>
       </c>
       <c r="O90" s="49">
@@ -10116,15 +10264,15 @@
         <v>66.515117829248467</v>
       </c>
       <c r="Q90" s="45">
-        <f t="shared" ref="Q90:S90" si="10">$O90+($T90-$O90)*(Q89-$O89)/5</f>
+        <f t="shared" ref="Q90:S90" si="12">$O90+($T90-$O90)*(Q89-$O89)/5</f>
         <v>74.553741234724384</v>
       </c>
       <c r="R90" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>82.592364640200287</v>
       </c>
       <c r="S90" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>90.63098804567619</v>
       </c>
       <c r="T90" s="49">
@@ -10136,15 +10284,15 @@
         <v>108.48077317930937</v>
       </c>
       <c r="V90" s="45">
-        <f t="shared" ref="V90:X90" si="11">$T90+($Y90-$T90)*(V89-$T89)/5</f>
+        <f t="shared" ref="V90:X90" si="13">$T90+($Y90-$T90)*(V89-$T89)/5</f>
         <v>118.29193490746661</v>
       </c>
       <c r="W90" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>128.10309663562387</v>
       </c>
       <c r="X90" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>137.91425836378113</v>
       </c>
       <c r="Y90" s="49">
@@ -10156,15 +10304,15 @@
         <v>149.74742273978109</v>
       </c>
       <c r="AA90" s="45">
-        <f t="shared" ref="AA90:AC90" si="12">$Y90+($AD90-$Y90)*(AA89-$Y89)/5</f>
+        <f t="shared" ref="AA90:AC90" si="14">$Y90+($AD90-$Y90)*(AA89-$Y89)/5</f>
         <v>151.76942538762378</v>
       </c>
       <c r="AB90" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>153.79142803546648</v>
       </c>
       <c r="AC90" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>155.81343068330918</v>
       </c>
       <c r="AD90" s="49">
@@ -10172,133 +10320,254 @@
         <v>157.83543333115188</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B91">
-        <f>B90*About!$B51*About!$B50</f>
+        <f>B90*$Q$5*$Q$6</f>
         <v>0</v>
       </c>
       <c r="C91">
-        <f>C90*About!$B51*About!$B50</f>
+        <f t="shared" ref="C91:AD91" si="15">C90*$Q$5*$Q$6</f>
         <v>0</v>
       </c>
       <c r="D91">
-        <f>D90*About!$B51*About!$B50</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f>E90*About!$B51*About!$B50</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <f>F90*About!$B51*About!$B50</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G91" s="42">
-        <f>G90*About!$B51*About!$B50</f>
-        <v>10.197873930171518</v>
+        <f t="shared" si="15"/>
+        <v>8.6416552782010854</v>
       </c>
       <c r="H91" s="42">
-        <f>H90*About!$B51*About!$B50</f>
-        <v>10.197873930171518</v>
+        <f t="shared" si="15"/>
+        <v>8.6416552782010854</v>
       </c>
       <c r="I91" s="42">
-        <f>I90*About!$B51*About!$B50</f>
-        <v>10.197873930171518</v>
+        <f t="shared" si="15"/>
+        <v>8.6416552782010854</v>
       </c>
       <c r="J91" s="42">
-        <f>J90*About!$B51*About!$B50</f>
-        <v>10.197873930171518</v>
+        <f t="shared" si="15"/>
+        <v>8.6416552782010854</v>
       </c>
       <c r="K91" s="42">
-        <f>K90*About!$B51*About!$B50</f>
-        <v>22.039052875020577</v>
+        <f t="shared" si="15"/>
+        <v>18.675843505036465</v>
       </c>
       <c r="L91" s="42">
-        <f>L90*About!$B51*About!$B50</f>
-        <v>33.880231819869643</v>
+        <f t="shared" si="15"/>
+        <v>28.710031731871844</v>
       </c>
       <c r="M91" s="42">
-        <f>M90*About!$B51*About!$B50</f>
-        <v>45.721410764718705</v>
+        <f t="shared" si="15"/>
+        <v>38.74421995870722</v>
       </c>
       <c r="N91" s="42">
-        <f>N90*About!$B51*About!$B50</f>
-        <v>57.562589709567767</v>
+        <f t="shared" si="15"/>
+        <v>48.778408185542595</v>
       </c>
       <c r="O91" s="42">
-        <f>O90*About!$B51*About!$B50</f>
-        <v>69.403768654416837</v>
+        <f t="shared" si="15"/>
+        <v>58.812596412377978</v>
       </c>
       <c r="P91" s="42">
-        <f>P90*About!$B51*About!$B50</f>
-        <v>78.944538234250288</v>
+        <f t="shared" si="15"/>
+        <v>66.897422951931176</v>
       </c>
       <c r="Q91" s="42">
-        <f>Q90*About!$B51*About!$B50</f>
-        <v>88.485307814083782</v>
+        <f t="shared" si="15"/>
+        <v>74.982249491484367</v>
       </c>
       <c r="R91" s="42">
-        <f>R90*About!$B51*About!$B50</f>
-        <v>98.026077393917234</v>
+        <f t="shared" si="15"/>
+        <v>83.06707603103753</v>
       </c>
       <c r="S91" s="42">
-        <f>S90*About!$B51*About!$B50</f>
-        <v>107.56684697375069</v>
+        <f t="shared" si="15"/>
+        <v>91.151902570590707</v>
       </c>
       <c r="T91" s="42">
-        <f>T90*About!$B51*About!$B50</f>
-        <v>117.10761655358417</v>
+        <f t="shared" si="15"/>
+        <v>99.236729110143898</v>
       </c>
       <c r="U91" s="42">
-        <f>U90*About!$B51*About!$B50</f>
-        <v>128.75215177276914</v>
+        <f t="shared" si="15"/>
+        <v>109.10428188909614</v>
       </c>
       <c r="V91" s="42">
-        <f>V90*About!$B51*About!$B50</f>
-        <v>140.39668699195414</v>
+        <f t="shared" si="15"/>
+        <v>118.97183466804836</v>
       </c>
       <c r="W91" s="42">
-        <f>W90*About!$B51*About!$B50</f>
-        <v>152.04122221113914</v>
+        <f t="shared" si="15"/>
+        <v>128.8393874470006</v>
       </c>
       <c r="X91" s="42">
-        <f>X90*About!$B51*About!$B50</f>
-        <v>163.68575743032414</v>
+        <f t="shared" si="15"/>
+        <v>138.70694022595282</v>
       </c>
       <c r="Y91" s="42">
-        <f>Y90*About!$B51*About!$B50</f>
-        <v>175.33029264950915</v>
+        <f t="shared" si="15"/>
+        <v>148.57449300490509</v>
       </c>
       <c r="Z91" s="42">
-        <f>Z90*About!$B51*About!$B50</f>
-        <v>177.73013903859845</v>
+        <f t="shared" si="15"/>
+        <v>150.60811740124009</v>
       </c>
       <c r="AA91" s="42">
-        <f>AA90*About!$B51*About!$B50</f>
-        <v>180.12998542768781</v>
+        <f t="shared" si="15"/>
+        <v>152.64174179757509</v>
       </c>
       <c r="AB91" s="42">
-        <f>AB90*About!$B51*About!$B50</f>
-        <v>182.52983181677715</v>
+        <f t="shared" si="15"/>
+        <v>154.67536619391009</v>
       </c>
       <c r="AC91" s="42">
-        <f>AC90*About!$B51*About!$B50</f>
-        <v>184.92967820586645</v>
+        <f t="shared" si="15"/>
+        <v>156.70899059024509</v>
       </c>
       <c r="AD91" s="42">
-        <f>AD90*About!$B51*About!$B50</f>
-        <v>187.32952459495581</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>158.74261498658012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="22">
+        <f>B91/$T$4</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="22">
+        <f t="shared" ref="C92:AD92" si="16">C91/$T$4</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="22">
+        <f t="shared" si="16"/>
+        <v>10.588582105343422</v>
+      </c>
+      <c r="H92" s="22">
+        <f t="shared" si="16"/>
+        <v>10.588582105343422</v>
+      </c>
+      <c r="I92" s="22">
+        <f t="shared" si="16"/>
+        <v>10.588582105343422</v>
+      </c>
+      <c r="J92" s="22">
+        <f t="shared" si="16"/>
+        <v>10.588582105343422</v>
+      </c>
+      <c r="K92" s="22">
+        <f t="shared" si="16"/>
+        <v>22.883428692007328</v>
+      </c>
+      <c r="L92" s="22">
+        <f t="shared" si="16"/>
+        <v>35.178275278671236</v>
+      </c>
+      <c r="M92" s="22">
+        <f t="shared" si="16"/>
+        <v>47.473121865335138</v>
+      </c>
+      <c r="N92" s="22">
+        <f t="shared" si="16"/>
+        <v>59.767968451999039</v>
+      </c>
+      <c r="O92" s="22">
+        <f t="shared" si="16"/>
+        <v>72.062815038662947</v>
+      </c>
+      <c r="P92" s="22">
+        <f t="shared" si="16"/>
+        <v>81.96911734598423</v>
+      </c>
+      <c r="Q92" s="22">
+        <f t="shared" si="16"/>
+        <v>91.875419653305514</v>
+      </c>
+      <c r="R92" s="22">
+        <f t="shared" si="16"/>
+        <v>101.78172196062675</v>
+      </c>
+      <c r="S92" s="22">
+        <f t="shared" si="16"/>
+        <v>111.68802426794801</v>
+      </c>
+      <c r="T92" s="22">
+        <f t="shared" si="16"/>
+        <v>121.59432657526929</v>
+      </c>
+      <c r="U92" s="22">
+        <f t="shared" si="16"/>
+        <v>133.68499548245296</v>
+      </c>
+      <c r="V92" s="22">
+        <f t="shared" si="16"/>
+        <v>145.7756643896366</v>
+      </c>
+      <c r="W92" s="22">
+        <f t="shared" si="16"/>
+        <v>157.86633329682027</v>
+      </c>
+      <c r="X92" s="22">
+        <f t="shared" si="16"/>
+        <v>169.95700220400389</v>
+      </c>
+      <c r="Y92" s="22">
+        <f t="shared" si="16"/>
+        <v>182.04767111118761</v>
+      </c>
+      <c r="Z92" s="22">
+        <f t="shared" si="16"/>
+        <v>184.53946211636006</v>
+      </c>
+      <c r="AA92" s="22">
+        <f t="shared" si="16"/>
+        <v>187.03125312153253</v>
+      </c>
+      <c r="AB92" s="22">
+        <f t="shared" si="16"/>
+        <v>189.523044126705</v>
+      </c>
+      <c r="AC92" s="22">
+        <f t="shared" si="16"/>
+        <v>192.01483513187745</v>
+      </c>
+      <c r="AD92" s="22">
+        <f t="shared" si="16"/>
+        <v>194.50662613704995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -10390,9 +10659,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -10414,15 +10683,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="49">
-        <f t="shared" ref="H112:J112" si="13">$G95</f>
+        <f t="shared" ref="H112:J112" si="17">$G95</f>
         <v>0</v>
       </c>
       <c r="I112" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J112" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K112" s="45">
@@ -10430,15 +10699,15 @@
         <v>0</v>
       </c>
       <c r="L112" s="45">
-        <f t="shared" ref="L112" si="14">$J112+($O112-$J112)*(L111-$J111)/5</f>
+        <f t="shared" ref="L112" si="18">$J112+($O112-$J112)*(L111-$J111)/5</f>
         <v>0</v>
       </c>
       <c r="M112" s="45">
-        <f t="shared" ref="M112" si="15">$J112+($O112-$J112)*(M111-$J111)/5</f>
+        <f t="shared" ref="M112" si="19">$J112+($O112-$J112)*(M111-$J111)/5</f>
         <v>0</v>
       </c>
       <c r="N112" s="45">
-        <f t="shared" ref="N112" si="16">$J112+($O112-$J112)*(N111-$J111)/5</f>
+        <f t="shared" ref="N112" si="20">$J112+($O112-$J112)*(N111-$J111)/5</f>
         <v>0</v>
       </c>
       <c r="O112" s="49">
@@ -10450,15 +10719,15 @@
         <v>0</v>
       </c>
       <c r="Q112" s="45">
-        <f t="shared" ref="Q112" si="17">$O112+($T112-$O112)*(Q111-$O111)/5</f>
+        <f t="shared" ref="Q112" si="21">$O112+($T112-$O112)*(Q111-$O111)/5</f>
         <v>0</v>
       </c>
       <c r="R112" s="45">
-        <f t="shared" ref="R112" si="18">$O112+($T112-$O112)*(R111-$O111)/5</f>
+        <f t="shared" ref="R112" si="22">$O112+($T112-$O112)*(R111-$O111)/5</f>
         <v>0</v>
       </c>
       <c r="S112" s="45">
-        <f t="shared" ref="S112" si="19">$O112+($T112-$O112)*(S111-$O111)/5</f>
+        <f t="shared" ref="S112" si="23">$O112+($T112-$O112)*(S111-$O111)/5</f>
         <v>0</v>
       </c>
       <c r="T112" s="49">
@@ -10470,15 +10739,15 @@
         <v>0</v>
       </c>
       <c r="V112" s="45">
-        <f t="shared" ref="V112" si="20">$T112+($Y112-$T112)*(V111-$T111)/5</f>
+        <f t="shared" ref="V112" si="24">$T112+($Y112-$T112)*(V111-$T111)/5</f>
         <v>0</v>
       </c>
       <c r="W112" s="45">
-        <f t="shared" ref="W112" si="21">$T112+($Y112-$T112)*(W111-$T111)/5</f>
+        <f t="shared" ref="W112" si="25">$T112+($Y112-$T112)*(W111-$T111)/5</f>
         <v>0</v>
       </c>
       <c r="X112" s="45">
-        <f t="shared" ref="X112" si="22">$T112+($Y112-$T112)*(X111-$T111)/5</f>
+        <f t="shared" ref="X112" si="26">$T112+($Y112-$T112)*(X111-$T111)/5</f>
         <v>0</v>
       </c>
       <c r="Y112" s="49">
@@ -10490,15 +10759,15 @@
         <v>0</v>
       </c>
       <c r="AA112" s="45">
-        <f t="shared" ref="AA112" si="23">$Y112+($AD112-$Y112)*(AA111-$Y111)/5</f>
+        <f t="shared" ref="AA112" si="27">$Y112+($AD112-$Y112)*(AA111-$Y111)/5</f>
         <v>0</v>
       </c>
       <c r="AB112" s="45">
-        <f t="shared" ref="AB112" si="24">$Y112+($AD112-$Y112)*(AB111-$Y111)/5</f>
+        <f t="shared" ref="AB112" si="28">$Y112+($AD112-$Y112)*(AB111-$Y111)/5</f>
         <v>0</v>
       </c>
       <c r="AC112" s="45">
-        <f t="shared" ref="AC112" si="25">$Y112+($AD112-$Y112)*(AC111-$Y111)/5</f>
+        <f t="shared" ref="AC112" si="29">$Y112+($AD112-$Y112)*(AC111-$Y111)/5</f>
         <v>0</v>
       </c>
       <c r="AD112" s="49">
@@ -10506,366 +10775,366 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B113" s="45">
         <f>MAX(B90,D48)</f>
         <v>70.777648219571262</v>
       </c>
       <c r="C113" s="45">
-        <f t="shared" ref="C113:AD113" si="26">MAX(C90,E48)</f>
+        <f t="shared" ref="C113:AD113" si="30">MAX(C90,E48)</f>
         <v>73.311213204015658</v>
       </c>
       <c r="D113" s="45">
-        <f t="shared" si="26"/>
-        <v>61.573121384209628</v>
+        <f t="shared" si="30"/>
+        <v>53.140154415518118</v>
       </c>
       <c r="E113" s="45">
-        <f t="shared" si="26"/>
-        <v>67.726806142856148</v>
+        <f t="shared" si="30"/>
+        <v>60.158248164342268</v>
       </c>
       <c r="F113" s="45">
-        <f t="shared" si="26"/>
-        <v>79.740717770099934</v>
+        <f t="shared" si="30"/>
+        <v>73.648472779175492</v>
       </c>
       <c r="G113" s="45">
-        <f t="shared" si="26"/>
-        <v>87.618946176126954</v>
+        <f t="shared" si="30"/>
+        <v>80.924799184742042</v>
       </c>
       <c r="H113" s="45">
-        <f t="shared" si="26"/>
-        <v>94.934884535277575</v>
+        <f t="shared" si="30"/>
+        <v>87.681794884874364</v>
       </c>
       <c r="I113" s="45">
-        <f t="shared" si="26"/>
-        <v>102.92194327295809</v>
+        <f t="shared" si="30"/>
+        <v>95.05863691084754</v>
       </c>
       <c r="J113" s="45">
-        <f t="shared" si="26"/>
-        <v>112.83485811806231</v>
+        <f t="shared" si="30"/>
+        <v>104.21419832975535</v>
       </c>
       <c r="K113" s="45">
-        <f t="shared" si="26"/>
-        <v>114.83485811806231</v>
+        <f t="shared" si="30"/>
+        <v>106.21419832975535</v>
       </c>
       <c r="L113" s="45">
-        <f t="shared" si="26"/>
-        <v>116.83485811806231</v>
+        <f t="shared" si="30"/>
+        <v>108.21419832975535</v>
       </c>
       <c r="M113" s="45">
-        <f t="shared" si="26"/>
-        <v>118.83485811806231</v>
+        <f t="shared" si="30"/>
+        <v>110.21419832975535</v>
       </c>
       <c r="N113" s="45">
-        <f t="shared" si="26"/>
-        <v>120.83485811806231</v>
+        <f t="shared" si="30"/>
+        <v>112.21419832975535</v>
       </c>
       <c r="O113" s="45">
-        <f t="shared" si="26"/>
-        <v>122.83485811806231</v>
+        <f t="shared" si="30"/>
+        <v>114.21419832975535</v>
       </c>
       <c r="P113" s="45">
-        <f t="shared" si="26"/>
-        <v>124.83485811806231</v>
+        <f t="shared" si="30"/>
+        <v>116.21419832975535</v>
       </c>
       <c r="Q113" s="45">
-        <f t="shared" si="26"/>
-        <v>126.83485811806231</v>
+        <f t="shared" si="30"/>
+        <v>118.21419832975535</v>
       </c>
       <c r="R113" s="45">
-        <f t="shared" si="26"/>
-        <v>128.8348581180623</v>
+        <f t="shared" si="30"/>
+        <v>120.21419832975535</v>
       </c>
       <c r="S113" s="45">
-        <f t="shared" si="26"/>
-        <v>130.8348581180623</v>
+        <f t="shared" si="30"/>
+        <v>122.21419832975535</v>
       </c>
       <c r="T113" s="45">
-        <f t="shared" si="26"/>
-        <v>132.8348581180623</v>
+        <f t="shared" si="30"/>
+        <v>124.21419832975535</v>
       </c>
       <c r="U113" s="45">
-        <f t="shared" si="26"/>
-        <v>134.8348581180623</v>
+        <f t="shared" si="30"/>
+        <v>126.21419832975535</v>
       </c>
       <c r="V113" s="45">
-        <f t="shared" si="26"/>
-        <v>136.8348581180623</v>
+        <f t="shared" si="30"/>
+        <v>128.21419832975533</v>
       </c>
       <c r="W113" s="45">
-        <f t="shared" si="26"/>
-        <v>138.8348581180623</v>
+        <f t="shared" si="30"/>
+        <v>130.21419832975533</v>
       </c>
       <c r="X113" s="45">
-        <f t="shared" si="26"/>
-        <v>140.8348581180623</v>
+        <f t="shared" si="30"/>
+        <v>137.91425836378113</v>
       </c>
       <c r="Y113" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>147.72542009193839</v>
       </c>
       <c r="Z113" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>149.74742273978109</v>
       </c>
       <c r="AA113" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>151.76942538762378</v>
       </c>
       <c r="AB113" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>153.79142803546648</v>
       </c>
       <c r="AC113" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>155.81343068330918</v>
       </c>
       <c r="AD113" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>157.83543333115188</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B114">
         <f>D48/B113</f>
         <v>1</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:AD114" si="27">E48/C113</f>
+        <f t="shared" ref="C114:AD114" si="31">E48/C113</f>
         <v>1</v>
       </c>
       <c r="D114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="E114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="G114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="H114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="K114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="M114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="N114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="P114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="R114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="S114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="T114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="U114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="V114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X114">
-        <f t="shared" si="27"/>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Y114">
-        <f t="shared" si="27"/>
-        <v>0.96689424223107712</v>
+        <f t="shared" si="31"/>
+        <v>0.90853827490370842</v>
       </c>
       <c r="Z114">
-        <f t="shared" si="27"/>
-        <v>0.967194329412564</v>
+        <f t="shared" si="31"/>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AA114">
-        <f t="shared" si="27"/>
-        <v>0.96748642055566558</v>
+        <f t="shared" si="31"/>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AB114">
-        <f t="shared" si="27"/>
-        <v>0.9677708310487817</v>
+        <f t="shared" si="31"/>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AC114">
-        <f t="shared" si="27"/>
-        <v>0.96804785990903552</v>
+        <f t="shared" si="31"/>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AD114">
-        <f t="shared" si="27"/>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
+        <f t="shared" si="31"/>
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B115">
         <f>B90/B113</f>
         <v>0</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:AD115" si="28">C90/C113</f>
+        <f t="shared" ref="C115:AD115" si="32">C90/C113</f>
         <v>0</v>
       </c>
       <c r="D115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="28"/>
-        <v>9.8064064411638369E-2</v>
+        <f t="shared" si="32"/>
+        <v>0.10617598150451286</v>
       </c>
       <c r="H115">
-        <f t="shared" si="28"/>
-        <v>9.0506983007945005E-2</v>
+        <f t="shared" si="32"/>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="I115">
-        <f t="shared" si="28"/>
-        <v>8.3483363297058327E-2</v>
+        <f t="shared" si="32"/>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="J115">
-        <f t="shared" si="28"/>
-        <v>7.614907418508253E-2</v>
+        <f t="shared" si="32"/>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="K115">
-        <f t="shared" si="28"/>
-        <v>0.16170277191321103</v>
+        <f t="shared" si="32"/>
+        <v>0.17482704913236577</v>
       </c>
       <c r="L115">
-        <f t="shared" si="28"/>
-        <v>0.2443274226392308</v>
+        <f t="shared" si="32"/>
+        <v>0.26379126028748828</v>
       </c>
       <c r="M115">
-        <f t="shared" si="28"/>
-        <v>0.32417091463675918</v>
+        <f t="shared" si="32"/>
+        <v>0.34952669647519885</v>
       </c>
       <c r="N115">
-        <f t="shared" si="28"/>
-        <v>0.40137134507933409</v>
+        <f t="shared" si="32"/>
+        <v>0.43220599761177209</v>
       </c>
       <c r="O115">
-        <f t="shared" si="28"/>
-        <v>0.47605781713500306</v>
+        <f t="shared" si="32"/>
+        <v>0.51198971125237169</v>
       </c>
       <c r="P115">
-        <f t="shared" si="28"/>
-        <v>0.53282487625645336</v>
+        <f t="shared" si="32"/>
+        <v>0.57234932379357994</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="28"/>
-        <v>0.58780166857069494</v>
+        <f t="shared" si="32"/>
+        <v>0.63066655518619441</v>
       </c>
       <c r="R115">
-        <f t="shared" si="28"/>
-        <v>0.64107156903540741</v>
+        <f t="shared" si="32"/>
+        <v>0.68704334253133781</v>
       </c>
       <c r="S115">
-        <f t="shared" si="28"/>
-        <v>0.69271285458110032</v>
+        <f t="shared" si="32"/>
+        <v>0.7415749502454525</v>
       </c>
       <c r="T115">
-        <f t="shared" si="28"/>
-        <v>0.74279908789796378</v>
+        <f t="shared" si="32"/>
+        <v>0.79435050725208389</v>
       </c>
       <c r="U115">
-        <f t="shared" si="28"/>
-        <v>0.8045454617108202</v>
+        <f t="shared" si="32"/>
+        <v>0.85949738313819102</v>
       </c>
       <c r="V115">
-        <f t="shared" si="28"/>
-        <v>0.86448684592783587</v>
+        <f t="shared" si="32"/>
+        <v>0.92261182028553845</v>
       </c>
       <c r="W115">
-        <f t="shared" si="28"/>
-        <v>0.9227012464455262</v>
+        <f t="shared" si="32"/>
+        <v>0.98378746925288985</v>
       </c>
       <c r="X115">
-        <f t="shared" si="28"/>
-        <v>0.97926223810419988</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="Y115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="Z115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AA115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AB115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AC115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AD115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -10896,17 +11165,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2020</v>
       </c>
@@ -11001,7 +11270,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -11128,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -11160,75 +11429,75 @@
       </c>
       <c r="J5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11255,7 +11524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -11287,75 +11556,75 @@
       </c>
       <c r="J6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11382,7 +11651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -11414,75 +11683,75 @@
       </c>
       <c r="J7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11509,7 +11778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -11541,75 +11810,75 @@
       </c>
       <c r="J8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11636,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -11668,75 +11937,75 @@
       </c>
       <c r="J9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11763,7 +12032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -11795,75 +12064,75 @@
       </c>
       <c r="J10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Price Projections'!Y$115,0))</f>
@@ -11890,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -11990,34 +12259,34 @@
       </c>
       <c r="AA11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!X$115,0))</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="AB11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!Y$115,0))</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AC11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!Z$114*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!Z$115,0))</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AD11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!AA$114*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!AA$115,0))</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AE11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AF11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!AC$115,0))</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AG11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -12117,34 +12386,34 @@
       </c>
       <c r="AA12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!X$115,0))</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="AB12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!Y$115,0))</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AC12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!Z$114*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!Z$115,0))</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AD12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!AA$114*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!AA$115,0))</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AE12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AF12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!AC$115,0))</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AG12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -12244,34 +12513,34 @@
       </c>
       <c r="AA13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!X$115,0))</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="AB13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!Y$115,0))</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AC13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!Z$114*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!Z$115,0))</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AD13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!AA$114*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!AA$115,0))</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AE13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AF13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!AC$115,0))</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AG13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -12303,75 +12572,75 @@
       </c>
       <c r="J14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Price Projections'!Y$115,0))</f>
@@ -12398,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -12498,34 +12767,34 @@
       </c>
       <c r="AA15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!X$115,0))</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="AB15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!Y$115,0))</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AC15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!Z$114*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!Z$115,0))</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AD15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!AA$114*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!AA$115,0))</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AE15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AF15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!AC$115,0))</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AG15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -12625,34 +12894,34 @@
       </c>
       <c r="AA16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!X$115,0))</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="AB16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!Y$115,0))</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AC16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!Z$114*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!Z$115,0))</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AD16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!AA$114*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!AA$115,0))</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AE16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AF16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!AC$115,0))</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AG16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -12752,34 +13021,34 @@
       </c>
       <c r="AA17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!X$115,0))</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="AB17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!Y$115,0))</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AC17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!Z$114*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!Z$115,0))</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AD17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!AA$114*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!AA$115,0))</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AE17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AF17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!AC$115,0))</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AG17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -12879,34 +13148,34 @@
       </c>
       <c r="AA18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!X$115,0))</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="AB18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!Y$115,0))</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AC18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!Z$114*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!Z$115,0))</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AD18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!AA$114*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!AA$115,0))</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AE18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!AB$114*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!AB$115,0))</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AF18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!AC$114*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!AC$115,0))</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AG18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Price Projections'!AD$114*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Price Projections'!AD$115,0))</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -12938,75 +13207,75 @@
       </c>
       <c r="J19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13033,7 +13302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -13065,75 +13334,75 @@
       </c>
       <c r="J20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13160,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -13192,75 +13461,75 @@
       </c>
       <c r="J21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13287,7 +13556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -13319,75 +13588,75 @@
       </c>
       <c r="J22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13414,7 +13683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -13446,75 +13715,75 @@
       </c>
       <c r="J23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13541,7 +13810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -13573,75 +13842,75 @@
       </c>
       <c r="J24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13668,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -13700,75 +13969,75 @@
       </c>
       <c r="J25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13795,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -13827,75 +14096,75 @@
       </c>
       <c r="J26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Price Projections'!Y$115,0))</f>
@@ -13922,7 +14191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -14049,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -14081,75 +14350,75 @@
       </c>
       <c r="J28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!G$114*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!G$115,0))</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="K28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!H$114*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!H$115,0))</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="L28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!I$114*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!I$115,0))</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="M28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!J$114*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!J$115,0))</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="N28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!K$114*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!K$115,0))</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="O28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!L$114*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!L$115,0))</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="P28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!M$114*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!M$115,0))</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="Q28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!N$114*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!N$115,0))</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="R28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!O$114*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!O$115,0))</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="S28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!P$114*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!P$115,0))</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="T28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!Q$114*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!Q$115,0))</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="U28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!R$114*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!R$115,0))</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="V28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!S$114*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!S$115,0))</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="W28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!T$114*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!T$115,0))</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="X28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!U$114*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!U$115,0))</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="Y28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!V$114*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!V$115,0))</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="Z28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!W$114*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!W$115,0))</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="AA28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!X$114*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!X$115,0))</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Price Projections'!Y$114*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Price Projections'!Y$115,0))</f>
@@ -14200,17 +14469,17 @@
   </sheetPr>
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.26953125" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14305,7 +14574,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14430,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14460,75 +14729,75 @@
       </c>
       <c r="H3" s="7">
         <f>Calcs!J5</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I3" s="7">
         <f>Calcs!K5</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J3" s="7">
         <f>Calcs!L5</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K3" s="7">
         <f>Calcs!M5</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L3" s="7">
         <f>Calcs!N5</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M3" s="7">
         <f>Calcs!O5</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N3" s="7">
         <f>Calcs!P5</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O3" s="7">
         <f>Calcs!Q5</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P3" s="7">
         <f>Calcs!R5</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q3" s="7">
         <f>Calcs!S5</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R3" s="7">
         <f>Calcs!T5</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S3" s="7">
         <f>Calcs!U5</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T3" s="7">
         <f>Calcs!V5</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U3" s="7">
         <f>Calcs!W5</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V3" s="7">
         <f>Calcs!X5</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W3" s="7">
         <f>Calcs!Y5</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X3" s="7">
         <f>Calcs!Z5</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y3" s="7">
         <f>Calcs!AA5</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="7">
         <f>Calcs!AB5</f>
@@ -14555,7 +14824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14585,75 +14854,75 @@
       </c>
       <c r="H4" s="7">
         <f>Calcs!J6</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I4" s="7">
         <f>Calcs!K6</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J4" s="7">
         <f>Calcs!L6</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K4" s="7">
         <f>Calcs!M6</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L4" s="7">
         <f>Calcs!N6</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M4" s="7">
         <f>Calcs!O6</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N4" s="7">
         <f>Calcs!P6</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O4" s="7">
         <f>Calcs!Q6</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P4" s="7">
         <f>Calcs!R6</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q4" s="7">
         <f>Calcs!S6</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R4" s="7">
         <f>Calcs!T6</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S4" s="7">
         <f>Calcs!U6</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T4" s="7">
         <f>Calcs!V6</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U4" s="7">
         <f>Calcs!W6</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V4" s="7">
         <f>Calcs!X6</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W4" s="7">
         <f>Calcs!Y6</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X4" s="7">
         <f>Calcs!Z6</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y4" s="7">
         <f>Calcs!AA6</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="7">
         <f>Calcs!AB6</f>
@@ -14680,7 +14949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14710,75 +14979,75 @@
       </c>
       <c r="H5" s="7">
         <f>Calcs!J7</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I5" s="7">
         <f>Calcs!K7</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J5" s="7">
         <f>Calcs!L7</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K5" s="7">
         <f>Calcs!M7</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L5" s="7">
         <f>Calcs!N7</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M5" s="7">
         <f>Calcs!O7</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N5" s="7">
         <f>Calcs!P7</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O5" s="7">
         <f>Calcs!Q7</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P5" s="7">
         <f>Calcs!R7</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q5" s="7">
         <f>Calcs!S7</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R5" s="7">
         <f>Calcs!T7</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S5" s="7">
         <f>Calcs!U7</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T5" s="7">
         <f>Calcs!V7</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U5" s="7">
         <f>Calcs!W7</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V5" s="7">
         <f>Calcs!X7</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W5" s="7">
         <f>Calcs!Y7</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X5" s="7">
         <f>Calcs!Z7</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y5" s="7">
         <f>Calcs!AA7</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="7">
         <f>Calcs!AB7</f>
@@ -14805,7 +15074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14835,75 +15104,75 @@
       </c>
       <c r="H6" s="7">
         <f>Calcs!J8</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I6" s="7">
         <f>Calcs!K8</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J6" s="7">
         <f>Calcs!L8</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K6" s="7">
         <f>Calcs!M8</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L6" s="7">
         <f>Calcs!N8</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M6" s="7">
         <f>Calcs!O8</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N6" s="7">
         <f>Calcs!P8</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O6" s="7">
         <f>Calcs!Q8</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P6" s="7">
         <f>Calcs!R8</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q6" s="7">
         <f>Calcs!S8</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R6" s="7">
         <f>Calcs!T8</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S6" s="7">
         <f>Calcs!U8</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T6" s="7">
         <f>Calcs!V8</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U6" s="7">
         <f>Calcs!W8</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V6" s="7">
         <f>Calcs!X8</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W6" s="7">
         <f>Calcs!Y8</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X6" s="7">
         <f>Calcs!Z8</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y6" s="7">
         <f>Calcs!AA8</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="7">
         <f>Calcs!AB8</f>
@@ -14930,7 +15199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14960,75 +15229,75 @@
       </c>
       <c r="H7" s="7">
         <f>Calcs!J9</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I7" s="7">
         <f>Calcs!K9</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J7" s="7">
         <f>Calcs!L9</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K7" s="7">
         <f>Calcs!M9</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L7" s="7">
         <f>Calcs!N9</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M7" s="7">
         <f>Calcs!O9</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N7" s="7">
         <f>Calcs!P9</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O7" s="7">
         <f>Calcs!Q9</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P7" s="7">
         <f>Calcs!R9</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q7" s="7">
         <f>Calcs!S9</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R7" s="7">
         <f>Calcs!T9</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S7" s="7">
         <f>Calcs!U9</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T7" s="7">
         <f>Calcs!V9</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U7" s="7">
         <f>Calcs!W9</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V7" s="7">
         <f>Calcs!X9</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W7" s="7">
         <f>Calcs!Y9</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X7" s="7">
         <f>Calcs!Z9</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y7" s="7">
         <f>Calcs!AA9</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="7">
         <f>Calcs!AB9</f>
@@ -15055,7 +15324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15085,75 +15354,75 @@
       </c>
       <c r="H8" s="7">
         <f>Calcs!J10</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I8" s="7">
         <f>Calcs!K10</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J8" s="7">
         <f>Calcs!L10</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K8" s="7">
         <f>Calcs!M10</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L8" s="7">
         <f>Calcs!N10</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M8" s="7">
         <f>Calcs!O10</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N8" s="7">
         <f>Calcs!P10</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O8" s="7">
         <f>Calcs!Q10</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P8" s="7">
         <f>Calcs!R10</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q8" s="7">
         <f>Calcs!S10</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R8" s="7">
         <f>Calcs!T10</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S8" s="7">
         <f>Calcs!U10</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T8" s="7">
         <f>Calcs!V10</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U8" s="7">
         <f>Calcs!W10</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V8" s="7">
         <f>Calcs!X10</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W8" s="7">
         <f>Calcs!Y10</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X8" s="7">
         <f>Calcs!Z10</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y8" s="7">
         <f>Calcs!AA10</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="7">
         <f>Calcs!AB10</f>
@@ -15180,7 +15449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -15278,34 +15547,34 @@
       </c>
       <c r="Y9" s="7">
         <f>Calcs!AA11</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Z9" s="7">
         <f>Calcs!AB11</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AA9" s="7">
         <f>Calcs!AC11</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AB9" s="7">
         <f>Calcs!AD11</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AC9" s="7">
         <f>Calcs!AE11</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AD9" s="7">
         <f>Calcs!AF11</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AE9" s="7">
         <f>Calcs!AG11</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -15403,34 +15672,34 @@
       </c>
       <c r="Y10" s="7">
         <f>Calcs!AA12</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Z10" s="7">
         <f>Calcs!AB12</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AA10" s="7">
         <f>Calcs!AC12</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AB10" s="7">
         <f>Calcs!AD12</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AC10" s="7">
         <f>Calcs!AE12</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AD10" s="7">
         <f>Calcs!AF12</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AE10" s="7">
         <f>Calcs!AG12</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -15528,34 +15797,34 @@
       </c>
       <c r="Y11" s="7">
         <f>Calcs!AA13</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Z11" s="7">
         <f>Calcs!AB13</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AA11" s="7">
         <f>Calcs!AC13</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AB11" s="7">
         <f>Calcs!AD13</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AC11" s="7">
         <f>Calcs!AE13</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AD11" s="7">
         <f>Calcs!AF13</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AE11" s="7">
         <f>Calcs!AG13</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -15585,75 +15854,75 @@
       </c>
       <c r="H12" s="7">
         <f>Calcs!J14</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I12" s="7">
         <f>Calcs!K14</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J12" s="7">
         <f>Calcs!L14</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K12" s="7">
         <f>Calcs!M14</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L12" s="7">
         <f>Calcs!N14</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M12" s="7">
         <f>Calcs!O14</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N12" s="7">
         <f>Calcs!P14</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O12" s="7">
         <f>Calcs!Q14</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P12" s="7">
         <f>Calcs!R14</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q12" s="7">
         <f>Calcs!S14</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R12" s="7">
         <f>Calcs!T14</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S12" s="7">
         <f>Calcs!U14</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T12" s="7">
         <f>Calcs!V14</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U12" s="7">
         <f>Calcs!W14</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V12" s="7">
         <f>Calcs!X14</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W12" s="7">
         <f>Calcs!Y14</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X12" s="7">
         <f>Calcs!Z14</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y12" s="7">
         <f>Calcs!AA14</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="7">
         <f>Calcs!AB14</f>
@@ -15680,7 +15949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -15778,34 +16047,34 @@
       </c>
       <c r="Y13" s="7">
         <f>Calcs!AA15</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Z13" s="7">
         <f>Calcs!AB15</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AA13" s="7">
         <f>Calcs!AC15</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AB13" s="7">
         <f>Calcs!AD15</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AC13" s="7">
         <f>Calcs!AE15</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AD13" s="7">
         <f>Calcs!AF15</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AE13" s="7">
         <f>Calcs!AG15</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -15903,34 +16172,34 @@
       </c>
       <c r="Y14" s="7">
         <f>Calcs!AA16</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Z14" s="7">
         <f>Calcs!AB16</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AA14" s="7">
         <f>Calcs!AC16</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AB14" s="7">
         <f>Calcs!AD16</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AC14" s="7">
         <f>Calcs!AE16</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AD14" s="7">
         <f>Calcs!AF16</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AE14" s="7">
         <f>Calcs!AG16</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -16028,34 +16297,34 @@
       </c>
       <c r="Y15" s="7">
         <f>Calcs!AA17</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Z15" s="7">
         <f>Calcs!AB17</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AA15" s="7">
         <f>Calcs!AC17</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AB15" s="7">
         <f>Calcs!AD17</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AC15" s="7">
         <f>Calcs!AE17</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AD15" s="7">
         <f>Calcs!AF17</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AE15" s="7">
         <f>Calcs!AG17</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -16153,34 +16422,34 @@
       </c>
       <c r="Y16" s="7">
         <f>Calcs!AA18</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Z16" s="7">
         <f>Calcs!AB18</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AA16" s="7">
         <f>Calcs!AC18</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AB16" s="7">
         <f>Calcs!AD18</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AC16" s="7">
         <f>Calcs!AE18</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AD16" s="7">
         <f>Calcs!AF18</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AE16" s="7">
         <f>Calcs!AG18</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -16210,75 +16479,75 @@
       </c>
       <c r="H17" s="7">
         <f>Calcs!J19</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I17" s="7">
         <f>Calcs!K19</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J17" s="7">
         <f>Calcs!L19</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K17" s="7">
         <f>Calcs!M19</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L17" s="7">
         <f>Calcs!N19</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M17" s="7">
         <f>Calcs!O19</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N17" s="7">
         <f>Calcs!P19</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O17" s="7">
         <f>Calcs!Q19</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P17" s="7">
         <f>Calcs!R19</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q17" s="7">
         <f>Calcs!S19</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R17" s="7">
         <f>Calcs!T19</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S17" s="7">
         <f>Calcs!U19</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T17" s="7">
         <f>Calcs!V19</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U17" s="7">
         <f>Calcs!W19</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V17" s="7">
         <f>Calcs!X19</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W17" s="7">
         <f>Calcs!Y19</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X17" s="7">
         <f>Calcs!Z19</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y17" s="7">
         <f>Calcs!AA19</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="7">
         <f>Calcs!AB19</f>
@@ -16305,7 +16574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -16335,75 +16604,75 @@
       </c>
       <c r="H18" s="7">
         <f>Calcs!J20</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I18" s="7">
         <f>Calcs!K20</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J18" s="7">
         <f>Calcs!L20</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K18" s="7">
         <f>Calcs!M20</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L18" s="7">
         <f>Calcs!N20</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M18" s="7">
         <f>Calcs!O20</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N18" s="7">
         <f>Calcs!P20</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O18" s="7">
         <f>Calcs!Q20</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P18" s="7">
         <f>Calcs!R20</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q18" s="7">
         <f>Calcs!S20</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R18" s="7">
         <f>Calcs!T20</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S18" s="7">
         <f>Calcs!U20</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T18" s="7">
         <f>Calcs!V20</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U18" s="7">
         <f>Calcs!W20</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V18" s="7">
         <f>Calcs!X20</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W18" s="7">
         <f>Calcs!Y20</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X18" s="7">
         <f>Calcs!Z20</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y18" s="7">
         <f>Calcs!AA20</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="7">
         <f>Calcs!AB20</f>
@@ -16430,7 +16699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -16460,75 +16729,75 @@
       </c>
       <c r="H19" s="7">
         <f>Calcs!J21</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I19" s="7">
         <f>Calcs!K21</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J19" s="7">
         <f>Calcs!L21</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K19" s="7">
         <f>Calcs!M21</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L19" s="7">
         <f>Calcs!N21</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M19" s="7">
         <f>Calcs!O21</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N19" s="7">
         <f>Calcs!P21</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O19" s="7">
         <f>Calcs!Q21</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P19" s="7">
         <f>Calcs!R21</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q19" s="7">
         <f>Calcs!S21</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R19" s="7">
         <f>Calcs!T21</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S19" s="7">
         <f>Calcs!U21</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T19" s="7">
         <f>Calcs!V21</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U19" s="7">
         <f>Calcs!W21</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V19" s="7">
         <f>Calcs!X21</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W19" s="7">
         <f>Calcs!Y21</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X19" s="7">
         <f>Calcs!Z21</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y19" s="7">
         <f>Calcs!AA21</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="7">
         <f>Calcs!AB21</f>
@@ -16555,7 +16824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -16585,75 +16854,75 @@
       </c>
       <c r="H20" s="7">
         <f>Calcs!J22</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I20" s="7">
         <f>Calcs!K22</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J20" s="7">
         <f>Calcs!L22</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K20" s="7">
         <f>Calcs!M22</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L20" s="7">
         <f>Calcs!N22</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M20" s="7">
         <f>Calcs!O22</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N20" s="7">
         <f>Calcs!P22</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O20" s="7">
         <f>Calcs!Q22</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P20" s="7">
         <f>Calcs!R22</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q20" s="7">
         <f>Calcs!S22</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R20" s="7">
         <f>Calcs!T22</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S20" s="7">
         <f>Calcs!U22</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T20" s="7">
         <f>Calcs!V22</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U20" s="7">
         <f>Calcs!W22</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V20" s="7">
         <f>Calcs!X22</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W20" s="7">
         <f>Calcs!Y22</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X20" s="7">
         <f>Calcs!Z22</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y20" s="7">
         <f>Calcs!AA22</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="7">
         <f>Calcs!AB22</f>
@@ -16680,7 +16949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -16710,75 +16979,75 @@
       </c>
       <c r="H21" s="7">
         <f>Calcs!J23</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I21" s="7">
         <f>Calcs!K23</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J21" s="7">
         <f>Calcs!L23</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K21" s="7">
         <f>Calcs!M23</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L21" s="7">
         <f>Calcs!N23</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M21" s="7">
         <f>Calcs!O23</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N21" s="7">
         <f>Calcs!P23</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O21" s="7">
         <f>Calcs!Q23</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P21" s="7">
         <f>Calcs!R23</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q21" s="7">
         <f>Calcs!S23</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R21" s="7">
         <f>Calcs!T23</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S21" s="7">
         <f>Calcs!U23</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T21" s="7">
         <f>Calcs!V23</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U21" s="7">
         <f>Calcs!W23</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V21" s="7">
         <f>Calcs!X23</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W21" s="7">
         <f>Calcs!Y23</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X21" s="7">
         <f>Calcs!Z23</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y21" s="7">
         <f>Calcs!AA23</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="7">
         <f>Calcs!AB23</f>
@@ -16805,7 +17074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -16835,75 +17104,75 @@
       </c>
       <c r="H22" s="7">
         <f>Calcs!J24</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I22" s="7">
         <f>Calcs!K24</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J22" s="7">
         <f>Calcs!L24</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K22" s="7">
         <f>Calcs!M24</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L22" s="7">
         <f>Calcs!N24</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M22" s="7">
         <f>Calcs!O24</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N22" s="7">
         <f>Calcs!P24</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O22" s="7">
         <f>Calcs!Q24</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P22" s="7">
         <f>Calcs!R24</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q22" s="7">
         <f>Calcs!S24</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R22" s="7">
         <f>Calcs!T24</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S22" s="7">
         <f>Calcs!U24</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T22" s="7">
         <f>Calcs!V24</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U22" s="7">
         <f>Calcs!W24</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V22" s="7">
         <f>Calcs!X24</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W22" s="7">
         <f>Calcs!Y24</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X22" s="7">
         <f>Calcs!Z24</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y22" s="7">
         <f>Calcs!AA24</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="7">
         <f>Calcs!AB24</f>
@@ -16930,7 +17199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -16960,75 +17229,75 @@
       </c>
       <c r="H23" s="7">
         <f>Calcs!J25</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I23" s="7">
         <f>Calcs!K25</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J23" s="7">
         <f>Calcs!L25</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K23" s="7">
         <f>Calcs!M25</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L23" s="7">
         <f>Calcs!N25</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M23" s="7">
         <f>Calcs!O25</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N23" s="7">
         <f>Calcs!P25</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O23" s="7">
         <f>Calcs!Q25</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P23" s="7">
         <f>Calcs!R25</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q23" s="7">
         <f>Calcs!S25</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R23" s="7">
         <f>Calcs!T25</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S23" s="7">
         <f>Calcs!U25</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T23" s="7">
         <f>Calcs!V25</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U23" s="7">
         <f>Calcs!W25</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V23" s="7">
         <f>Calcs!X25</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W23" s="7">
         <f>Calcs!Y25</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X23" s="7">
         <f>Calcs!Z25</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y23" s="7">
         <f>Calcs!AA25</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="7">
         <f>Calcs!AB25</f>
@@ -17055,7 +17324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -17085,75 +17354,75 @@
       </c>
       <c r="H24" s="7">
         <f>Calcs!J26</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I24" s="7">
         <f>Calcs!K26</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J24" s="7">
         <f>Calcs!L26</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K24" s="7">
         <f>Calcs!M26</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L24" s="7">
         <f>Calcs!N26</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M24" s="7">
         <f>Calcs!O26</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N24" s="7">
         <f>Calcs!P26</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O24" s="7">
         <f>Calcs!Q26</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P24" s="7">
         <f>Calcs!R26</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q24" s="7">
         <f>Calcs!S26</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R24" s="7">
         <f>Calcs!T26</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S24" s="7">
         <f>Calcs!U26</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T24" s="7">
         <f>Calcs!V26</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U24" s="7">
         <f>Calcs!W26</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V24" s="7">
         <f>Calcs!X26</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W24" s="7">
         <f>Calcs!Y26</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X24" s="7">
         <f>Calcs!Z26</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y24" s="7">
         <f>Calcs!AA26</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="7">
         <f>Calcs!AB26</f>
@@ -17180,7 +17449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -17305,7 +17574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -17335,75 +17604,75 @@
       </c>
       <c r="H26" s="7">
         <f>Calcs!J28</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I26" s="7">
         <f>Calcs!K28</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J26" s="7">
         <f>Calcs!L28</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K26" s="7">
         <f>Calcs!M28</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L26" s="7">
         <f>Calcs!N28</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M26" s="7">
         <f>Calcs!O28</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N26" s="7">
         <f>Calcs!P28</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O26" s="7">
         <f>Calcs!Q28</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P26" s="7">
         <f>Calcs!R28</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q26" s="7">
         <f>Calcs!S28</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R26" s="7">
         <f>Calcs!T28</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S26" s="7">
         <f>Calcs!U28</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T26" s="7">
         <f>Calcs!V28</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U26" s="7">
         <f>Calcs!W28</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V26" s="7">
         <f>Calcs!X28</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W26" s="7">
         <f>Calcs!Y28</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X26" s="7">
         <f>Calcs!Z28</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y26" s="7">
         <f>Calcs!AA28</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="7">
         <f>Calcs!AB28</f>
@@ -17430,7 +17699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>

--- a/InputData/fuels/FoICStCT/Fraction of Industry Category Subject to Carbon Tax.xlsx
+++ b/InputData/fuels/FoICStCT/Fraction of Industry Category Subject to Carbon Tax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\FoICStCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\fuels\FoICStCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082FC7F-E8EB-499C-9B98-CAB6A9F10B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F18C19-349B-42A1-B3FD-5C126DFCF6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="636" activeTab="4" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
+    <workbookView xWindow="35835" yWindow="3240" windowWidth="19185" windowHeight="11265" tabRatio="636" firstSheet="2" activeTab="6" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -456,9 +456,6 @@
     <t>Bloomberg New Energy Finance (BNEF)</t>
   </si>
   <si>
-    <t>EU ETS Market Outlook 1H 2024</t>
-  </si>
-  <si>
     <t>Proprietary report - data on "ETS Projections" page</t>
   </si>
   <si>
@@ -472,6 +469,15 @@
   </si>
   <si>
     <t>Additional Carbon Tax (Elec)</t>
+  </si>
+  <si>
+    <t>old^</t>
+  </si>
+  <si>
+    <t>new^</t>
+  </si>
+  <si>
+    <t>EU ETS Market Outlook 2H 2024</t>
   </si>
 </sst>
 </file>
@@ -1847,94 +1853,94 @@
             <c:numRef>
               <c:f>'ETS Projections'!$C$30:$AE$30</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>86.084369999999993</c:v>
+                  <c:v>86.339434799999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>65</c:v>
+                <c:pt idx="2">
+                  <c:v>63.789062500000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.48183556405354</c:v>
+                  <c:v>67.724665391969438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.242026266416502</c:v>
+                  <c:v>80.262664165103189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.764272559852671</c:v>
+                  <c:v>95.727440147329659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.36166365280289</c:v>
+                  <c:v>102.31464737793851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.78863232682059</c:v>
+                  <c:v>115.20426287744226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127.39965095986037</c:v>
+                  <c:v>126.84118673647468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137.22126929674101</c:v>
+                  <c:v>133.36052658215647</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>141.65261382799326</c:v>
+                  <c:v>134.58767739188337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>146.76616915422886</c:v>
+                  <c:v>134.56255154707881</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>151.71288743882545</c:v>
+                  <c:v>138.80097879282221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>155.69823434991974</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>161.12056091931996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>166.28468146160586</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>171.44880200389176</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>176.61292254617766</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>181.77704308846356</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>186.94116363074943</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>192.10528417303533</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>197.26940471532123</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>202.43352525760713</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>207.85585182700731</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>213.01997236929321</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>218.18409291157911</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>223.34821345386501</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>228.51233399615089</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>233.67645453843679</c:v>
+                  <c:v>141.7063222183987</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>146.64136826580562</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0">
+                  <c:v>151.34141212047891</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>156.04145597515216</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>160.74149982982544</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0">
+                  <c:v>165.44154368449873</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0">
+                  <c:v>170.14158753917195</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0">
+                  <c:v>174.84163139384518</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0">
+                  <c:v>179.54167524851843</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0">
+                  <c:v>184.24171910319166</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0">
+                  <c:v>189.17676515059858</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>193.87680900527187</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0">
+                  <c:v>198.57685285994512</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0">
+                  <c:v>203.27689671461837</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0">
+                  <c:v>207.97694056929163</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0">
+                  <c:v>212.67698442396488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3576,16 +3582,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5417</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>131109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601325</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>553327</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>150159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3615,8 +3621,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3781425" y="5476875"/>
-          <a:ext cx="4774769" cy="2914650"/>
+          <a:off x="610535" y="5902138"/>
+          <a:ext cx="4738910" cy="2887756"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3637,16 +3643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>172570</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>379319</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>48559</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>702795</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>11766</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3669,6 +3675,113 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA400B0D-3C30-346E-F764-8A284173603E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="6464300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600262</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>32514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>8033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD10C03-4E9A-3D12-EF72-305063F5EC29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9929" t="51045" r="7749" b="2162"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5396380" y="5803543"/>
+          <a:ext cx="5271620" cy="3023519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4173,8 +4286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE5FEEC-01CE-4291-999E-35B30A1256CF}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4350,13 +4463,13 @@
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4469,7 +4582,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4737,7 +4850,7 @@
   <dimension ref="B1:AG11"/>
   <sheetViews>
     <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5704,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6696F-E709-439B-8FAB-66782F7350DF}">
   <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6912,46 +7025,46 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>81</v>
+        <v>81.239999999999995</v>
       </c>
       <c r="D28">
         <v>85</v>
       </c>
       <c r="E28">
-        <v>65</v>
+        <v>65.320000000000007</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>70.840000000000032</v>
       </c>
       <c r="G28">
-        <v>93</v>
+        <v>85.56</v>
       </c>
       <c r="H28">
-        <v>104</v>
+        <v>103.96000000000001</v>
       </c>
       <c r="I28">
-        <v>111</v>
+        <v>113.16000000000001</v>
       </c>
       <c r="J28">
-        <v>127</v>
+        <v>129.72</v>
       </c>
       <c r="K28">
-        <v>146</v>
+        <v>145.36000000000001</v>
       </c>
       <c r="L28">
-        <v>160</v>
+        <v>155.49837399479443</v>
       </c>
       <c r="M28">
-        <v>168</v>
+        <v>159.62098538677367</v>
       </c>
       <c r="N28">
-        <v>177</v>
+        <v>162.28243716577705</v>
       </c>
       <c r="O28">
-        <v>186</v>
+        <v>170.17000000000002</v>
       </c>
       <c r="P28">
-        <v>194</v>
+        <v>176.56607748412478</v>
       </c>
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
@@ -6981,8 +7094,9 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>65</v>
+      <c r="E29" s="3">
+        <f>1/(1+SUM(I4))</f>
+        <v>0.9765625</v>
       </c>
       <c r="F29" s="3">
         <f>1/(1+SUM(I4:I5))</f>
@@ -7046,131 +7160,132 @@
     </row>
     <row r="30" spans="1:31">
       <c r="B30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="39">
+        <v>128</v>
+      </c>
+      <c r="C30" s="19">
         <f>C28*C29</f>
-        <v>86.084369999999993</v>
-      </c>
-      <c r="D30" s="39">
+        <v>86.339434799999992</v>
+      </c>
+      <c r="D30" s="19">
         <f t="shared" ref="D30:P30" si="2">D28*D29</f>
         <v>85</v>
       </c>
-      <c r="E30">
-        <v>65</v>
-      </c>
-      <c r="F30" s="39">
+      <c r="E30" s="19">
+        <f>E28*E29</f>
+        <v>63.789062500000007</v>
+      </c>
+      <c r="F30" s="19">
+        <f>F28*F29</f>
+        <v>67.724665391969438</v>
+      </c>
+      <c r="G30" s="19">
         <f t="shared" si="2"/>
-        <v>76.48183556405354</v>
-      </c>
-      <c r="G30" s="39">
+        <v>80.262664165103189</v>
+      </c>
+      <c r="H30" s="19">
         <f t="shared" si="2"/>
-        <v>87.242026266416502</v>
-      </c>
-      <c r="H30" s="39">
+        <v>95.727440147329659</v>
+      </c>
+      <c r="I30" s="19">
         <f t="shared" si="2"/>
-        <v>95.764272559852671</v>
-      </c>
-      <c r="I30" s="39">
+        <v>102.31464737793851</v>
+      </c>
+      <c r="J30" s="19">
         <f t="shared" si="2"/>
-        <v>100.36166365280289</v>
-      </c>
-      <c r="J30" s="39">
+        <v>115.20426287744226</v>
+      </c>
+      <c r="K30" s="19">
         <f t="shared" si="2"/>
-        <v>112.78863232682059</v>
-      </c>
-      <c r="K30" s="39">
+        <v>126.84118673647468</v>
+      </c>
+      <c r="L30" s="19">
         <f t="shared" si="2"/>
-        <v>127.39965095986037</v>
-      </c>
-      <c r="L30" s="39">
+        <v>133.36052658215647</v>
+      </c>
+      <c r="M30" s="19">
         <f t="shared" si="2"/>
-        <v>137.22126929674101</v>
-      </c>
-      <c r="M30" s="39">
+        <v>134.58767739188337</v>
+      </c>
+      <c r="N30" s="19">
         <f t="shared" si="2"/>
-        <v>141.65261382799326</v>
-      </c>
-      <c r="N30" s="39">
+        <v>134.56255154707881</v>
+      </c>
+      <c r="O30" s="19">
         <f t="shared" si="2"/>
-        <v>146.76616915422886</v>
-      </c>
-      <c r="O30" s="39">
+        <v>138.80097879282221</v>
+      </c>
+      <c r="P30" s="19">
         <f t="shared" si="2"/>
-        <v>151.71288743882545</v>
-      </c>
-      <c r="P30" s="39">
-        <f t="shared" si="2"/>
-        <v>155.69823434991974</v>
+        <v>141.7063222183987</v>
       </c>
       <c r="Q30" s="39">
         <f>Q31/$S3</f>
-        <v>161.12056091931996</v>
+        <v>146.64136826580562</v>
       </c>
       <c r="R30" s="39">
         <f t="shared" ref="R30:AE30" si="3">R31/$S3</f>
-        <v>166.28468146160586</v>
+        <v>151.34141212047891</v>
       </c>
       <c r="S30" s="39">
         <f t="shared" si="3"/>
-        <v>171.44880200389176</v>
+        <v>156.04145597515216</v>
       </c>
       <c r="T30" s="39">
         <f t="shared" si="3"/>
-        <v>176.61292254617766</v>
+        <v>160.74149982982544</v>
       </c>
       <c r="U30" s="39">
         <f t="shared" si="3"/>
-        <v>181.77704308846356</v>
+        <v>165.44154368449873</v>
       </c>
       <c r="V30" s="39">
         <f t="shared" si="3"/>
-        <v>186.94116363074943</v>
+        <v>170.14158753917195</v>
       </c>
       <c r="W30" s="39">
         <f t="shared" si="3"/>
-        <v>192.10528417303533</v>
+        <v>174.84163139384518</v>
       </c>
       <c r="X30" s="39">
         <f t="shared" si="3"/>
-        <v>197.26940471532123</v>
+        <v>179.54167524851843</v>
       </c>
       <c r="Y30" s="39">
         <f t="shared" si="3"/>
-        <v>202.43352525760713</v>
+        <v>184.24171910319166</v>
       </c>
       <c r="Z30" s="39">
         <f t="shared" si="3"/>
-        <v>207.85585182700731</v>
+        <v>189.17676515059858</v>
       </c>
       <c r="AA30" s="39">
         <f t="shared" si="3"/>
-        <v>213.01997236929321</v>
+        <v>193.87680900527187</v>
       </c>
       <c r="AB30" s="39">
         <f t="shared" si="3"/>
-        <v>218.18409291157911</v>
+        <v>198.57685285994512</v>
       </c>
       <c r="AC30" s="39">
         <f t="shared" si="3"/>
-        <v>223.34821345386501</v>
+        <v>203.27689671461837</v>
       </c>
       <c r="AD30" s="39">
         <f t="shared" si="3"/>
-        <v>228.51233399615089</v>
+        <v>207.97694056929163</v>
       </c>
       <c r="AE30" s="39">
         <f t="shared" si="3"/>
-        <v>233.67645453843679</v>
+        <v>212.67698442396488</v>
       </c>
     </row>
     <row r="31" spans="1:31">
       <c r="B31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="39">
         <f>C30*$S3</f>
-        <v>70.256002454352</v>
+        <v>70.464168387550075</v>
       </c>
       <c r="D31" s="39">
         <f t="shared" ref="D31:P31" si="4">D30*$S3</f>
@@ -7178,111 +7293,119 @@
       </c>
       <c r="E31" s="39">
         <f t="shared" si="4"/>
-        <v>53.048423999999997</v>
+        <v>52.060142062500006</v>
       </c>
       <c r="F31" s="39">
         <f t="shared" si="4"/>
-        <v>62.419089866156789</v>
+        <v>55.27210407648186</v>
       </c>
       <c r="G31" s="39">
         <f t="shared" si="4"/>
-        <v>71.200800000000001</v>
+        <v>65.504735999999994</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="4"/>
-        <v>78.156057458563538</v>
+        <v>78.125997436464104</v>
       </c>
       <c r="I31" s="39">
         <f t="shared" si="4"/>
-        <v>81.908124412296559</v>
+        <v>83.502012238698015</v>
       </c>
       <c r="J31" s="39">
         <f t="shared" si="4"/>
-        <v>92.050141385435154</v>
+        <v>94.021608980461806</v>
       </c>
       <c r="K31" s="39">
         <f t="shared" si="4"/>
-        <v>103.97462617801045</v>
+        <v>103.51884699476439</v>
       </c>
       <c r="L31" s="39">
         <f t="shared" si="4"/>
-        <v>111.99033962264153</v>
+        <v>108.83947321528473</v>
       </c>
       <c r="M31" s="39">
         <f t="shared" si="4"/>
-        <v>115.60689106239461</v>
+        <v>109.84098731476682</v>
       </c>
       <c r="N31" s="39">
         <f t="shared" si="4"/>
-        <v>119.78021492537314</v>
+        <v>109.82048136909681</v>
       </c>
       <c r="O31" s="39">
         <f t="shared" si="4"/>
-        <v>123.81737814029364</v>
+        <v>113.27958730179448</v>
       </c>
       <c r="P31" s="39">
         <f t="shared" si="4"/>
-        <v>127.06993772070626</v>
+        <v>115.65072406957285</v>
       </c>
       <c r="Q31" s="39">
         <f>P31*Q13/P13</f>
-        <v>131.49525893486023</v>
+        <v>119.67836122622464</v>
       </c>
       <c r="R31" s="39">
         <f t="shared" ref="R31:AE31" si="5">Q31*R13/Q13</f>
-        <v>135.7098505673878</v>
+        <v>123.51420613732159</v>
       </c>
       <c r="S31" s="39">
         <f t="shared" si="5"/>
-        <v>139.92444219991538</v>
+        <v>127.35005104841855</v>
       </c>
       <c r="T31" s="39">
         <f t="shared" si="5"/>
-        <v>144.13903383244295</v>
+        <v>131.18589595951551</v>
       </c>
       <c r="U31" s="39">
         <f t="shared" si="5"/>
-        <v>148.35362546497052</v>
+        <v>135.02174087061246</v>
       </c>
       <c r="V31" s="39">
         <f t="shared" si="5"/>
-        <v>152.56821709749809</v>
+        <v>138.85758578170939</v>
       </c>
       <c r="W31" s="39">
         <f t="shared" si="5"/>
-        <v>156.78280873002566</v>
+        <v>142.69343069280632</v>
       </c>
       <c r="X31" s="39">
         <f t="shared" si="5"/>
-        <v>160.99740036255324</v>
+        <v>146.52927560390324</v>
       </c>
       <c r="Y31" s="39">
         <f t="shared" si="5"/>
-        <v>165.21199199508081</v>
+        <v>150.36512051500017</v>
       </c>
       <c r="Z31" s="39">
         <f t="shared" si="5"/>
-        <v>169.63731320923475</v>
+        <v>154.39275767165196</v>
       </c>
       <c r="AA31" s="39">
         <f t="shared" si="5"/>
-        <v>173.85190484176232</v>
+        <v>158.22860258274892</v>
       </c>
       <c r="AB31" s="39">
         <f t="shared" si="5"/>
-        <v>178.06649647428989</v>
+        <v>162.06444749384588</v>
       </c>
       <c r="AC31" s="39">
         <f t="shared" si="5"/>
-        <v>182.28108810681746</v>
+        <v>165.9002924049428</v>
       </c>
       <c r="AD31" s="39">
         <f t="shared" si="5"/>
-        <v>186.49567973934504</v>
+        <v>169.73613731603976</v>
       </c>
       <c r="AE31" s="39">
         <f t="shared" si="5"/>
-        <v>190.71027137187261</v>
+        <v>173.57198222713669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:31" s="6" customFormat="1">
@@ -7989,7 +8112,7 @@
       </c>
       <c r="C64" s="41">
         <f t="shared" ref="C64:AE64" si="12">MAX(C57,C30)</f>
-        <v>86.084369999999993</v>
+        <v>86.339434799999992</v>
       </c>
       <c r="D64" s="41">
         <f t="shared" si="12"/>
@@ -7997,35 +8120,35 @@
       </c>
       <c r="E64" s="41">
         <f t="shared" si="12"/>
-        <v>65</v>
+        <v>63.789062500000007</v>
       </c>
       <c r="F64" s="41">
         <f t="shared" si="12"/>
-        <v>76.48183556405354</v>
+        <v>67.724665391969438</v>
       </c>
       <c r="G64" s="41">
         <f t="shared" si="12"/>
-        <v>87.242026266416502</v>
+        <v>80.262664165103189</v>
       </c>
       <c r="H64" s="41">
-        <f t="shared" si="12"/>
-        <v>95.764272559852671</v>
+        <f>MAX(H57,H30)</f>
+        <v>95.727440147329659</v>
       </c>
       <c r="I64" s="41">
         <f t="shared" si="12"/>
-        <v>100.36166365280289</v>
+        <v>102.31464737793851</v>
       </c>
       <c r="J64" s="41">
         <f t="shared" si="12"/>
-        <v>112.78863232682059</v>
+        <v>115.20426287744226</v>
       </c>
       <c r="K64" s="41">
         <f t="shared" si="12"/>
-        <v>127.39965095986037</v>
+        <v>126.84118673647468</v>
       </c>
       <c r="L64" s="41">
         <f t="shared" si="12"/>
-        <v>137.22126929674101</v>
+        <v>133.36052658215647</v>
       </c>
       <c r="M64" s="41">
         <f t="shared" si="12"/>
@@ -8150,79 +8273,79 @@
       </c>
       <c r="M65">
         <f t="shared" si="13"/>
-        <v>0.96735992063863285</v>
+        <v>0.91911276045243906</v>
       </c>
       <c r="N65">
         <f t="shared" si="13"/>
-        <v>0.89453570621505807</v>
+        <v>0.82015499738072961</v>
       </c>
       <c r="O65">
         <f t="shared" si="13"/>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P65">
         <f t="shared" si="13"/>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q65" s="41">
         <f t="shared" si="13"/>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R65">
         <f t="shared" si="13"/>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S65">
         <f t="shared" si="13"/>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T65">
         <f t="shared" si="13"/>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U65">
         <f t="shared" si="13"/>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V65">
         <f t="shared" si="13"/>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W65">
         <f t="shared" si="13"/>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X65">
         <f t="shared" si="13"/>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y65">
         <f t="shared" si="13"/>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z65">
         <f t="shared" si="13"/>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA65">
         <f t="shared" si="13"/>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB65">
         <f t="shared" si="13"/>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC65">
         <f t="shared" si="13"/>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD65">
         <f t="shared" si="13"/>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE65">
         <f t="shared" si="13"/>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="66" spans="2:31">
@@ -8241,8 +8364,8 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="14"/>
+      <c r="F66" s="41">
+        <f>F57/F64</f>
         <v>0</v>
       </c>
       <c r="G66">
@@ -8250,24 +8373,24 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="14"/>
-        <v>0.48235390993499733</v>
+        <f>H57/H64</f>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I66">
         <f t="shared" si="14"/>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J66">
         <f t="shared" si="14"/>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K66">
         <f t="shared" si="14"/>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L66">
         <f t="shared" si="14"/>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M66">
         <f t="shared" si="14"/>
@@ -8348,11 +8471,11 @@
     </row>
     <row r="68" spans="2:31">
       <c r="B68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="31">
         <f>C64-C63</f>
-        <v>42.953965221151144</v>
+        <v>43.209030021151143</v>
       </c>
       <c r="D68" s="31">
         <f t="shared" ref="D68:AE68" si="15">D64-D63</f>
@@ -8360,35 +8483,35 @@
       </c>
       <c r="E68" s="31">
         <f t="shared" si="15"/>
-        <v>21.869595221151151</v>
+        <v>20.658657721151158</v>
       </c>
       <c r="F68" s="31">
         <f t="shared" si="15"/>
-        <v>33.351430785204691</v>
+        <v>24.594260613120589</v>
       </c>
       <c r="G68" s="31">
-        <f t="shared" si="15"/>
-        <v>40.435734716643033</v>
+        <f>G64-G63</f>
+        <v>33.45637261532972</v>
       </c>
       <c r="H68" s="31">
         <f t="shared" si="15"/>
-        <v>45.282094239154581</v>
+        <v>45.24526182663157</v>
       </c>
       <c r="I68" s="31">
         <f t="shared" si="15"/>
-        <v>46.08106900214937</v>
+        <v>48.034052727284994</v>
       </c>
       <c r="J68" s="31">
         <f t="shared" si="15"/>
-        <v>54.83215090524245</v>
+        <v>57.247781455864121</v>
       </c>
       <c r="K68" s="31">
         <f t="shared" si="15"/>
-        <v>65.767282767357614</v>
+        <v>65.20881854397193</v>
       </c>
       <c r="L68" s="31">
         <f t="shared" si="15"/>
-        <v>73.138309923621847</v>
+        <v>69.277567209037301</v>
       </c>
       <c r="M68" s="31">
         <f t="shared" si="15"/>
@@ -8469,63 +8592,63 @@
     </row>
     <row r="69" spans="2:31">
       <c r="B69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69">
         <f>C31/MAX($C31:$AE31)</f>
-        <v>0.36839128773173085</v>
+        <v>0.40596510729099416</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:AE69" si="16">D31/MAX($C31:$AE31)</f>
-        <v>0.36375081164208001</v>
+        <f>D31/MAX($C31:$AE31)</f>
+        <v>0.39966713008566629</v>
       </c>
       <c r="E69">
-        <f t="shared" si="16"/>
-        <v>0.2781623853733553</v>
+        <f t="shared" ref="E69:AE69" si="16">E31/MAX($C31:$AE31)</f>
+        <v>0.29993401812035531</v>
       </c>
       <c r="F69">
         <f t="shared" si="16"/>
-        <v>0.3272979972035362</v>
+        <v>0.3184390900378879</v>
       </c>
       <c r="G69">
         <f t="shared" si="16"/>
-        <v>0.37334538663186673</v>
+        <v>0.37739233693995816</v>
       </c>
       <c r="H69">
         <f t="shared" si="16"/>
-        <v>0.40981566905835037</v>
+        <v>0.45010719146036049</v>
       </c>
       <c r="I69">
         <f t="shared" si="16"/>
-        <v>0.42948984248772343</v>
+        <v>0.48108001745020745</v>
       </c>
       <c r="J69">
         <f t="shared" si="16"/>
-        <v>0.4826700770927192</v>
+        <v>0.54168655432778845</v>
       </c>
       <c r="K69">
         <f t="shared" si="16"/>
-        <v>0.54519678164196361</v>
+        <v>0.59640297740737558</v>
       </c>
       <c r="L69">
         <f t="shared" si="16"/>
-        <v>0.58722762448524679</v>
+        <v>0.62705669324474933</v>
       </c>
       <c r="M69">
         <f t="shared" si="16"/>
-        <v>0.6061912147194668</v>
+        <v>0.63282671491893583</v>
       </c>
       <c r="N69">
         <f t="shared" si="16"/>
-        <v>0.6280742723699948</v>
+        <v>0.63270857404500624</v>
       </c>
       <c r="O69">
         <f t="shared" si="16"/>
-        <v>0.64924336402866223</v>
+        <v>0.65263751584951402</v>
       </c>
       <c r="P69">
         <f t="shared" si="16"/>
-        <v>0.66629834254143638</v>
+        <v>0.66629834254143649</v>
       </c>
       <c r="Q69">
         <f t="shared" si="16"/>
@@ -8537,23 +8660,23 @@
       </c>
       <c r="S69">
         <f t="shared" si="16"/>
-        <v>0.73370165745856353</v>
+        <v>0.73370165745856375</v>
       </c>
       <c r="T69">
         <f t="shared" si="16"/>
-        <v>0.75580110497237574</v>
+        <v>0.75580110497237596</v>
       </c>
       <c r="U69">
         <f t="shared" si="16"/>
-        <v>0.77790055248618784</v>
+        <v>0.77790055248618817</v>
       </c>
       <c r="V69">
         <f t="shared" si="16"/>
-        <v>0.8</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="W69">
         <f t="shared" si="16"/>
-        <v>0.82209944751381214</v>
+        <v>0.82209944751381225</v>
       </c>
       <c r="X69">
         <f t="shared" si="16"/>
@@ -8573,7 +8696,7 @@
       </c>
       <c r="AB69">
         <f t="shared" si="16"/>
-        <v>0.93370165745856348</v>
+        <v>0.93370165745856359</v>
       </c>
       <c r="AC69">
         <f t="shared" si="16"/>
@@ -8581,7 +8704,7 @@
       </c>
       <c r="AD69">
         <f t="shared" si="16"/>
-        <v>0.97790055248618779</v>
+        <v>0.9779005524861879</v>
       </c>
       <c r="AE69">
         <f t="shared" si="16"/>
@@ -8591,7 +8714,7 @@
     <row r="70" spans="2:31">
       <c r="C70" t="str">
         <f>"("&amp;C62&amp;","&amp;ROUND(C68/MAX($C68:$AE68),3)&amp;"),"</f>
-        <v>(2022,0.223),</v>
+        <v>(2022,0.225),</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ref="D70:AE70" si="17">"("&amp;D62&amp;","&amp;ROUND(D68/MAX($C68:$AE68),3)&amp;"),"</f>
@@ -8599,15 +8722,15 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="17"/>
-        <v>(2024,0.114),</v>
+        <v>(2024,0.107),</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="17"/>
-        <v>(2025,0.173),</v>
+        <v>(2025,0.128),</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="17"/>
-        <v>(2026,0.21),</v>
+        <v>(2026,0.174),</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="17"/>
@@ -8615,19 +8738,19 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="17"/>
-        <v>(2028,0.239),</v>
+        <v>(2028,0.25),</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="17"/>
-        <v>(2029,0.285),</v>
+        <v>(2029,0.297),</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="17"/>
-        <v>(2030,0.342),</v>
+        <v>(2030,0.339),</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="17"/>
-        <v>(2031,0.38),</v>
+        <v>(2031,0.36),</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="17"/>
@@ -8722,7 +8845,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8989,23 +9112,23 @@
       </c>
       <c r="J5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O5" s="8">
         <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!M$66,0))</f>
@@ -9116,23 +9239,23 @@
       </c>
       <c r="J6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O6" s="8">
         <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!M$66,0))</f>
@@ -9243,23 +9366,23 @@
       </c>
       <c r="J7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O7" s="8">
         <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!M$66,0))</f>
@@ -9370,23 +9493,23 @@
       </c>
       <c r="J8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O8" s="8">
         <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!M$66,0))</f>
@@ -9497,23 +9620,23 @@
       </c>
       <c r="J9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O9" s="8">
         <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!M$66,0))</f>
@@ -9624,23 +9747,23 @@
       </c>
       <c r="J10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O10" s="8">
         <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!M$66,0))</f>
@@ -9771,79 +9894,79 @@
       </c>
       <c r="O11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!M$66,0))</f>
-        <v>0.71355731267957767</v>
+        <v>0.67796857964197832</v>
       </c>
       <c r="P11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!N$66,0))</f>
-        <v>0.77054537138977963</v>
+        <v>0.70647446788667934</v>
       </c>
       <c r="Q11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!O$66,0))</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="R11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!P$66,0))</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="S11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!Q$66,0))</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="T11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!R$66,0))</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="U11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!S$66,0))</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="V11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!T$66,0))</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="W11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!U$66,0))</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="X11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!V$66,0))</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="Y11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!W$66,0))</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="Z11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!X$66,0))</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="AA11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!Y$66,0))</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="AB11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!Z$66,0))</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AC11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AA$66,0))</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AD11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AB$66,0))</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AE11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AC$66,0))</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AF11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AD$66,0))</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AG11" s="8">
         <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AE$66,0))</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -9898,79 +10021,79 @@
       </c>
       <c r="O12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!M$66,0))</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="P12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!N$66,0))</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="Q12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!O$66,0))</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="R12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!P$66,0))</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="S12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!Q$66,0))</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="T12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!R$66,0))</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="U12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!S$66,0))</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="V12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!T$66,0))</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="W12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!U$66,0))</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="X12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!V$66,0))</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="Y12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!W$66,0))</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="Z12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!X$66,0))</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="AA12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!Y$66,0))</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="AB12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!Z$66,0))</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AC12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AA$66,0))</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AD12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AB$66,0))</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AE12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AC$66,0))</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AF12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AD$66,0))</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AG12" s="8">
         <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AE$66,0))</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -10025,79 +10148,79 @@
       </c>
       <c r="O13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!M$66,0))</f>
-        <v>0.736200028899056</v>
+        <v>0.69948198842046772</v>
       </c>
       <c r="P13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!N$66,0))</f>
-        <v>0.78160703063742532</v>
+        <v>0.71661634936580532</v>
       </c>
       <c r="Q13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!O$66,0))</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="R13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!P$66,0))</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="S13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!Q$66,0))</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="T13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!R$66,0))</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="U13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!S$66,0))</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="V13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!T$66,0))</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="W13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!U$66,0))</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="X13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!V$66,0))</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="Y13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!W$66,0))</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="Z13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!X$66,0))</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="AA13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!Y$66,0))</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="AB13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!Z$66,0))</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AC13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AA$66,0))</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AD13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AB$66,0))</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AE13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AC$66,0))</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AF13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AD$66,0))</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AG13" s="8">
         <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AE$66,0))</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -10132,23 +10255,23 @@
       </c>
       <c r="J14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O14" s="8">
         <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!M$66,0))</f>
@@ -10279,79 +10402,79 @@
       </c>
       <c r="O15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!M$66,0))</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="P15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!N$66,0))</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="Q15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!O$66,0))</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="R15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!P$66,0))</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="S15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!Q$66,0))</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="T15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!R$66,0))</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="U15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!S$66,0))</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="V15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!T$66,0))</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="W15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!U$66,0))</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="X15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!V$66,0))</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="Y15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!W$66,0))</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="Z15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!X$66,0))</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="AA15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!Y$66,0))</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="AB15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!Z$66,0))</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AC15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AA$66,0))</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AD15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AB$66,0))</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AE15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AC$66,0))</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AF15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AD$66,0))</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AG15" s="8">
         <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AE$66,0))</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -10406,79 +10529,79 @@
       </c>
       <c r="O16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!M$66,0))</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="P16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!N$66,0))</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="Q16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!O$66,0))</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="R16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!P$66,0))</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="S16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!Q$66,0))</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="T16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!R$66,0))</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="U16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!S$66,0))</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="V16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!T$66,0))</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="W16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!U$66,0))</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="X16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!V$66,0))</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="Y16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!W$66,0))</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="Z16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!X$66,0))</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="AA16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!Y$66,0))</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="AB16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!Z$66,0))</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AC16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AA$66,0))</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AD16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AB$66,0))</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AE16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AC$66,0))</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AF16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AD$66,0))</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AG16" s="8">
         <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AE$66,0))</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="17" spans="2:33">
@@ -10533,79 +10656,79 @@
       </c>
       <c r="O17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!M$66,0))</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="P17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!N$66,0))</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="Q17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!O$66,0))</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="R17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!P$66,0))</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="S17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!Q$66,0))</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="T17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!R$66,0))</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="U17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!S$66,0))</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="V17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!T$66,0))</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="W17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!U$66,0))</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="X17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!V$66,0))</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="Y17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!W$66,0))</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="Z17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!X$66,0))</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="AA17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!Y$66,0))</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="AB17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!Z$66,0))</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AC17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AA$66,0))</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AD17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AB$66,0))</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AE17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AC$66,0))</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AF17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AD$66,0))</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AG17" s="8">
         <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AE$66,0))</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="18" spans="2:33">
@@ -10660,79 +10783,79 @@
       </c>
       <c r="O18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!M$66,0))</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="P18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!N$66,0))</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="Q18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!O$66,0))</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="R18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!P$66,0))</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="S18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!Q$66,0))</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="T18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!R$66,0))</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="U18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!S$66,0))</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="V18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!T$66,0))</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="W18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!U$66,0))</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="X18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!V$66,0))</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="Y18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!W$66,0))</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="Z18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!X$66,0))</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="AA18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!Y$66,0))</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="AB18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!Z$66,0))</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AC18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AA$66,0))</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AD18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AB$66,0))</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AE18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AC$66,0))</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AF18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AD$66,0))</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AG18" s="8">
         <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AE$66,0))</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="19" spans="2:33">
@@ -10767,23 +10890,23 @@
       </c>
       <c r="J19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O19" s="8">
         <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!M$66,0))</f>
@@ -10894,23 +11017,23 @@
       </c>
       <c r="J20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O20" s="8">
         <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!M$66,0))</f>
@@ -11021,23 +11144,23 @@
       </c>
       <c r="J21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O21" s="8">
         <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!M$66,0))</f>
@@ -11148,23 +11271,23 @@
       </c>
       <c r="J22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O22" s="8">
         <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!M$66,0))</f>
@@ -11275,23 +11398,23 @@
       </c>
       <c r="J23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O23" s="8">
         <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!M$66,0))</f>
@@ -11402,23 +11525,23 @@
       </c>
       <c r="J24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O24" s="8">
         <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!M$66,0))</f>
@@ -11529,23 +11652,23 @@
       </c>
       <c r="J25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O25" s="8">
         <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!M$66,0))</f>
@@ -11656,23 +11779,23 @@
       </c>
       <c r="J26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O26" s="8">
         <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!M$66,0))</f>
@@ -11910,23 +12033,23 @@
       </c>
       <c r="J28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!H$66,0))</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="K28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!I$66,0))</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="L28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!J$66,0))</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="M28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!K$66,0))</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="N28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!L$66,0))</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="O28" s="8">
         <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!M$66,0))</f>
@@ -12027,10 +12150,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B27" sqref="A27:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12289,23 +12412,23 @@
       </c>
       <c r="H3" s="7">
         <f>Calcs!J5</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I3" s="7">
         <f>Calcs!K5</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J3" s="7">
         <f>Calcs!L5</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K3" s="7">
         <f>Calcs!M5</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L3" s="7">
         <f>Calcs!N5</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M3" s="7">
         <f>Calcs!O5</f>
@@ -12414,23 +12537,23 @@
       </c>
       <c r="H4" s="7">
         <f>Calcs!J6</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I4" s="7">
         <f>Calcs!K6</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J4" s="7">
         <f>Calcs!L6</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K4" s="7">
         <f>Calcs!M6</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L4" s="7">
         <f>Calcs!N6</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M4" s="7">
         <f>Calcs!O6</f>
@@ -12539,23 +12662,23 @@
       </c>
       <c r="H5" s="7">
         <f>Calcs!J7</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I5" s="7">
         <f>Calcs!K7</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J5" s="7">
         <f>Calcs!L7</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K5" s="7">
         <f>Calcs!M7</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L5" s="7">
         <f>Calcs!N7</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M5" s="7">
         <f>Calcs!O7</f>
@@ -12664,23 +12787,23 @@
       </c>
       <c r="H6" s="7">
         <f>Calcs!J8</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I6" s="7">
         <f>Calcs!K8</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J6" s="7">
         <f>Calcs!L8</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K6" s="7">
         <f>Calcs!M8</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L6" s="7">
         <f>Calcs!N8</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M6" s="7">
         <f>Calcs!O8</f>
@@ -12789,23 +12912,23 @@
       </c>
       <c r="H7" s="7">
         <f>Calcs!J9</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I7" s="7">
         <f>Calcs!K9</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J7" s="7">
         <f>Calcs!L9</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K7" s="7">
         <f>Calcs!M9</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L7" s="7">
         <f>Calcs!N9</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M7" s="7">
         <f>Calcs!O9</f>
@@ -12914,23 +13037,23 @@
       </c>
       <c r="H8" s="7">
         <f>Calcs!J10</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I8" s="7">
         <f>Calcs!K10</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J8" s="7">
         <f>Calcs!L10</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K8" s="7">
         <f>Calcs!M10</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L8" s="7">
         <f>Calcs!N10</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M8" s="7">
         <f>Calcs!O10</f>
@@ -13059,79 +13182,79 @@
       </c>
       <c r="M9" s="7">
         <f>Calcs!O11</f>
-        <v>0.71355731267957767</v>
+        <v>0.67796857964197832</v>
       </c>
       <c r="N9" s="7">
         <f>Calcs!P11</f>
-        <v>0.77054537138977963</v>
+        <v>0.70647446788667934</v>
       </c>
       <c r="O9" s="7">
         <f>Calcs!Q11</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P9" s="7">
         <f>Calcs!R11</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q9" s="7">
         <f>Calcs!S11</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R9" s="7">
         <f>Calcs!T11</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S9" s="7">
         <f>Calcs!U11</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T9" s="7">
         <f>Calcs!V11</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U9" s="7">
         <f>Calcs!W11</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V9" s="7">
         <f>Calcs!X11</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W9" s="7">
         <f>Calcs!Y11</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X9" s="7">
         <f>Calcs!Z11</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y9" s="7">
         <f>Calcs!AA11</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z9" s="7">
         <f>Calcs!AB11</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA9" s="7">
         <f>Calcs!AC11</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB9" s="7">
         <f>Calcs!AD11</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC9" s="7">
         <f>Calcs!AE11</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD9" s="7">
         <f>Calcs!AF11</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE9" s="7">
         <f>Calcs!AG11</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -13184,79 +13307,79 @@
       </c>
       <c r="M10" s="7">
         <f>Calcs!O12</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="N10" s="7">
         <f>Calcs!P12</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="O10" s="7">
         <f>Calcs!Q12</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P10" s="7">
         <f>Calcs!R12</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q10" s="7">
         <f>Calcs!S12</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R10" s="7">
         <f>Calcs!T12</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S10" s="7">
         <f>Calcs!U12</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T10" s="7">
         <f>Calcs!V12</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U10" s="7">
         <f>Calcs!W12</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V10" s="7">
         <f>Calcs!X12</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W10" s="7">
         <f>Calcs!Y12</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X10" s="7">
         <f>Calcs!Z12</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y10" s="7">
         <f>Calcs!AA12</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z10" s="7">
         <f>Calcs!AB12</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA10" s="7">
         <f>Calcs!AC12</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB10" s="7">
         <f>Calcs!AD12</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC10" s="7">
         <f>Calcs!AE12</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD10" s="7">
         <f>Calcs!AF12</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE10" s="7">
         <f>Calcs!AG12</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -13309,79 +13432,79 @@
       </c>
       <c r="M11" s="7">
         <f>Calcs!O13</f>
-        <v>0.736200028899056</v>
+        <v>0.69948198842046772</v>
       </c>
       <c r="N11" s="7">
         <f>Calcs!P13</f>
-        <v>0.78160703063742532</v>
+        <v>0.71661634936580532</v>
       </c>
       <c r="O11" s="7">
         <f>Calcs!Q13</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P11" s="7">
         <f>Calcs!R13</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q11" s="7">
         <f>Calcs!S13</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R11" s="7">
         <f>Calcs!T13</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S11" s="7">
         <f>Calcs!U13</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T11" s="7">
         <f>Calcs!V13</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U11" s="7">
         <f>Calcs!W13</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V11" s="7">
         <f>Calcs!X13</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W11" s="7">
         <f>Calcs!Y13</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X11" s="7">
         <f>Calcs!Z13</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y11" s="7">
         <f>Calcs!AA13</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z11" s="7">
         <f>Calcs!AB13</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA11" s="7">
         <f>Calcs!AC13</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB11" s="7">
         <f>Calcs!AD13</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC11" s="7">
         <f>Calcs!AE13</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD11" s="7">
         <f>Calcs!AF13</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE11" s="7">
         <f>Calcs!AG13</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -13414,23 +13537,23 @@
       </c>
       <c r="H12" s="7">
         <f>Calcs!J14</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I12" s="7">
         <f>Calcs!K14</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J12" s="7">
         <f>Calcs!L14</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K12" s="7">
         <f>Calcs!M14</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L12" s="7">
         <f>Calcs!N14</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M12" s="7">
         <f>Calcs!O14</f>
@@ -13559,79 +13682,79 @@
       </c>
       <c r="M13" s="7">
         <f>Calcs!O15</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="N13" s="7">
         <f>Calcs!P15</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="O13" s="7">
         <f>Calcs!Q15</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P13" s="7">
         <f>Calcs!R15</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q13" s="7">
         <f>Calcs!S15</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R13" s="7">
         <f>Calcs!T15</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S13" s="7">
         <f>Calcs!U15</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T13" s="7">
         <f>Calcs!V15</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U13" s="7">
         <f>Calcs!W15</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V13" s="7">
         <f>Calcs!X15</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W13" s="7">
         <f>Calcs!Y15</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X13" s="7">
         <f>Calcs!Z15</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y13" s="7">
         <f>Calcs!AA15</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z13" s="7">
         <f>Calcs!AB15</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA13" s="7">
         <f>Calcs!AC15</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB13" s="7">
         <f>Calcs!AD15</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC13" s="7">
         <f>Calcs!AE15</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD13" s="7">
         <f>Calcs!AF15</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE13" s="7">
         <f>Calcs!AG15</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -13684,79 +13807,79 @@
       </c>
       <c r="M14" s="7">
         <f>Calcs!O16</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="N14" s="7">
         <f>Calcs!P16</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="O14" s="7">
         <f>Calcs!Q16</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P14" s="7">
         <f>Calcs!R16</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q14" s="7">
         <f>Calcs!S16</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R14" s="7">
         <f>Calcs!T16</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S14" s="7">
         <f>Calcs!U16</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T14" s="7">
         <f>Calcs!V16</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U14" s="7">
         <f>Calcs!W16</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V14" s="7">
         <f>Calcs!X16</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W14" s="7">
         <f>Calcs!Y16</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X14" s="7">
         <f>Calcs!Z16</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y14" s="7">
         <f>Calcs!AA16</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z14" s="7">
         <f>Calcs!AB16</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA14" s="7">
         <f>Calcs!AC16</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB14" s="7">
         <f>Calcs!AD16</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC14" s="7">
         <f>Calcs!AE16</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD14" s="7">
         <f>Calcs!AF16</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE14" s="7">
         <f>Calcs!AG16</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -13809,79 +13932,79 @@
       </c>
       <c r="M15" s="7">
         <f>Calcs!O17</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="N15" s="7">
         <f>Calcs!P17</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="O15" s="7">
         <f>Calcs!Q17</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P15" s="7">
         <f>Calcs!R17</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q15" s="7">
         <f>Calcs!S17</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R15" s="7">
         <f>Calcs!T17</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S15" s="7">
         <f>Calcs!U17</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T15" s="7">
         <f>Calcs!V17</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U15" s="7">
         <f>Calcs!W17</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V15" s="7">
         <f>Calcs!X17</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W15" s="7">
         <f>Calcs!Y17</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X15" s="7">
         <f>Calcs!Z17</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y15" s="7">
         <f>Calcs!AA17</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z15" s="7">
         <f>Calcs!AB17</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA15" s="7">
         <f>Calcs!AC17</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB15" s="7">
         <f>Calcs!AD17</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC15" s="7">
         <f>Calcs!AE17</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD15" s="7">
         <f>Calcs!AF17</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE15" s="7">
         <f>Calcs!AG17</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -13934,79 +14057,79 @@
       </c>
       <c r="M16" s="7">
         <f>Calcs!O18</f>
-        <v>0.71100954166939512</v>
+        <v>0.67554787893254264</v>
       </c>
       <c r="N16" s="7">
         <f>Calcs!P18</f>
-        <v>0.76930070734494993</v>
+        <v>0.70533329774742748</v>
       </c>
       <c r="O16" s="7">
         <f>Calcs!Q18</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P16" s="7">
         <f>Calcs!R18</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q16" s="7">
         <f>Calcs!S18</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R16" s="7">
         <f>Calcs!T18</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S16" s="7">
         <f>Calcs!U18</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T16" s="7">
         <f>Calcs!V18</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U16" s="7">
         <f>Calcs!W18</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V16" s="7">
         <f>Calcs!X18</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W16" s="7">
         <f>Calcs!Y18</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X16" s="7">
         <f>Calcs!Z18</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y16" s="7">
         <f>Calcs!AA18</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z16" s="7">
         <f>Calcs!AB18</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA16" s="7">
         <f>Calcs!AC18</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB16" s="7">
         <f>Calcs!AD18</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC16" s="7">
         <f>Calcs!AE18</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD16" s="7">
         <f>Calcs!AF18</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE16" s="7">
         <f>Calcs!AG18</f>
-        <v>0.83970353718125812</v>
+        <v>0.76424309180226624</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -14039,23 +14162,23 @@
       </c>
       <c r="H17" s="7">
         <f>Calcs!J19</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I17" s="7">
         <f>Calcs!K19</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J17" s="7">
         <f>Calcs!L19</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K17" s="7">
         <f>Calcs!M19</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L17" s="7">
         <f>Calcs!N19</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M17" s="7">
         <f>Calcs!O19</f>
@@ -14164,23 +14287,23 @@
       </c>
       <c r="H18" s="7">
         <f>Calcs!J20</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I18" s="7">
         <f>Calcs!K20</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J18" s="7">
         <f>Calcs!L20</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K18" s="7">
         <f>Calcs!M20</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L18" s="7">
         <f>Calcs!N20</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M18" s="7">
         <f>Calcs!O20</f>
@@ -14289,23 +14412,23 @@
       </c>
       <c r="H19" s="7">
         <f>Calcs!J21</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I19" s="7">
         <f>Calcs!K21</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J19" s="7">
         <f>Calcs!L21</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K19" s="7">
         <f>Calcs!M21</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L19" s="7">
         <f>Calcs!N21</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M19" s="7">
         <f>Calcs!O21</f>
@@ -14414,23 +14537,23 @@
       </c>
       <c r="H20" s="7">
         <f>Calcs!J22</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I20" s="7">
         <f>Calcs!K22</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J20" s="7">
         <f>Calcs!L22</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K20" s="7">
         <f>Calcs!M22</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L20" s="7">
         <f>Calcs!N22</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M20" s="7">
         <f>Calcs!O22</f>
@@ -14539,23 +14662,23 @@
       </c>
       <c r="H21" s="7">
         <f>Calcs!J23</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I21" s="7">
         <f>Calcs!K23</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J21" s="7">
         <f>Calcs!L23</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K21" s="7">
         <f>Calcs!M23</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L21" s="7">
         <f>Calcs!N23</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M21" s="7">
         <f>Calcs!O23</f>
@@ -14664,23 +14787,23 @@
       </c>
       <c r="H22" s="7">
         <f>Calcs!J24</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I22" s="7">
         <f>Calcs!K24</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J22" s="7">
         <f>Calcs!L24</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K22" s="7">
         <f>Calcs!M24</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L22" s="7">
         <f>Calcs!N24</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M22" s="7">
         <f>Calcs!O24</f>
@@ -14789,23 +14912,23 @@
       </c>
       <c r="H23" s="7">
         <f>Calcs!J25</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I23" s="7">
         <f>Calcs!K25</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J23" s="7">
         <f>Calcs!L25</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K23" s="7">
         <f>Calcs!M25</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L23" s="7">
         <f>Calcs!N25</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M23" s="7">
         <f>Calcs!O25</f>
@@ -14914,23 +15037,23 @@
       </c>
       <c r="H24" s="7">
         <f>Calcs!J26</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I24" s="7">
         <f>Calcs!K26</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J24" s="7">
         <f>Calcs!L26</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K24" s="7">
         <f>Calcs!M26</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L24" s="7">
         <f>Calcs!N26</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M24" s="7">
         <f>Calcs!O26</f>
@@ -15164,23 +15287,23 @@
       </c>
       <c r="H26" s="7">
         <f>Calcs!J28</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I26" s="7">
         <f>Calcs!K28</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J26" s="7">
         <f>Calcs!L28</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K26" s="7">
         <f>Calcs!M28</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L26" s="7">
         <f>Calcs!N28</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M26" s="7">
         <f>Calcs!O28</f>
@@ -15258,10 +15381,6 @@
         <f>Calcs!AG28</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/fuels/FoICStCT/Fraction of Industry Category Subject to Carbon Tax.xlsx
+++ b/InputData/fuels/FoICStCT/Fraction of Industry Category Subject to Carbon Tax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\fuels\FoICStCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F18C19-349B-42A1-B3FD-5C126DFCF6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD359F-0483-4955-A5F5-5D5CCE25BE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35835" yWindow="3240" windowWidth="19185" windowHeight="11265" tabRatio="636" firstSheet="2" activeTab="6" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
+    <workbookView xWindow="29370" yWindow="570" windowWidth="21600" windowHeight="12525" tabRatio="636" firstSheet="1" activeTab="4" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -456,9 +456,6 @@
     <t>Bloomberg New Energy Finance (BNEF)</t>
   </si>
   <si>
-    <t>Proprietary report - data on "ETS Projections" page</t>
-  </si>
-  <si>
     <t>ETS I Price [USD2012]</t>
   </si>
   <si>
@@ -479,6 +476,24 @@
   <si>
     <t>EU ETS Market Outlook 2H 2024</t>
   </si>
+  <si>
+    <t>Near-term projections from Reuters</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/markets/europe/analysts-expect-eu-carbon-prices-soar-by-2027-2024-10-18/</t>
+  </si>
+  <si>
+    <t>*from Reuters</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>Reuters</t>
+  </si>
+  <si>
+    <t>Analysts expect EU carbon prices to soar by 2027</t>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +508,7 @@
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="170" formatCode="[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,7 +579,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +589,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +694,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -727,6 +748,7 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1865,13 +1887,13 @@
                   <c:v>63.789062500000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.724665391969438</c:v>
+                  <c:v>73.499043977055436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.262664165103189</c:v>
+                  <c:v>86.754221388367725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.727440147329659</c:v>
+                  <c:v>102.33885819521178</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>102.31464737793851</c:v>
@@ -2068,7 +2090,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ETS Projections'!$C$57:$AE$57</c:f>
+              <c:f>'ETS Projections'!$C$62:$AE$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -3688,7 +3710,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3736,7 +3758,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>8033</xdr:rowOff>
+      <xdr:rowOff>11208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4284,23 +4306,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE5FEEC-01CE-4291-999E-35B30A1256CF}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -4313,28 +4335,28 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>40</v>
@@ -4345,28 +4367,28 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>59</v>
@@ -4377,40 +4399,40 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="10">
         <v>45052</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
         <v>63</v>
@@ -4421,29 +4443,29 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
         <v>100</v>
@@ -4454,122 +4476,138 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>94</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>0.90049000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B53" s="38">
         <v>1.1198999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="3"/>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4585,21 +4623,21 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.54296875" style="12" customWidth="1"/>
     <col min="3" max="3" width="57.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -4610,7 +4648,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4618,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4630,7 +4668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4641,7 +4679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4652,7 +4690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4663,7 +4701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4674,7 +4712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4682,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4694,7 +4732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4702,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4714,7 +4752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4722,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4733,7 +4771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4741,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4749,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4757,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4765,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4773,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4781,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4789,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4797,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4805,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -4813,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4821,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -4829,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -4853,22 +4891,22 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="43.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:33">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:33">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>2020</v>
       </c>
@@ -4963,7 +5001,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="2:33">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
         <v>91</v>
       </c>
@@ -5061,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>57</v>
       </c>
@@ -5159,12 +5197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:33">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>2020</v>
       </c>
@@ -5259,7 +5297,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="2:33">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -5388,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:33">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>57</v>
       </c>
@@ -5537,12 +5575,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>89</v>
       </c>
@@ -5556,30 +5594,30 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -5590,7 +5628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -5604,7 +5642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2</v>
       </c>
@@ -5618,7 +5656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>2</v>
       </c>
@@ -5632,7 +5670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2</v>
       </c>
@@ -5640,7 +5678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2</v>
       </c>
@@ -5648,7 +5686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>2</v>
       </c>
@@ -5656,7 +5694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>2</v>
       </c>
@@ -5664,7 +5702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>1</v>
       </c>
@@ -5672,7 +5710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>1</v>
       </c>
@@ -5680,7 +5718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>1</v>
       </c>
@@ -5688,7 +5726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>2</v>
       </c>
@@ -5696,7 +5734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>1</v>
       </c>
@@ -5704,7 +5742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>1</v>
       </c>
@@ -5712,7 +5750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>1</v>
       </c>
@@ -5720,7 +5758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>1</v>
       </c>
@@ -5728,7 +5766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>2</v>
       </c>
@@ -5736,7 +5774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>2</v>
       </c>
@@ -5744,7 +5782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>2</v>
       </c>
@@ -5752,7 +5790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>2</v>
       </c>
@@ -5760,7 +5798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>2</v>
       </c>
@@ -5768,7 +5806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>2</v>
       </c>
@@ -5776,7 +5814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>2</v>
       </c>
@@ -5784,7 +5822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2</v>
       </c>
@@ -5792,7 +5830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0</v>
       </c>
@@ -5800,7 +5838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>2</v>
       </c>
@@ -5815,20 +5853,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6696F-E709-439B-8FAB-66782F7350DF}">
-  <dimension ref="A1:AE70"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35.54296875" customWidth="1"/>
     <col min="3" max="31" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1"/>
-    <row r="2" spans="1:31">
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="15"/>
@@ -5849,7 +5887,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D3" s="18" t="s">
         <v>119</v>
       </c>
@@ -5874,7 +5912,7 @@
         <v>0.81612960000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
       <c r="F4" s="20"/>
@@ -5898,7 +5936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15" thickBot="1">
+    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
@@ -5923,7 +5961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15" thickBot="1">
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
@@ -5938,13 +5976,13 @@
       <c r="L6" s="30"/>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="9" spans="1:31" s="5" customFormat="1">
+    <row r="9" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>96</v>
       </c>
@@ -5954,19 +5992,19 @@
       <c r="G9" s="35"/>
       <c r="H9" s="36"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="19"/>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -6058,7 +6096,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>81</v>
       </c>
@@ -6150,7 +6188,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>82</v>
       </c>
@@ -6242,7 +6280,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>83</v>
       </c>
@@ -6334,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>84</v>
       </c>
@@ -6426,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>85</v>
       </c>
@@ -6518,7 +6556,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -6610,7 +6648,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>87</v>
       </c>
@@ -6702,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>88</v>
       </c>
@@ -6794,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>122</v>
       </c>
@@ -6915,7 +6953,7 @@
         <v>110.88925092289264</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="5" customFormat="1">
+    <row r="24" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
@@ -6925,13 +6963,13 @@
       <c r="G24" s="35"/>
       <c r="H24" s="36"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>2022</v>
       </c>
@@ -7020,7 +7058,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>118</v>
       </c>
@@ -7033,14 +7071,17 @@
       <c r="E28">
         <v>65.320000000000007</v>
       </c>
-      <c r="F28">
-        <v>70.840000000000032</v>
-      </c>
-      <c r="G28">
-        <v>85.56</v>
-      </c>
-      <c r="H28">
-        <v>103.96000000000001</v>
+      <c r="F28" s="43">
+        <f>F55</f>
+        <v>76.88</v>
+      </c>
+      <c r="G28" s="43">
+        <f t="shared" ref="G28:H28" si="1">G55</f>
+        <v>92.48</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" si="1"/>
+        <v>111.14</v>
       </c>
       <c r="I28">
         <v>113.16000000000001</v>
@@ -7082,7 +7123,7 @@
       <c r="AD28" s="39"/>
       <c r="AE28" s="39"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>120</v>
       </c>
@@ -7107,39 +7148,39 @@
         <v>0.9380863039399624</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ref="H29:P29" si="1">1/(1+SUM($I4:$I5)+$I6*(H27-$F27))</f>
+        <f t="shared" ref="H29:P29" si="2">1/(1+SUM($I4:$I5)+$I6*(H27-$F27))</f>
         <v>0.92081031307550643</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90415913200723319</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88809946714031962</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8726003490401395</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85763293310463129</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84317032040472184</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82918739635157546</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81566068515497558</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8025682182985554</v>
       </c>
       <c r="Q29" s="3"/>
@@ -7158,16 +7199,16 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="19">
         <f>C28*C29</f>
         <v>86.339434799999992</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:P30" si="2">D28*D29</f>
+        <f t="shared" ref="D30:P30" si="3">D28*D29</f>
         <v>85</v>
       </c>
       <c r="E30" s="19">
@@ -7176,46 +7217,46 @@
       </c>
       <c r="F30" s="19">
         <f>F28*F29</f>
-        <v>67.724665391969438</v>
+        <v>73.499043977055436</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="2"/>
-        <v>80.262664165103189</v>
+        <f t="shared" si="3"/>
+        <v>86.754221388367725</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="2"/>
-        <v>95.727440147329659</v>
+        <f t="shared" si="3"/>
+        <v>102.33885819521178</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102.31464737793851</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115.20426287744226</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>126.84118673647468</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133.36052658215647</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134.58767739188337</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134.56255154707881</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138.80097879282221</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141.7063222183987</v>
       </c>
       <c r="Q30" s="39">
@@ -7223,120 +7264,120 @@
         <v>146.64136826580562</v>
       </c>
       <c r="R30" s="39">
-        <f t="shared" ref="R30:AE30" si="3">R31/$S3</f>
+        <f t="shared" ref="R30:AE30" si="4">R31/$S3</f>
         <v>151.34141212047891</v>
       </c>
       <c r="S30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156.04145597515216</v>
       </c>
       <c r="T30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160.74149982982544</v>
       </c>
       <c r="U30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>165.44154368449873</v>
       </c>
       <c r="V30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>170.14158753917195</v>
       </c>
       <c r="W30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>174.84163139384518</v>
       </c>
       <c r="X30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>179.54167524851843</v>
       </c>
       <c r="Y30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184.24171910319166</v>
       </c>
       <c r="Z30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189.17676515059858</v>
       </c>
       <c r="AA30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>193.87680900527187</v>
       </c>
       <c r="AB30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>198.57685285994512</v>
       </c>
       <c r="AC30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>203.27689671461837</v>
       </c>
       <c r="AD30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>207.97694056929163</v>
       </c>
       <c r="AE30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212.67698442396488</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="39">
         <f>C30*$S3</f>
         <v>70.464168387550075</v>
       </c>
       <c r="D31" s="39">
-        <f t="shared" ref="D31:P31" si="4">D30*$S3</f>
+        <f t="shared" ref="D31:P31" si="5">D30*$S3</f>
         <v>69.371015999999997</v>
       </c>
       <c r="E31" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.060142062500006</v>
       </c>
       <c r="F31" s="39">
-        <f t="shared" si="4"/>
-        <v>55.27210407648186</v>
+        <f t="shared" si="5"/>
+        <v>59.98474536137666</v>
       </c>
       <c r="G31" s="39">
-        <f t="shared" si="4"/>
-        <v>65.504735999999994</v>
+        <f t="shared" si="5"/>
+        <v>70.802688000000003</v>
       </c>
       <c r="H31" s="39">
-        <f t="shared" si="4"/>
-        <v>78.125997436464104</v>
+        <f t="shared" si="5"/>
+        <v>83.521771403314915</v>
       </c>
       <c r="I31" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.502012238698015</v>
       </c>
       <c r="J31" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94.021608980461806</v>
       </c>
       <c r="K31" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.51884699476439</v>
       </c>
       <c r="L31" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108.83947321528473</v>
       </c>
       <c r="M31" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109.84098731476682</v>
       </c>
       <c r="N31" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109.82048136909681</v>
       </c>
       <c r="O31" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113.27958730179448</v>
       </c>
       <c r="P31" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.65072406957285</v>
       </c>
       <c r="Q31" s="39">
@@ -7344,1488 +7385,1534 @@
         <v>119.67836122622464</v>
       </c>
       <c r="R31" s="39">
-        <f t="shared" ref="R31:AE31" si="5">Q31*R13/Q13</f>
+        <f t="shared" ref="R31:AE31" si="6">Q31*R13/Q13</f>
         <v>123.51420613732159</v>
       </c>
       <c r="S31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>127.35005104841855</v>
       </c>
       <c r="T31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131.18589595951551</v>
       </c>
       <c r="U31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>135.02174087061246</v>
       </c>
       <c r="V31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138.85758578170939</v>
       </c>
       <c r="W31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>142.69343069280632</v>
       </c>
       <c r="X31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>146.52927560390324</v>
       </c>
       <c r="Y31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150.36512051500017</v>
       </c>
       <c r="Z31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>154.39275767165196</v>
       </c>
       <c r="AA31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158.22860258274892</v>
       </c>
       <c r="AB31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>162.06444749384588</v>
       </c>
       <c r="AC31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165.9002924049428</v>
       </c>
       <c r="AD31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>169.73613731603976</v>
       </c>
       <c r="AE31" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>173.57198222713669</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="F32" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" t="s">
         <v>131</v>
       </c>
-      <c r="F50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" s="6" customFormat="1">
-      <c r="A52" s="6" t="s">
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54">
+        <v>2023</v>
+      </c>
+      <c r="E54">
+        <v>2024</v>
+      </c>
+      <c r="F54">
+        <v>2025</v>
+      </c>
+      <c r="G54">
+        <v>2026</v>
+      </c>
+      <c r="H54">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>76.88</v>
+      </c>
+      <c r="G55">
+        <v>92.48</v>
+      </c>
+      <c r="H55">
+        <v>111.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
-      <c r="B55" t="s">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
         <v>80</v>
       </c>
-      <c r="C55">
+      <c r="C60">
         <v>2022</v>
       </c>
-      <c r="D55">
+      <c r="D60">
         <v>2023</v>
       </c>
-      <c r="E55">
+      <c r="E60">
         <v>2024</v>
       </c>
-      <c r="F55">
+      <c r="F60">
         <v>2025</v>
       </c>
-      <c r="G55">
+      <c r="G60">
         <v>2026</v>
       </c>
-      <c r="H55">
+      <c r="H60">
         <v>2027</v>
       </c>
-      <c r="I55">
+      <c r="I60">
         <v>2028</v>
       </c>
-      <c r="J55">
+      <c r="J60">
         <v>2029</v>
       </c>
-      <c r="K55">
+      <c r="K60">
         <v>2030</v>
       </c>
-      <c r="L55">
+      <c r="L60">
         <v>2031</v>
       </c>
-      <c r="M55">
+      <c r="M60">
         <v>2032</v>
       </c>
-      <c r="N55">
+      <c r="N60">
         <v>2033</v>
       </c>
-      <c r="O55">
+      <c r="O60">
         <v>2034</v>
       </c>
-      <c r="P55">
+      <c r="P60">
         <v>2035</v>
       </c>
-      <c r="Q55">
+      <c r="Q60">
         <v>2036</v>
       </c>
-      <c r="R55">
+      <c r="R60">
         <v>2037</v>
       </c>
-      <c r="S55">
+      <c r="S60">
         <v>2038</v>
       </c>
-      <c r="T55">
+      <c r="T60">
         <v>2039</v>
       </c>
-      <c r="U55">
+      <c r="U60">
         <v>2040</v>
       </c>
-      <c r="V55">
+      <c r="V60">
         <v>2041</v>
       </c>
-      <c r="W55">
+      <c r="W60">
         <v>2042</v>
       </c>
-      <c r="X55">
+      <c r="X60">
         <v>2043</v>
       </c>
-      <c r="Y55">
+      <c r="Y60">
         <v>2044</v>
       </c>
-      <c r="Z55">
+      <c r="Z60">
         <v>2045</v>
       </c>
-      <c r="AA55">
+      <c r="AA60">
         <v>2046</v>
       </c>
-      <c r="AB55">
+      <c r="AB60">
         <v>2047</v>
       </c>
-      <c r="AC55">
+      <c r="AC60">
         <v>2048</v>
       </c>
-      <c r="AD55">
+      <c r="AD60">
         <v>2049</v>
       </c>
-      <c r="AE55">
+      <c r="AE60">
         <v>2050</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
-      <c r="B56" t="s">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" s="42">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="42">
         <v>50</v>
       </c>
-      <c r="I56" s="42">
-        <f>H56+25</f>
+      <c r="I61" s="42">
+        <f>H61+25</f>
         <v>75</v>
       </c>
-      <c r="J56" s="42">
-        <f t="shared" ref="J56:U56" si="6">I56+25</f>
+      <c r="J61" s="42">
+        <f t="shared" ref="J61:U61" si="7">I61+25</f>
         <v>100</v>
       </c>
-      <c r="K56" s="42">
-        <f t="shared" si="6"/>
+      <c r="K61" s="42">
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="L56" s="42">
-        <f t="shared" si="6"/>
+      <c r="L61" s="42">
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="M56" s="42">
-        <f t="shared" si="6"/>
+      <c r="M61" s="42">
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
-      <c r="N56" s="42">
-        <f t="shared" si="6"/>
+      <c r="N61" s="42">
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O56" s="42">
-        <f t="shared" si="6"/>
+      <c r="O61" s="42">
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="P56" s="42">
-        <f t="shared" si="6"/>
+      <c r="P61" s="42">
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
-      <c r="Q56" s="42">
-        <f t="shared" si="6"/>
+      <c r="Q61" s="42">
+        <f t="shared" si="7"/>
         <v>275</v>
       </c>
-      <c r="R56" s="42">
-        <f t="shared" si="6"/>
+      <c r="R61" s="42">
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="S56" s="42">
-        <f t="shared" si="6"/>
+      <c r="S61" s="42">
+        <f t="shared" si="7"/>
         <v>325</v>
       </c>
-      <c r="T56" s="42">
-        <f t="shared" si="6"/>
+      <c r="T61" s="42">
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
-      <c r="U56" s="42">
-        <f t="shared" si="6"/>
+      <c r="U61" s="42">
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
-      <c r="V56" s="42">
-        <f>U56+15</f>
+      <c r="V61" s="42">
+        <f>U61+15</f>
         <v>390</v>
       </c>
-      <c r="W56" s="42">
-        <f t="shared" ref="W56:Z56" si="7">V56+15</f>
+      <c r="W61" s="42">
+        <f t="shared" ref="W61:Z61" si="8">V61+15</f>
         <v>405</v>
       </c>
-      <c r="X56" s="42">
-        <f t="shared" si="7"/>
+      <c r="X61" s="42">
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
-      <c r="Y56" s="42">
-        <f t="shared" si="7"/>
+      <c r="Y61" s="42">
+        <f t="shared" si="8"/>
         <v>435</v>
       </c>
-      <c r="Z56" s="42">
-        <f t="shared" si="7"/>
+      <c r="Z61" s="42">
+        <f t="shared" si="8"/>
         <v>450</v>
       </c>
-      <c r="AA56" s="42">
-        <f>Z56+5</f>
+      <c r="AA61" s="42">
+        <f>Z61+5</f>
         <v>455</v>
       </c>
-      <c r="AB56" s="42">
-        <f t="shared" ref="AB56:AE56" si="8">AA56+5</f>
+      <c r="AB61" s="42">
+        <f t="shared" ref="AB61:AE61" si="9">AA61+5</f>
         <v>460</v>
       </c>
-      <c r="AC56" s="42">
-        <f t="shared" si="8"/>
+      <c r="AC61" s="42">
+        <f t="shared" si="9"/>
         <v>465</v>
       </c>
-      <c r="AD56" s="42">
-        <f t="shared" si="8"/>
+      <c r="AD61" s="42">
+        <f t="shared" si="9"/>
         <v>470</v>
       </c>
-      <c r="AE56" s="42">
-        <f t="shared" si="8"/>
+      <c r="AE61" s="42">
+        <f t="shared" si="9"/>
         <v>475</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
-      <c r="B57" t="s">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
         <v>124</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" s="42">
-        <f>H56/(1+0.02)^(H55-$D55)</f>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="42">
+        <f>H61/(1+0.02)^(H60-$D60)</f>
         <v>46.192271301325711</v>
       </c>
-      <c r="I57" s="42">
-        <f t="shared" ref="I57:AD57" si="9">I56/(1+0.02)^(I55-$D55)</f>
+      <c r="I62" s="42">
+        <f t="shared" ref="I62:AD62" si="10">I61/(1+0.02)^(I60-$D60)</f>
         <v>67.929810737243685</v>
       </c>
-      <c r="J57" s="42">
-        <f t="shared" si="9"/>
+      <c r="J62" s="42">
+        <f t="shared" si="10"/>
         <v>88.797138218619196</v>
       </c>
-      <c r="K57" s="42">
-        <f t="shared" si="9"/>
+      <c r="K62" s="42">
+        <f t="shared" si="10"/>
         <v>108.82002232673923</v>
       </c>
-      <c r="L57" s="42">
-        <f t="shared" si="9"/>
+      <c r="L62" s="42">
+        <f t="shared" si="10"/>
         <v>128.02355567851674</v>
       </c>
-      <c r="M57" s="42">
-        <f t="shared" si="9"/>
+      <c r="M62" s="42">
+        <f t="shared" si="10"/>
         <v>146.43217152771521</v>
       </c>
-      <c r="N57" s="42">
-        <f t="shared" si="9"/>
+      <c r="N62" s="42">
+        <f t="shared" si="10"/>
         <v>164.06965997503107</v>
       </c>
-      <c r="O57" s="42">
-        <f t="shared" si="9"/>
+      <c r="O62" s="42">
+        <f t="shared" si="10"/>
         <v>180.95918379599019</v>
       </c>
-      <c r="P57" s="42">
-        <f t="shared" si="9"/>
+      <c r="P62" s="42">
+        <f t="shared" si="10"/>
         <v>197.12329389541409</v>
       </c>
-      <c r="Q57" s="42">
-        <f t="shared" si="9"/>
+      <c r="Q62" s="42">
+        <f t="shared" si="10"/>
         <v>212.58394439701522</v>
       </c>
-      <c r="R57" s="42">
-        <f t="shared" si="9"/>
+      <c r="R62" s="42">
+        <f t="shared" si="10"/>
         <v>227.36250737648683</v>
       </c>
-      <c r="S57" s="42">
-        <f t="shared" si="9"/>
+      <c r="S62" s="42">
+        <f t="shared" si="10"/>
         <v>241.47978724626876</v>
       </c>
-      <c r="T57" s="42">
-        <f t="shared" si="9"/>
+      <c r="T62" s="42">
+        <f t="shared" si="10"/>
         <v>254.95603479998206</v>
       </c>
-      <c r="U57" s="42">
-        <f t="shared" si="9"/>
+      <c r="U62" s="42">
+        <f t="shared" si="10"/>
         <v>267.81096092435087</v>
       </c>
-      <c r="V57" s="42">
-        <f t="shared" si="9"/>
+      <c r="V62" s="42">
+        <f t="shared" si="10"/>
         <v>273.06215623659307</v>
       </c>
-      <c r="W57" s="42">
-        <f t="shared" si="9"/>
+      <c r="W62" s="42">
+        <f t="shared" si="10"/>
         <v>278.00445770693869</v>
       </c>
-      <c r="X57" s="42">
-        <f t="shared" si="9"/>
+      <c r="X62" s="42">
+        <f t="shared" si="10"/>
         <v>282.64795990538425</v>
       </c>
-      <c r="Y57" s="42">
-        <f t="shared" si="9"/>
+      <c r="Y62" s="42">
+        <f t="shared" si="10"/>
         <v>287.00248029608349</v>
       </c>
-      <c r="Z57" s="42">
-        <f t="shared" si="9"/>
+      <c r="Z62" s="42">
+        <f t="shared" si="10"/>
         <v>291.07756622320835</v>
       </c>
-      <c r="AA57" s="42">
-        <f t="shared" si="9"/>
+      <c r="AA62" s="42">
+        <f t="shared" si="10"/>
         <v>288.54094255241796</v>
       </c>
-      <c r="AB57" s="42">
-        <f t="shared" si="9"/>
+      <c r="AB62" s="42">
+        <f t="shared" si="10"/>
         <v>285.99188445186866</v>
       </c>
-      <c r="AC57" s="42">
-        <f t="shared" si="9"/>
+      <c r="AC62" s="42">
+        <f t="shared" si="10"/>
         <v>283.43185479564988</v>
       </c>
-      <c r="AD57" s="42">
-        <f t="shared" si="9"/>
+      <c r="AD62" s="42">
+        <f t="shared" si="10"/>
         <v>280.86226387087379</v>
       </c>
-      <c r="AE57" s="42">
-        <f>AE56/(1+0.02)^(AE55-$D55)</f>
+      <c r="AE62" s="42">
+        <f>AE61/(1+0.02)^(AE60-$D60)</f>
         <v>278.28447087748242</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
-      <c r="B58" t="s">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="40">
-        <f>C57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="40">
-        <f>D57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="40">
-        <f>E57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="40">
-        <f>F57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="40">
-        <f>G57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="40">
-        <f t="shared" ref="H58:AE58" si="10">H57*$S3</f>
+      <c r="C63" s="40">
+        <f>C62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="40">
+        <f>D62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="40">
+        <f>E62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="40">
+        <f>F62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="40">
+        <f>G62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="40">
+        <f t="shared" ref="H63:AE63" si="11">H62*$S3</f>
         <v>37.698879900242432</v>
       </c>
-      <c r="I58" s="40">
-        <f t="shared" si="10"/>
+      <c r="I63" s="40">
+        <f t="shared" si="11"/>
         <v>55.439529265062397</v>
       </c>
-      <c r="J58" s="40">
-        <f t="shared" si="10"/>
+      <c r="J63" s="40">
+        <f t="shared" si="11"/>
         <v>72.469972895506402</v>
       </c>
-      <c r="K58" s="40">
-        <f t="shared" si="10"/>
+      <c r="K63" s="40">
+        <f t="shared" si="11"/>
         <v>88.811241293512765</v>
       </c>
-      <c r="L58" s="40">
-        <f t="shared" si="10"/>
+      <c r="L63" s="40">
+        <f t="shared" si="11"/>
         <v>104.4838132864856</v>
       </c>
-      <c r="M58" s="40">
-        <f t="shared" si="10"/>
+      <c r="M63" s="40">
+        <f t="shared" si="11"/>
         <v>119.5076295760456</v>
       </c>
-      <c r="N58" s="40">
-        <f t="shared" si="10"/>
+      <c r="N63" s="40">
+        <f t="shared" si="11"/>
         <v>133.90210596755813</v>
       </c>
-      <c r="O58" s="40">
-        <f t="shared" si="10"/>
+      <c r="O63" s="40">
+        <f t="shared" si="11"/>
         <v>147.68614628774796</v>
       </c>
-      <c r="P58" s="40">
-        <f t="shared" si="10"/>
+      <c r="P63" s="40">
+        <f t="shared" si="11"/>
         <v>160.87815499754674</v>
       </c>
-      <c r="Q58" s="40">
-        <f t="shared" si="10"/>
+      <c r="Q63" s="40">
+        <f t="shared" si="11"/>
         <v>173.49604950715826</v>
       </c>
-      <c r="R58" s="40">
-        <f t="shared" si="10"/>
+      <c r="R63" s="40">
+        <f t="shared" si="11"/>
         <v>185.55727220016925</v>
       </c>
-      <c r="S58" s="40">
-        <f t="shared" si="10"/>
+      <c r="S63" s="40">
+        <f t="shared" si="11"/>
         <v>197.07880217338243</v>
       </c>
-      <c r="T58" s="40">
-        <f t="shared" si="10"/>
+      <c r="T63" s="40">
+        <f t="shared" si="11"/>
         <v>208.07716669889544</v>
       </c>
-      <c r="U58" s="40">
-        <f t="shared" si="10"/>
+      <c r="U63" s="40">
+        <f t="shared" si="11"/>
         <v>218.5684524148061</v>
       </c>
-      <c r="V58" s="40">
-        <f t="shared" si="10"/>
+      <c r="V63" s="40">
+        <f t="shared" si="11"/>
         <v>222.85410834450821</v>
       </c>
-      <c r="W58" s="40">
-        <f t="shared" si="10"/>
+      <c r="W63" s="40">
+        <f t="shared" si="11"/>
         <v>226.88766686658079</v>
       </c>
-      <c r="X58" s="40">
-        <f t="shared" si="10"/>
+      <c r="X63" s="40">
+        <f t="shared" si="11"/>
         <v>230.6773664583973</v>
       </c>
-      <c r="Y58" s="40">
-        <f t="shared" si="10"/>
+      <c r="Y63" s="40">
+        <f t="shared" si="11"/>
         <v>234.23121944305049</v>
       </c>
-      <c r="Z58" s="40">
-        <f t="shared" si="10"/>
+      <c r="Z63" s="40">
+        <f t="shared" si="11"/>
         <v>237.55701769072056</v>
       </c>
-      <c r="AA58" s="40">
-        <f t="shared" si="10"/>
+      <c r="AA63" s="40">
+        <f t="shared" si="11"/>
         <v>235.48680402892785</v>
       </c>
-      <c r="AB58" s="40">
-        <f t="shared" si="10"/>
+      <c r="AB63" s="40">
+        <f t="shared" si="11"/>
         <v>233.4064422609498</v>
       </c>
-      <c r="AC58" s="40">
-        <f t="shared" si="10"/>
+      <c r="AC63" s="40">
+        <f t="shared" si="11"/>
         <v>231.31712628163183</v>
       </c>
-      <c r="AD58" s="40">
-        <f t="shared" si="10"/>
+      <c r="AD63" s="40">
+        <f t="shared" si="11"/>
         <v>229.22000706803067</v>
       </c>
-      <c r="AE58" s="40">
-        <f t="shared" si="10"/>
+      <c r="AE63" s="40">
+        <f t="shared" si="11"/>
         <v>227.11619390345138</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-    </row>
-    <row r="60" spans="1:31" s="6" customFormat="1">
-      <c r="A60" s="6" t="s">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="19"/>
+      <c r="AB64" s="19"/>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="19"/>
+      <c r="AE64" s="19"/>
+    </row>
+    <row r="65" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
-      <c r="B62" t="s">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
         <v>80</v>
       </c>
-      <c r="C62">
+      <c r="C67">
         <v>2022</v>
       </c>
-      <c r="D62">
+      <c r="D67">
         <v>2023</v>
       </c>
-      <c r="E62">
+      <c r="E67">
         <v>2024</v>
       </c>
-      <c r="F62">
+      <c r="F67">
         <v>2025</v>
       </c>
-      <c r="G62">
+      <c r="G67">
         <v>2026</v>
       </c>
-      <c r="H62">
+      <c r="H67">
         <v>2027</v>
       </c>
-      <c r="I62">
+      <c r="I67">
         <v>2028</v>
       </c>
-      <c r="J62">
+      <c r="J67">
         <v>2029</v>
       </c>
-      <c r="K62">
+      <c r="K67">
         <v>2030</v>
       </c>
-      <c r="L62">
+      <c r="L67">
         <v>2031</v>
       </c>
-      <c r="M62">
+      <c r="M67">
         <v>2032</v>
       </c>
-      <c r="N62">
+      <c r="N67">
         <v>2033</v>
       </c>
-      <c r="O62">
+      <c r="O67">
         <v>2034</v>
       </c>
-      <c r="P62">
+      <c r="P67">
         <v>2035</v>
       </c>
-      <c r="Q62">
+      <c r="Q67">
         <v>2036</v>
       </c>
-      <c r="R62">
+      <c r="R67">
         <v>2037</v>
       </c>
-      <c r="S62">
+      <c r="S67">
         <v>2038</v>
       </c>
-      <c r="T62">
+      <c r="T67">
         <v>2039</v>
       </c>
-      <c r="U62">
+      <c r="U67">
         <v>2040</v>
       </c>
-      <c r="V62">
+      <c r="V67">
         <v>2041</v>
       </c>
-      <c r="W62">
+      <c r="W67">
         <v>2042</v>
       </c>
-      <c r="X62">
+      <c r="X67">
         <v>2043</v>
       </c>
-      <c r="Y62">
+      <c r="Y67">
         <v>2044</v>
       </c>
-      <c r="Z62">
+      <c r="Z67">
         <v>2045</v>
       </c>
-      <c r="AA62">
+      <c r="AA67">
         <v>2046</v>
       </c>
-      <c r="AB62">
+      <c r="AB67">
         <v>2047</v>
       </c>
-      <c r="AC62">
+      <c r="AC67">
         <v>2048</v>
       </c>
-      <c r="AD62">
+      <c r="AD67">
         <v>2049</v>
       </c>
-      <c r="AE62">
+      <c r="AE67">
         <v>2050</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
-      <c r="B63" t="s">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="31">
-        <f t="shared" ref="C63:AE63" si="11">C22</f>
+      <c r="C68" s="31">
+        <f t="shared" ref="C68:AE68" si="12">C22</f>
         <v>43.130404778848849</v>
       </c>
-      <c r="D63" s="31">
-        <f t="shared" si="11"/>
+      <c r="D68" s="31">
+        <f t="shared" si="12"/>
         <v>43.130404778848849</v>
       </c>
-      <c r="E63" s="31">
-        <f t="shared" si="11"/>
+      <c r="E68" s="31">
+        <f t="shared" si="12"/>
         <v>43.130404778848849</v>
       </c>
-      <c r="F63" s="31">
-        <f t="shared" si="11"/>
+      <c r="F68" s="31">
+        <f t="shared" si="12"/>
         <v>43.130404778848849</v>
       </c>
-      <c r="G63" s="31">
-        <f t="shared" si="11"/>
+      <c r="G68" s="31">
+        <f t="shared" si="12"/>
         <v>46.806291549773469</v>
       </c>
-      <c r="H63" s="31">
-        <f t="shared" si="11"/>
+      <c r="H68" s="31">
+        <f t="shared" si="12"/>
         <v>50.48217832069809</v>
       </c>
-      <c r="I63" s="31">
-        <f t="shared" si="11"/>
+      <c r="I68" s="31">
+        <f t="shared" si="12"/>
         <v>54.280594650653519</v>
       </c>
-      <c r="J63" s="31">
-        <f t="shared" si="11"/>
+      <c r="J68" s="31">
+        <f t="shared" si="12"/>
         <v>57.95648142157814</v>
       </c>
-      <c r="K63" s="31">
-        <f t="shared" si="11"/>
+      <c r="K68" s="31">
+        <f t="shared" si="12"/>
         <v>61.632368192502753</v>
       </c>
-      <c r="L63" s="31">
-        <f t="shared" si="11"/>
+      <c r="L68" s="31">
+        <f t="shared" si="12"/>
         <v>64.082959373119166</v>
       </c>
-      <c r="M63" s="31">
-        <f t="shared" si="11"/>
+      <c r="M68" s="31">
+        <f t="shared" si="12"/>
         <v>66.53355055373558</v>
       </c>
-      <c r="N63" s="31">
-        <f t="shared" si="11"/>
+      <c r="N68" s="31">
+        <f t="shared" si="12"/>
         <v>68.984141734351994</v>
       </c>
-      <c r="O63" s="31">
-        <f t="shared" si="11"/>
+      <c r="O68" s="31">
+        <f t="shared" si="12"/>
         <v>71.434732914968407</v>
       </c>
-      <c r="P63" s="31">
-        <f t="shared" si="11"/>
+      <c r="P68" s="31">
+        <f t="shared" si="12"/>
         <v>73.885324095584821</v>
       </c>
-      <c r="Q63" s="31">
-        <f t="shared" si="11"/>
+      <c r="Q68" s="31">
+        <f t="shared" si="12"/>
         <v>76.458444835232044</v>
       </c>
-      <c r="R63" s="31">
-        <f t="shared" si="11"/>
+      <c r="R68" s="31">
+        <f t="shared" si="12"/>
         <v>78.909036015848471</v>
       </c>
-      <c r="S63" s="31">
-        <f t="shared" si="11"/>
+      <c r="S68" s="31">
+        <f t="shared" si="12"/>
         <v>81.359627196464885</v>
       </c>
-      <c r="T63" s="31">
-        <f t="shared" si="11"/>
+      <c r="T68" s="31">
+        <f t="shared" si="12"/>
         <v>83.810218377081299</v>
       </c>
-      <c r="U63" s="31">
-        <f t="shared" si="11"/>
+      <c r="U68" s="31">
+        <f t="shared" si="12"/>
         <v>86.260809557697698</v>
       </c>
-      <c r="V63" s="31">
-        <f t="shared" si="11"/>
+      <c r="V68" s="31">
+        <f t="shared" si="12"/>
         <v>88.711400738314111</v>
       </c>
-      <c r="W63" s="31">
-        <f t="shared" si="11"/>
+      <c r="W68" s="31">
+        <f t="shared" si="12"/>
         <v>91.161991918930525</v>
       </c>
-      <c r="X63" s="31">
-        <f t="shared" si="11"/>
+      <c r="X68" s="31">
+        <f t="shared" si="12"/>
         <v>93.612583099546939</v>
       </c>
-      <c r="Y63" s="31">
-        <f t="shared" si="11"/>
+      <c r="Y68" s="31">
+        <f t="shared" si="12"/>
         <v>96.063174280163352</v>
       </c>
-      <c r="Z63" s="31">
-        <f t="shared" si="11"/>
+      <c r="Z68" s="31">
+        <f t="shared" si="12"/>
         <v>98.636295019810575</v>
       </c>
-      <c r="AA63" s="31">
-        <f t="shared" si="11"/>
+      <c r="AA68" s="31">
+        <f t="shared" si="12"/>
         <v>101.08688620042699</v>
       </c>
-      <c r="AB63" s="31">
-        <f t="shared" si="11"/>
+      <c r="AB68" s="31">
+        <f t="shared" si="12"/>
         <v>103.5374773810434</v>
       </c>
-      <c r="AC63" s="31">
-        <f t="shared" si="11"/>
+      <c r="AC68" s="31">
+        <f t="shared" si="12"/>
         <v>105.98806856165982</v>
       </c>
-      <c r="AD63" s="31">
-        <f t="shared" si="11"/>
+      <c r="AD68" s="31">
+        <f t="shared" si="12"/>
         <v>108.43865974227623</v>
       </c>
-      <c r="AE63" s="31">
-        <f t="shared" si="11"/>
+      <c r="AE68" s="31">
+        <f t="shared" si="12"/>
         <v>110.88925092289264</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
-      <c r="B64" t="s">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="41">
-        <f t="shared" ref="C64:AE64" si="12">MAX(C57,C30)</f>
+      <c r="C69" s="41">
+        <f t="shared" ref="C69:AE69" si="13">MAX(C62,C30)</f>
         <v>86.339434799999992</v>
       </c>
-      <c r="D64" s="41">
-        <f t="shared" si="12"/>
+      <c r="D69" s="41">
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="E64" s="41">
-        <f t="shared" si="12"/>
+      <c r="E69" s="41">
+        <f t="shared" si="13"/>
         <v>63.789062500000007</v>
       </c>
-      <c r="F64" s="41">
-        <f t="shared" si="12"/>
-        <v>67.724665391969438</v>
-      </c>
-      <c r="G64" s="41">
-        <f t="shared" si="12"/>
-        <v>80.262664165103189</v>
-      </c>
-      <c r="H64" s="41">
-        <f>MAX(H57,H30)</f>
-        <v>95.727440147329659</v>
-      </c>
-      <c r="I64" s="41">
-        <f t="shared" si="12"/>
+      <c r="F69" s="41">
+        <f t="shared" si="13"/>
+        <v>73.499043977055436</v>
+      </c>
+      <c r="G69" s="41">
+        <f t="shared" si="13"/>
+        <v>86.754221388367725</v>
+      </c>
+      <c r="H69" s="41">
+        <f>MAX(H62,H30)</f>
+        <v>102.33885819521178</v>
+      </c>
+      <c r="I69" s="41">
+        <f t="shared" si="13"/>
         <v>102.31464737793851</v>
       </c>
-      <c r="J64" s="41">
-        <f t="shared" si="12"/>
+      <c r="J69" s="41">
+        <f t="shared" si="13"/>
         <v>115.20426287744226</v>
       </c>
-      <c r="K64" s="41">
-        <f t="shared" si="12"/>
+      <c r="K69" s="41">
+        <f t="shared" si="13"/>
         <v>126.84118673647468</v>
       </c>
-      <c r="L64" s="41">
-        <f t="shared" si="12"/>
+      <c r="L69" s="41">
+        <f t="shared" si="13"/>
         <v>133.36052658215647</v>
       </c>
-      <c r="M64" s="41">
-        <f t="shared" si="12"/>
+      <c r="M69" s="41">
+        <f t="shared" si="13"/>
         <v>146.43217152771521</v>
       </c>
-      <c r="N64" s="41">
-        <f t="shared" si="12"/>
+      <c r="N69" s="41">
+        <f t="shared" si="13"/>
         <v>164.06965997503107</v>
       </c>
-      <c r="O64" s="41">
-        <f t="shared" si="12"/>
+      <c r="O69" s="41">
+        <f t="shared" si="13"/>
         <v>180.95918379599019</v>
       </c>
-      <c r="P64" s="41">
-        <f t="shared" si="12"/>
+      <c r="P69" s="41">
+        <f t="shared" si="13"/>
         <v>197.12329389541409</v>
       </c>
-      <c r="Q64" s="41">
-        <f t="shared" si="12"/>
+      <c r="Q69" s="41">
+        <f t="shared" si="13"/>
         <v>212.58394439701522</v>
       </c>
-      <c r="R64" s="41">
-        <f t="shared" si="12"/>
+      <c r="R69" s="41">
+        <f t="shared" si="13"/>
         <v>227.36250737648683</v>
       </c>
-      <c r="S64" s="41">
-        <f t="shared" si="12"/>
+      <c r="S69" s="41">
+        <f t="shared" si="13"/>
         <v>241.47978724626876</v>
       </c>
-      <c r="T64" s="41">
-        <f t="shared" si="12"/>
+      <c r="T69" s="41">
+        <f t="shared" si="13"/>
         <v>254.95603479998206</v>
       </c>
-      <c r="U64" s="41">
-        <f t="shared" si="12"/>
+      <c r="U69" s="41">
+        <f t="shared" si="13"/>
         <v>267.81096092435087</v>
       </c>
-      <c r="V64" s="41">
-        <f t="shared" si="12"/>
+      <c r="V69" s="41">
+        <f t="shared" si="13"/>
         <v>273.06215623659307</v>
       </c>
-      <c r="W64" s="41">
-        <f t="shared" si="12"/>
+      <c r="W69" s="41">
+        <f t="shared" si="13"/>
         <v>278.00445770693869</v>
       </c>
-      <c r="X64" s="41">
-        <f t="shared" si="12"/>
+      <c r="X69" s="41">
+        <f t="shared" si="13"/>
         <v>282.64795990538425</v>
       </c>
-      <c r="Y64" s="41">
-        <f t="shared" si="12"/>
+      <c r="Y69" s="41">
+        <f t="shared" si="13"/>
         <v>287.00248029608349</v>
       </c>
-      <c r="Z64" s="41">
-        <f t="shared" si="12"/>
+      <c r="Z69" s="41">
+        <f t="shared" si="13"/>
         <v>291.07756622320835</v>
       </c>
-      <c r="AA64" s="41">
-        <f t="shared" si="12"/>
+      <c r="AA69" s="41">
+        <f t="shared" si="13"/>
         <v>288.54094255241796</v>
       </c>
-      <c r="AB64" s="41">
-        <f t="shared" si="12"/>
+      <c r="AB69" s="41">
+        <f t="shared" si="13"/>
         <v>285.99188445186866</v>
       </c>
-      <c r="AC64" s="41">
-        <f t="shared" si="12"/>
+      <c r="AC69" s="41">
+        <f t="shared" si="13"/>
         <v>283.43185479564988</v>
       </c>
-      <c r="AD64" s="41">
-        <f t="shared" si="12"/>
+      <c r="AD69" s="41">
+        <f t="shared" si="13"/>
         <v>280.86226387087379</v>
       </c>
-      <c r="AE64" s="41">
-        <f t="shared" si="12"/>
+      <c r="AE69" s="41">
+        <f t="shared" si="13"/>
         <v>278.28447087748242</v>
       </c>
     </row>
-    <row r="65" spans="2:31">
-      <c r="B65" t="s">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
         <v>104</v>
       </c>
-      <c r="C65">
-        <f t="shared" ref="C65:AE65" si="13">C30/C64</f>
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="13"/>
+      <c r="C70">
+        <f t="shared" ref="C70:AE70" si="14">C30/C69</f>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="14"/>
         <v>0.91911276045243906</v>
       </c>
-      <c r="N65">
-        <f t="shared" si="13"/>
+      <c r="N70">
+        <f t="shared" si="14"/>
         <v>0.82015499738072961</v>
       </c>
-      <c r="O65">
-        <f t="shared" si="13"/>
+      <c r="O70">
+        <f t="shared" si="14"/>
         <v>0.76702920449344913</v>
       </c>
-      <c r="P65">
-        <f t="shared" si="13"/>
+      <c r="P70">
+        <f t="shared" si="14"/>
         <v>0.71887152156448098</v>
       </c>
-      <c r="Q65" s="41">
-        <f t="shared" si="13"/>
+      <c r="Q70" s="41">
+        <f t="shared" si="14"/>
         <v>0.68980453195441105</v>
       </c>
-      <c r="R65">
-        <f t="shared" si="13"/>
+      <c r="R70">
+        <f t="shared" si="14"/>
         <v>0.66563926421639297</v>
       </c>
-      <c r="S65">
-        <f t="shared" si="13"/>
+      <c r="S70">
+        <f t="shared" si="14"/>
         <v>0.64618847711678717</v>
       </c>
-      <c r="T65">
-        <f t="shared" si="13"/>
+      <c r="T70">
+        <f t="shared" si="14"/>
         <v>0.6304675233748841</v>
       </c>
-      <c r="U65">
-        <f t="shared" si="13"/>
+      <c r="U70">
+        <f t="shared" si="14"/>
         <v>0.61775493845911467</v>
       </c>
-      <c r="V65">
-        <f t="shared" si="13"/>
+      <c r="V70">
+        <f t="shared" si="14"/>
         <v>0.62308739476792896</v>
       </c>
-      <c r="W65">
-        <f t="shared" si="13"/>
+      <c r="W70">
+        <f t="shared" si="14"/>
         <v>0.62891664700627326</v>
       </c>
-      <c r="X65">
-        <f t="shared" si="13"/>
+      <c r="X70">
+        <f t="shared" si="14"/>
         <v>0.63521305905982683</v>
       </c>
-      <c r="Y65">
-        <f t="shared" si="13"/>
+      <c r="Y70">
+        <f t="shared" si="14"/>
         <v>0.641951661578396</v>
       </c>
-      <c r="Z65">
-        <f t="shared" si="13"/>
+      <c r="Z70">
+        <f t="shared" si="14"/>
         <v>0.64991874023548524</v>
       </c>
-      <c r="AA65">
-        <f t="shared" si="13"/>
+      <c r="AA70">
+        <f t="shared" si="14"/>
         <v>0.6719213131081081</v>
       </c>
-      <c r="AB65">
-        <f t="shared" si="13"/>
+      <c r="AB70">
+        <f t="shared" si="14"/>
         <v>0.69434436309455783</v>
       </c>
-      <c r="AC65">
-        <f t="shared" si="13"/>
+      <c r="AC70">
+        <f t="shared" si="14"/>
         <v>0.71719848448643142</v>
       </c>
-      <c r="AD65">
-        <f t="shared" si="13"/>
+      <c r="AD70">
+        <f t="shared" si="14"/>
         <v>0.74049442492889994</v>
       </c>
-      <c r="AE65">
-        <f t="shared" si="13"/>
+      <c r="AE70">
+        <f t="shared" si="14"/>
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="66" spans="2:31">
-      <c r="B66" t="s">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C66">
-        <f t="shared" ref="C66:AE66" si="14">C57/C64</f>
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="41">
-        <f>F57/F64</f>
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f>H57/H64</f>
-        <v>0.4825395020511708</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="14"/>
+      <c r="C71">
+        <f t="shared" ref="C71:AE71" si="15">C62/C69</f>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="41">
+        <f>F62/F69</f>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f>H62/H69</f>
+        <v>0.45136590456397085</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="15"/>
         <v>0.66393045842516363</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="14"/>
+      <c r="J71">
+        <f t="shared" si="15"/>
         <v>0.77077996942773064</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="14"/>
+      <c r="K71">
+        <f t="shared" si="15"/>
         <v>0.85792340111752319</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="14"/>
+      <c r="L71">
+        <f t="shared" si="15"/>
         <v>0.95998088009684113</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="V66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="W66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="X66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Z66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AA66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AB66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AC66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AE66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31">
-      <c r="B68" t="s">
+      <c r="M71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="31">
+        <f>C69-C68</f>
+        <v>43.209030021151143</v>
+      </c>
+      <c r="D73" s="31">
+        <f t="shared" ref="D73:AE73" si="16">D69-D68</f>
+        <v>41.869595221151151</v>
+      </c>
+      <c r="E73" s="31">
+        <f t="shared" si="16"/>
+        <v>20.658657721151158</v>
+      </c>
+      <c r="F73" s="31">
+        <f t="shared" si="16"/>
+        <v>30.368639198206587</v>
+      </c>
+      <c r="G73" s="31">
+        <f>G69-G68</f>
+        <v>39.947929838594256</v>
+      </c>
+      <c r="H73" s="31">
+        <f t="shared" si="16"/>
+        <v>51.856679874513695</v>
+      </c>
+      <c r="I73" s="31">
+        <f t="shared" si="16"/>
+        <v>48.034052727284994</v>
+      </c>
+      <c r="J73" s="31">
+        <f t="shared" si="16"/>
+        <v>57.247781455864121</v>
+      </c>
+      <c r="K73" s="31">
+        <f t="shared" si="16"/>
+        <v>65.20881854397193</v>
+      </c>
+      <c r="L73" s="31">
+        <f t="shared" si="16"/>
+        <v>69.277567209037301</v>
+      </c>
+      <c r="M73" s="31">
+        <f t="shared" si="16"/>
+        <v>79.898620973979632</v>
+      </c>
+      <c r="N73" s="31">
+        <f t="shared" si="16"/>
+        <v>95.085518240679079</v>
+      </c>
+      <c r="O73" s="31">
+        <f t="shared" si="16"/>
+        <v>109.52445088102178</v>
+      </c>
+      <c r="P73" s="31">
+        <f t="shared" si="16"/>
+        <v>123.23796979982927</v>
+      </c>
+      <c r="Q73" s="31">
+        <f t="shared" si="16"/>
+        <v>136.12549956178316</v>
+      </c>
+      <c r="R73" s="31">
+        <f t="shared" si="16"/>
+        <v>148.45347136063836</v>
+      </c>
+      <c r="S73" s="31">
+        <f t="shared" si="16"/>
+        <v>160.12016004980387</v>
+      </c>
+      <c r="T73" s="31">
+        <f t="shared" si="16"/>
+        <v>171.14581642290077</v>
+      </c>
+      <c r="U73" s="31">
+        <f t="shared" si="16"/>
+        <v>181.55015136665315</v>
+      </c>
+      <c r="V73" s="31">
+        <f t="shared" si="16"/>
+        <v>184.35075549827894</v>
+      </c>
+      <c r="W73" s="31">
+        <f t="shared" si="16"/>
+        <v>186.84246578800816</v>
+      </c>
+      <c r="X73" s="31">
+        <f t="shared" si="16"/>
+        <v>189.0353768058373</v>
+      </c>
+      <c r="Y73" s="31">
+        <f t="shared" si="16"/>
+        <v>190.93930601592012</v>
+      </c>
+      <c r="Z73" s="31">
+        <f t="shared" si="16"/>
+        <v>192.44127120339778</v>
+      </c>
+      <c r="AA73" s="31">
+        <f t="shared" si="16"/>
+        <v>187.45405635199097</v>
+      </c>
+      <c r="AB73" s="31">
+        <f t="shared" si="16"/>
+        <v>182.45440707082525</v>
+      </c>
+      <c r="AC73" s="31">
+        <f t="shared" si="16"/>
+        <v>177.44378623399007</v>
+      </c>
+      <c r="AD73" s="31">
+        <f t="shared" si="16"/>
+        <v>172.42360412859756</v>
+      </c>
+      <c r="AE73" s="31">
+        <f t="shared" si="16"/>
+        <v>167.39521995458978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="31">
-        <f>C64-C63</f>
-        <v>43.209030021151143</v>
-      </c>
-      <c r="D68" s="31">
-        <f t="shared" ref="D68:AE68" si="15">D64-D63</f>
-        <v>41.869595221151151</v>
-      </c>
-      <c r="E68" s="31">
-        <f t="shared" si="15"/>
-        <v>20.658657721151158</v>
-      </c>
-      <c r="F68" s="31">
-        <f t="shared" si="15"/>
-        <v>24.594260613120589</v>
-      </c>
-      <c r="G68" s="31">
-        <f>G64-G63</f>
-        <v>33.45637261532972</v>
-      </c>
-      <c r="H68" s="31">
-        <f t="shared" si="15"/>
-        <v>45.24526182663157</v>
-      </c>
-      <c r="I68" s="31">
-        <f t="shared" si="15"/>
-        <v>48.034052727284994</v>
-      </c>
-      <c r="J68" s="31">
-        <f t="shared" si="15"/>
-        <v>57.247781455864121</v>
-      </c>
-      <c r="K68" s="31">
-        <f t="shared" si="15"/>
-        <v>65.20881854397193</v>
-      </c>
-      <c r="L68" s="31">
-        <f t="shared" si="15"/>
-        <v>69.277567209037301</v>
-      </c>
-      <c r="M68" s="31">
-        <f t="shared" si="15"/>
-        <v>79.898620973979632</v>
-      </c>
-      <c r="N68" s="31">
-        <f t="shared" si="15"/>
-        <v>95.085518240679079</v>
-      </c>
-      <c r="O68" s="31">
-        <f t="shared" si="15"/>
-        <v>109.52445088102178</v>
-      </c>
-      <c r="P68" s="31">
-        <f t="shared" si="15"/>
-        <v>123.23796979982927</v>
-      </c>
-      <c r="Q68" s="31">
-        <f t="shared" si="15"/>
-        <v>136.12549956178316</v>
-      </c>
-      <c r="R68" s="31">
-        <f t="shared" si="15"/>
-        <v>148.45347136063836</v>
-      </c>
-      <c r="S68" s="31">
-        <f t="shared" si="15"/>
-        <v>160.12016004980387</v>
-      </c>
-      <c r="T68" s="31">
-        <f t="shared" si="15"/>
-        <v>171.14581642290077</v>
-      </c>
-      <c r="U68" s="31">
-        <f t="shared" si="15"/>
-        <v>181.55015136665315</v>
-      </c>
-      <c r="V68" s="31">
-        <f t="shared" si="15"/>
-        <v>184.35075549827894</v>
-      </c>
-      <c r="W68" s="31">
-        <f t="shared" si="15"/>
-        <v>186.84246578800816</v>
-      </c>
-      <c r="X68" s="31">
-        <f t="shared" si="15"/>
-        <v>189.0353768058373</v>
-      </c>
-      <c r="Y68" s="31">
-        <f t="shared" si="15"/>
-        <v>190.93930601592012</v>
-      </c>
-      <c r="Z68" s="31">
-        <f t="shared" si="15"/>
-        <v>192.44127120339778</v>
-      </c>
-      <c r="AA68" s="31">
-        <f t="shared" si="15"/>
-        <v>187.45405635199097</v>
-      </c>
-      <c r="AB68" s="31">
-        <f t="shared" si="15"/>
-        <v>182.45440707082525</v>
-      </c>
-      <c r="AC68" s="31">
-        <f t="shared" si="15"/>
-        <v>177.44378623399007</v>
-      </c>
-      <c r="AD68" s="31">
-        <f t="shared" si="15"/>
-        <v>172.42360412859756</v>
-      </c>
-      <c r="AE68" s="31">
-        <f t="shared" si="15"/>
-        <v>167.39521995458978</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31">
-      <c r="B69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69">
+      <c r="C74">
         <f>C31/MAX($C31:$AE31)</f>
         <v>0.40596510729099416</v>
       </c>
-      <c r="D69">
+      <c r="D74">
         <f>D31/MAX($C31:$AE31)</f>
         <v>0.39966713008566629</v>
       </c>
-      <c r="E69">
-        <f t="shared" ref="E69:AE69" si="16">E31/MAX($C31:$AE31)</f>
+      <c r="E74">
+        <f t="shared" ref="E74:AE74" si="17">E31/MAX($C31:$AE31)</f>
         <v>0.29993401812035531</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="16"/>
-        <v>0.3184390900378879</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="16"/>
-        <v>0.37739233693995816</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="16"/>
-        <v>0.45010719146036049</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="16"/>
+      <c r="F74">
+        <f t="shared" si="17"/>
+        <v>0.34559002318058735</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="17"/>
+        <v>0.40791541982477014</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="17"/>
+        <v>0.48119385589557961</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="17"/>
         <v>0.48108001745020745</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="16"/>
+      <c r="J74">
+        <f t="shared" si="17"/>
         <v>0.54168655432778845</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="16"/>
+      <c r="K74">
+        <f t="shared" si="17"/>
         <v>0.59640297740737558</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="16"/>
+      <c r="L74">
+        <f t="shared" si="17"/>
         <v>0.62705669324474933</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="16"/>
+      <c r="M74">
+        <f t="shared" si="17"/>
         <v>0.63282671491893583</v>
       </c>
-      <c r="N69">
-        <f t="shared" si="16"/>
+      <c r="N74">
+        <f t="shared" si="17"/>
         <v>0.63270857404500624</v>
       </c>
-      <c r="O69">
-        <f t="shared" si="16"/>
+      <c r="O74">
+        <f t="shared" si="17"/>
         <v>0.65263751584951402</v>
       </c>
-      <c r="P69">
-        <f t="shared" si="16"/>
+      <c r="P74">
+        <f t="shared" si="17"/>
         <v>0.66629834254143649</v>
       </c>
-      <c r="Q69">
-        <f t="shared" si="16"/>
+      <c r="Q74">
+        <f t="shared" si="17"/>
         <v>0.68950276243093922</v>
       </c>
-      <c r="R69">
-        <f t="shared" si="16"/>
+      <c r="R74">
+        <f t="shared" si="17"/>
         <v>0.71160220994475143</v>
       </c>
-      <c r="S69">
-        <f t="shared" si="16"/>
+      <c r="S74">
+        <f t="shared" si="17"/>
         <v>0.73370165745856375</v>
       </c>
-      <c r="T69">
-        <f t="shared" si="16"/>
+      <c r="T74">
+        <f t="shared" si="17"/>
         <v>0.75580110497237596</v>
       </c>
-      <c r="U69">
-        <f t="shared" si="16"/>
+      <c r="U74">
+        <f t="shared" si="17"/>
         <v>0.77790055248618817</v>
       </c>
-      <c r="V69">
-        <f t="shared" si="16"/>
+      <c r="V74">
+        <f t="shared" si="17"/>
         <v>0.80000000000000027</v>
       </c>
-      <c r="W69">
-        <f t="shared" si="16"/>
+      <c r="W74">
+        <f t="shared" si="17"/>
         <v>0.82209944751381225</v>
       </c>
-      <c r="X69">
-        <f t="shared" si="16"/>
+      <c r="X74">
+        <f t="shared" si="17"/>
         <v>0.84419889502762435</v>
       </c>
-      <c r="Y69">
-        <f t="shared" si="16"/>
+      <c r="Y74">
+        <f t="shared" si="17"/>
         <v>0.86629834254143645</v>
       </c>
-      <c r="Z69">
-        <f t="shared" si="16"/>
+      <c r="Z74">
+        <f t="shared" si="17"/>
         <v>0.88950276243093918</v>
       </c>
-      <c r="AA69">
-        <f t="shared" si="16"/>
+      <c r="AA74">
+        <f t="shared" si="17"/>
         <v>0.91160220994475138</v>
       </c>
-      <c r="AB69">
-        <f t="shared" si="16"/>
+      <c r="AB74">
+        <f t="shared" si="17"/>
         <v>0.93370165745856359</v>
       </c>
-      <c r="AC69">
-        <f t="shared" si="16"/>
+      <c r="AC74">
+        <f t="shared" si="17"/>
         <v>0.95580110497237569</v>
       </c>
-      <c r="AD69">
-        <f t="shared" si="16"/>
+      <c r="AD74">
+        <f t="shared" si="17"/>
         <v>0.9779005524861879</v>
       </c>
-      <c r="AE69">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31">
-      <c r="C70" t="str">
-        <f>"("&amp;C62&amp;","&amp;ROUND(C68/MAX($C68:$AE68),3)&amp;"),"</f>
+      <c r="AE74">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="C75" t="str">
+        <f>"("&amp;C67&amp;","&amp;ROUND(C73/MAX($C73:$AE73),3)&amp;"),"</f>
         <v>(2022,0.225),</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" ref="D70:AE70" si="17">"("&amp;D62&amp;","&amp;ROUND(D68/MAX($C68:$AE68),3)&amp;"),"</f>
+      <c r="D75" t="str">
+        <f t="shared" ref="D75:AE75" si="18">"("&amp;D67&amp;","&amp;ROUND(D73/MAX($C73:$AE73),3)&amp;"),"</f>
         <v>(2023,0.218),</v>
       </c>
-      <c r="E70" t="str">
-        <f t="shared" si="17"/>
+      <c r="E75" t="str">
+        <f t="shared" si="18"/>
         <v>(2024,0.107),</v>
       </c>
-      <c r="F70" t="str">
-        <f t="shared" si="17"/>
-        <v>(2025,0.128),</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="17"/>
-        <v>(2026,0.174),</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="17"/>
-        <v>(2027,0.235),</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="17"/>
+      <c r="F75" t="str">
+        <f t="shared" si="18"/>
+        <v>(2025,0.158),</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="18"/>
+        <v>(2026,0.208),</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="18"/>
+        <v>(2027,0.269),</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="18"/>
         <v>(2028,0.25),</v>
       </c>
-      <c r="J70" t="str">
-        <f t="shared" si="17"/>
+      <c r="J75" t="str">
+        <f t="shared" si="18"/>
         <v>(2029,0.297),</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="17"/>
+      <c r="K75" t="str">
+        <f t="shared" si="18"/>
         <v>(2030,0.339),</v>
       </c>
-      <c r="L70" t="str">
-        <f t="shared" si="17"/>
+      <c r="L75" t="str">
+        <f t="shared" si="18"/>
         <v>(2031,0.36),</v>
       </c>
-      <c r="M70" t="str">
-        <f t="shared" si="17"/>
+      <c r="M75" t="str">
+        <f t="shared" si="18"/>
         <v>(2032,0.415),</v>
       </c>
-      <c r="N70" t="str">
-        <f t="shared" si="17"/>
+      <c r="N75" t="str">
+        <f t="shared" si="18"/>
         <v>(2033,0.494),</v>
       </c>
-      <c r="O70" t="str">
-        <f t="shared" si="17"/>
+      <c r="O75" t="str">
+        <f t="shared" si="18"/>
         <v>(2034,0.569),</v>
       </c>
-      <c r="P70" t="str">
-        <f t="shared" si="17"/>
+      <c r="P75" t="str">
+        <f t="shared" si="18"/>
         <v>(2035,0.64),</v>
       </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="17"/>
+      <c r="Q75" t="str">
+        <f t="shared" si="18"/>
         <v>(2036,0.707),</v>
       </c>
-      <c r="R70" t="str">
-        <f t="shared" si="17"/>
+      <c r="R75" t="str">
+        <f t="shared" si="18"/>
         <v>(2037,0.771),</v>
       </c>
-      <c r="S70" t="str">
-        <f t="shared" si="17"/>
+      <c r="S75" t="str">
+        <f t="shared" si="18"/>
         <v>(2038,0.832),</v>
       </c>
-      <c r="T70" t="str">
-        <f t="shared" si="17"/>
+      <c r="T75" t="str">
+        <f t="shared" si="18"/>
         <v>(2039,0.889),</v>
       </c>
-      <c r="U70" t="str">
-        <f t="shared" si="17"/>
+      <c r="U75" t="str">
+        <f t="shared" si="18"/>
         <v>(2040,0.943),</v>
       </c>
-      <c r="V70" t="str">
-        <f t="shared" si="17"/>
+      <c r="V75" t="str">
+        <f t="shared" si="18"/>
         <v>(2041,0.958),</v>
       </c>
-      <c r="W70" t="str">
-        <f t="shared" si="17"/>
+      <c r="W75" t="str">
+        <f t="shared" si="18"/>
         <v>(2042,0.971),</v>
       </c>
-      <c r="X70" t="str">
-        <f t="shared" si="17"/>
+      <c r="X75" t="str">
+        <f t="shared" si="18"/>
         <v>(2043,0.982),</v>
       </c>
-      <c r="Y70" t="str">
-        <f t="shared" si="17"/>
+      <c r="Y75" t="str">
+        <f t="shared" si="18"/>
         <v>(2044,0.992),</v>
       </c>
-      <c r="Z70" t="str">
-        <f t="shared" si="17"/>
+      <c r="Z75" t="str">
+        <f t="shared" si="18"/>
         <v>(2045,1),</v>
       </c>
-      <c r="AA70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AA75" t="str">
+        <f t="shared" si="18"/>
         <v>(2046,0.974),</v>
       </c>
-      <c r="AB70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB75" t="str">
+        <f t="shared" si="18"/>
         <v>(2047,0.948),</v>
       </c>
-      <c r="AC70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AC75" t="str">
+        <f t="shared" si="18"/>
         <v>(2048,0.922),</v>
       </c>
-      <c r="AD70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AD75" t="str">
+        <f t="shared" si="18"/>
         <v>(2049,0.896),</v>
       </c>
-      <c r="AE70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AE75" t="str">
+        <f t="shared" si="18"/>
         <v>(2050,0.87),</v>
       </c>
     </row>
@@ -8848,17 +8935,17 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="43.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>2020</v>
       </c>
@@ -8953,7 +9040,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -8964,123 +9051,123 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!H$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!H$71,0))</f>
         <v>0</v>
       </c>
       <c r="K4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!I$71,0))</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!J$71,0))</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!K$71,0))</f>
         <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!L$71,0))</f>
         <v>0</v>
       </c>
       <c r="O4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!M$71,0))</f>
         <v>0</v>
       </c>
       <c r="P4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!N$71,0))</f>
         <v>0</v>
       </c>
       <c r="Q4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!O$71,0))</f>
         <v>0</v>
       </c>
       <c r="R4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!P$71,0))</f>
         <v>0</v>
       </c>
       <c r="S4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!Q$71,0))</f>
         <v>0</v>
       </c>
       <c r="T4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!R$71,0))</f>
         <v>0</v>
       </c>
       <c r="U4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!S$71,0))</f>
         <v>0</v>
       </c>
       <c r="V4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!T$71,0))</f>
         <v>0</v>
       </c>
       <c r="W4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!U$71,0))</f>
         <v>0</v>
       </c>
       <c r="X4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!V$71,0))</f>
         <v>0</v>
       </c>
       <c r="Y4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!W$71,0))</f>
         <v>0</v>
       </c>
       <c r="Z4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!X$71,0))</f>
         <v>0</v>
       </c>
       <c r="AA4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!Y$71,0))</f>
         <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!Z$71,0))</f>
         <v>0</v>
       </c>
       <c r="AC4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AA$71,0))</f>
         <v>0</v>
       </c>
       <c r="AD4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AB$71,0))</f>
         <v>0</v>
       </c>
       <c r="AE4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AC$71,0))</f>
         <v>0</v>
       </c>
       <c r="AF4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AD$71,0))</f>
         <v>0</v>
       </c>
       <c r="AG4" s="8">
-        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AE$66,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <f>IF('ETS Coverage'!$B8=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B4)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B4)),IF('ETS Coverage'!$B8=2,'ETS Projections'!AE$71,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -9091,123 +9178,123 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG5" s="8">
-        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <f>IF('ETS Coverage'!$B9=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B5)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B5)),IF('ETS Coverage'!$B9=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -9218,123 +9305,123 @@
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG6" s="8">
-        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <f>IF('ETS Coverage'!$B10=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B6)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B6)),IF('ETS Coverage'!$B10=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -9345,123 +9432,123 @@
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG7" s="8">
-        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <f>IF('ETS Coverage'!$B11=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B7)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B7)),IF('ETS Coverage'!$B11=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -9472,123 +9559,123 @@
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG8" s="8">
-        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <f>IF('ETS Coverage'!$B12=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B8)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B8)),IF('ETS Coverage'!$B12=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -9599,123 +9686,123 @@
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG9" s="8">
-        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <f>IF('ETS Coverage'!$B13=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B9)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B9)),IF('ETS Coverage'!$B13=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -9726,123 +9813,123 @@
         <v>0</v>
       </c>
       <c r="E10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG10" s="8">
-        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <f>IF('ETS Coverage'!$B14=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B10)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B10)),IF('ETS Coverage'!$B14=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -9853,123 +9940,123 @@
         <v>0</v>
       </c>
       <c r="E11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!C$71,0))</f>
         <v>6.957039479710536E-3</v>
       </c>
       <c r="F11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!D$71,0))</f>
         <v>6.957039479710536E-3</v>
       </c>
       <c r="G11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!E$71,0))</f>
         <v>6.957039479710536E-3</v>
       </c>
       <c r="H11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!F$71,0))</f>
         <v>6.957039479710536E-3</v>
       </c>
       <c r="I11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!G$71,0))</f>
         <v>3.1708573784006606E-2</v>
       </c>
       <c r="J11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!H$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!H$71,0))</f>
         <v>5.7205505175414527E-2</v>
       </c>
       <c r="K11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!I$71,0))</f>
         <v>0.10745397087111841</v>
       </c>
       <c r="L11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!J$71,0))</f>
         <v>0.2319570394797105</v>
       </c>
       <c r="M11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!K$71,0))</f>
         <v>0.49011839333150131</v>
       </c>
       <c r="N11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!L$71,0))</f>
         <v>0.61387606485298152</v>
       </c>
       <c r="O11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!M$71,0))</f>
         <v>0.67796857964197832</v>
       </c>
       <c r="P11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!N$71,0))</f>
         <v>0.70647446788667934</v>
       </c>
       <c r="Q11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!O$71,0))</f>
         <v>0.76702920449344913</v>
       </c>
       <c r="R11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!P$71,0))</f>
         <v>0.71887152156448098</v>
       </c>
       <c r="S11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!Q$71,0))</f>
         <v>0.68980453195441105</v>
       </c>
       <c r="T11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!R$71,0))</f>
         <v>0.66563926421639297</v>
       </c>
       <c r="U11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!S$71,0))</f>
         <v>0.64618847711678717</v>
       </c>
       <c r="V11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!T$71,0))</f>
         <v>0.6304675233748841</v>
       </c>
       <c r="W11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!U$71,0))</f>
         <v>0.61775493845911467</v>
       </c>
       <c r="X11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!V$71,0))</f>
         <v>0.62308739476792896</v>
       </c>
       <c r="Y11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!W$71,0))</f>
         <v>0.62891664700627326</v>
       </c>
       <c r="Z11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!X$71,0))</f>
         <v>0.63521305905982683</v>
       </c>
       <c r="AA11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!Y$71,0))</f>
         <v>0.641951661578396</v>
       </c>
       <c r="AB11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!Z$71,0))</f>
         <v>0.64991874023548524</v>
       </c>
       <c r="AC11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AA$71,0))</f>
         <v>0.6719213131081081</v>
       </c>
       <c r="AD11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AB$71,0))</f>
         <v>0.69434436309455783</v>
       </c>
       <c r="AE11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AC$71,0))</f>
         <v>0.71719848448643142</v>
       </c>
       <c r="AF11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AD$71,0))</f>
         <v>0.74049442492889994</v>
       </c>
       <c r="AG11" s="8">
-        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AE$66,0))</f>
+        <f>IF('ETS Coverage'!$B15=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B11)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B11)),IF('ETS Coverage'!$B15=2,'ETS Projections'!AE$71,0))</f>
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -9980,123 +10067,123 @@
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!G$71,0))</f>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="J12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!H$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!H$71,0))</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!I$71,0))</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="L12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!J$71,0))</f>
         <v>0.22499999999999998</v>
       </c>
       <c r="M12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!K$71,0))</f>
         <v>0.48499999999999999</v>
       </c>
       <c r="N12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!L$71,0))</f>
         <v>0.61</v>
       </c>
       <c r="O12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!M$71,0))</f>
         <v>0.67554787893254264</v>
       </c>
       <c r="P12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!N$71,0))</f>
         <v>0.70533329774742748</v>
       </c>
       <c r="Q12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!O$71,0))</f>
         <v>0.76702920449344913</v>
       </c>
       <c r="R12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!P$71,0))</f>
         <v>0.71887152156448098</v>
       </c>
       <c r="S12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!Q$71,0))</f>
         <v>0.68980453195441105</v>
       </c>
       <c r="T12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!R$71,0))</f>
         <v>0.66563926421639297</v>
       </c>
       <c r="U12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!S$71,0))</f>
         <v>0.64618847711678717</v>
       </c>
       <c r="V12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!T$71,0))</f>
         <v>0.6304675233748841</v>
       </c>
       <c r="W12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!U$71,0))</f>
         <v>0.61775493845911467</v>
       </c>
       <c r="X12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!V$71,0))</f>
         <v>0.62308739476792896</v>
       </c>
       <c r="Y12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!W$71,0))</f>
         <v>0.62891664700627326</v>
       </c>
       <c r="Z12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!X$71,0))</f>
         <v>0.63521305905982683</v>
       </c>
       <c r="AA12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!Y$71,0))</f>
         <v>0.641951661578396</v>
       </c>
       <c r="AB12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!Z$71,0))</f>
         <v>0.64991874023548524</v>
       </c>
       <c r="AC12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AA$71,0))</f>
         <v>0.6719213131081081</v>
       </c>
       <c r="AD12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AB$71,0))</f>
         <v>0.69434436309455783</v>
       </c>
       <c r="AE12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AC$71,0))</f>
         <v>0.71719848448643142</v>
       </c>
       <c r="AF12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AD$71,0))</f>
         <v>0.74049442492889994</v>
       </c>
       <c r="AG12" s="8">
-        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AE$66,0))</f>
+        <f>IF('ETS Coverage'!$B16=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B12)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B12)),IF('ETS Coverage'!$B16=2,'ETS Projections'!AE$71,0))</f>
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -10107,123 +10194,123 @@
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!C$71,0))</f>
         <v>6.8786093204405027E-2</v>
       </c>
       <c r="F13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!D$71,0))</f>
         <v>6.8786093204405027E-2</v>
       </c>
       <c r="G13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!E$71,0))</f>
         <v>6.8786093204405027E-2</v>
       </c>
       <c r="H13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!F$71,0))</f>
         <v>6.8786093204405027E-2</v>
       </c>
       <c r="I13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!G$71,0))</f>
         <v>9.1329447018533433E-2</v>
       </c>
       <c r="J13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!H$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!H$71,0))</f>
         <v>0.12124273939027669</v>
       </c>
       <c r="K13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!I$71,0))</f>
         <v>0.17369938557614822</v>
       </c>
       <c r="L13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!J$71,0))</f>
         <v>0.29378609320440502</v>
       </c>
       <c r="M13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!K$71,0))</f>
         <v>0.53560691142895511</v>
       </c>
       <c r="N13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!L$71,0))</f>
         <v>0.6483236804995971</v>
       </c>
       <c r="O13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!M$71,0))</f>
         <v>0.69948198842046772</v>
       </c>
       <c r="P13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!N$71,0))</f>
         <v>0.71661634936580532</v>
       </c>
       <c r="Q13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!O$71,0))</f>
         <v>0.76702920449344913</v>
       </c>
       <c r="R13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!P$71,0))</f>
         <v>0.71887152156448098</v>
       </c>
       <c r="S13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!Q$71,0))</f>
         <v>0.68980453195441105</v>
       </c>
       <c r="T13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!R$71,0))</f>
         <v>0.66563926421639297</v>
       </c>
       <c r="U13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!S$71,0))</f>
         <v>0.64618847711678717</v>
       </c>
       <c r="V13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!T$71,0))</f>
         <v>0.6304675233748841</v>
       </c>
       <c r="W13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!U$71,0))</f>
         <v>0.61775493845911467</v>
       </c>
       <c r="X13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!V$71,0))</f>
         <v>0.62308739476792896</v>
       </c>
       <c r="Y13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!W$71,0))</f>
         <v>0.62891664700627326</v>
       </c>
       <c r="Z13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!X$71,0))</f>
         <v>0.63521305905982683</v>
       </c>
       <c r="AA13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!Y$71,0))</f>
         <v>0.641951661578396</v>
       </c>
       <c r="AB13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!Z$71,0))</f>
         <v>0.64991874023548524</v>
       </c>
       <c r="AC13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AA$71,0))</f>
         <v>0.6719213131081081</v>
       </c>
       <c r="AD13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AB$71,0))</f>
         <v>0.69434436309455783</v>
       </c>
       <c r="AE13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AC$71,0))</f>
         <v>0.71719848448643142</v>
       </c>
       <c r="AF13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AD$71,0))</f>
         <v>0.74049442492889994</v>
       </c>
       <c r="AG13" s="8">
-        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AE$66,0))</f>
+        <f>IF('ETS Coverage'!$B17=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B13)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B13)),IF('ETS Coverage'!$B17=2,'ETS Projections'!AE$71,0))</f>
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -10234,123 +10321,123 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG14" s="8">
-        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <f>IF('ETS Coverage'!$B18=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B14)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B14)),IF('ETS Coverage'!$B18=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -10361,123 +10448,123 @@
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!G$71,0))</f>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="J15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!H$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!H$71,0))</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!I$71,0))</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="L15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!J$71,0))</f>
         <v>0.22499999999999998</v>
       </c>
       <c r="M15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!K$71,0))</f>
         <v>0.48499999999999999</v>
       </c>
       <c r="N15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!L$71,0))</f>
         <v>0.61</v>
       </c>
       <c r="O15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!M$71,0))</f>
         <v>0.67554787893254264</v>
       </c>
       <c r="P15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!N$71,0))</f>
         <v>0.70533329774742748</v>
       </c>
       <c r="Q15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!O$71,0))</f>
         <v>0.76702920449344913</v>
       </c>
       <c r="R15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!P$71,0))</f>
         <v>0.71887152156448098</v>
       </c>
       <c r="S15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!Q$71,0))</f>
         <v>0.68980453195441105</v>
       </c>
       <c r="T15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!R$71,0))</f>
         <v>0.66563926421639297</v>
       </c>
       <c r="U15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!S$71,0))</f>
         <v>0.64618847711678717</v>
       </c>
       <c r="V15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!T$71,0))</f>
         <v>0.6304675233748841</v>
       </c>
       <c r="W15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!U$71,0))</f>
         <v>0.61775493845911467</v>
       </c>
       <c r="X15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!V$71,0))</f>
         <v>0.62308739476792896</v>
       </c>
       <c r="Y15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!W$71,0))</f>
         <v>0.62891664700627326</v>
       </c>
       <c r="Z15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!X$71,0))</f>
         <v>0.63521305905982683</v>
       </c>
       <c r="AA15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!Y$71,0))</f>
         <v>0.641951661578396</v>
       </c>
       <c r="AB15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!Z$71,0))</f>
         <v>0.64991874023548524</v>
       </c>
       <c r="AC15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AA$71,0))</f>
         <v>0.6719213131081081</v>
       </c>
       <c r="AD15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AB$71,0))</f>
         <v>0.69434436309455783</v>
       </c>
       <c r="AE15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AC$71,0))</f>
         <v>0.71719848448643142</v>
       </c>
       <c r="AF15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AD$71,0))</f>
         <v>0.74049442492889994</v>
       </c>
       <c r="AG15" s="8">
-        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AE$66,0))</f>
+        <f>IF('ETS Coverage'!$B19=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B15)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B15)),IF('ETS Coverage'!$B19=2,'ETS Projections'!AE$71,0))</f>
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -10488,123 +10575,123 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!G$71,0))</f>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="J16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!H$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!H$71,0))</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!I$71,0))</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="L16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!J$71,0))</f>
         <v>0.22499999999999998</v>
       </c>
       <c r="M16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!K$71,0))</f>
         <v>0.48499999999999999</v>
       </c>
       <c r="N16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!L$71,0))</f>
         <v>0.61</v>
       </c>
       <c r="O16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!M$71,0))</f>
         <v>0.67554787893254264</v>
       </c>
       <c r="P16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!N$71,0))</f>
         <v>0.70533329774742748</v>
       </c>
       <c r="Q16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!O$71,0))</f>
         <v>0.76702920449344913</v>
       </c>
       <c r="R16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!P$71,0))</f>
         <v>0.71887152156448098</v>
       </c>
       <c r="S16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!Q$71,0))</f>
         <v>0.68980453195441105</v>
       </c>
       <c r="T16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!R$71,0))</f>
         <v>0.66563926421639297</v>
       </c>
       <c r="U16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!S$71,0))</f>
         <v>0.64618847711678717</v>
       </c>
       <c r="V16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!T$71,0))</f>
         <v>0.6304675233748841</v>
       </c>
       <c r="W16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!U$71,0))</f>
         <v>0.61775493845911467</v>
       </c>
       <c r="X16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!V$71,0))</f>
         <v>0.62308739476792896</v>
       </c>
       <c r="Y16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!W$71,0))</f>
         <v>0.62891664700627326</v>
       </c>
       <c r="Z16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!X$71,0))</f>
         <v>0.63521305905982683</v>
       </c>
       <c r="AA16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!Y$71,0))</f>
         <v>0.641951661578396</v>
       </c>
       <c r="AB16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!Z$71,0))</f>
         <v>0.64991874023548524</v>
       </c>
       <c r="AC16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AA$71,0))</f>
         <v>0.6719213131081081</v>
       </c>
       <c r="AD16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AB$71,0))</f>
         <v>0.69434436309455783</v>
       </c>
       <c r="AE16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AC$71,0))</f>
         <v>0.71719848448643142</v>
       </c>
       <c r="AF16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AD$71,0))</f>
         <v>0.74049442492889994</v>
       </c>
       <c r="AG16" s="8">
-        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AE$66,0))</f>
+        <f>IF('ETS Coverage'!$B20=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B16)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B16)),IF('ETS Coverage'!$B20=2,'ETS Projections'!AE$71,0))</f>
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -10615,123 +10702,123 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!G$71,0))</f>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="J17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!H$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!H$71,0))</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!I$71,0))</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="L17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!J$71,0))</f>
         <v>0.22499999999999998</v>
       </c>
       <c r="M17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!K$71,0))</f>
         <v>0.48499999999999999</v>
       </c>
       <c r="N17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!L$71,0))</f>
         <v>0.61</v>
       </c>
       <c r="O17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!M$71,0))</f>
         <v>0.67554787893254264</v>
       </c>
       <c r="P17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!N$71,0))</f>
         <v>0.70533329774742748</v>
       </c>
       <c r="Q17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!O$71,0))</f>
         <v>0.76702920449344913</v>
       </c>
       <c r="R17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!P$71,0))</f>
         <v>0.71887152156448098</v>
       </c>
       <c r="S17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!Q$71,0))</f>
         <v>0.68980453195441105</v>
       </c>
       <c r="T17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!R$71,0))</f>
         <v>0.66563926421639297</v>
       </c>
       <c r="U17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!S$71,0))</f>
         <v>0.64618847711678717</v>
       </c>
       <c r="V17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!T$71,0))</f>
         <v>0.6304675233748841</v>
       </c>
       <c r="W17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!U$71,0))</f>
         <v>0.61775493845911467</v>
       </c>
       <c r="X17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!V$71,0))</f>
         <v>0.62308739476792896</v>
       </c>
       <c r="Y17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!W$71,0))</f>
         <v>0.62891664700627326</v>
       </c>
       <c r="Z17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!X$71,0))</f>
         <v>0.63521305905982683</v>
       </c>
       <c r="AA17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!Y$71,0))</f>
         <v>0.641951661578396</v>
       </c>
       <c r="AB17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!Z$71,0))</f>
         <v>0.64991874023548524</v>
       </c>
       <c r="AC17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AA$71,0))</f>
         <v>0.6719213131081081</v>
       </c>
       <c r="AD17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AB$71,0))</f>
         <v>0.69434436309455783</v>
       </c>
       <c r="AE17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AC$71,0))</f>
         <v>0.71719848448643142</v>
       </c>
       <c r="AF17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AD$71,0))</f>
         <v>0.74049442492889994</v>
       </c>
       <c r="AG17" s="8">
-        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AE$66,0))</f>
+        <f>IF('ETS Coverage'!$B21=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B17)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B17)),IF('ETS Coverage'!$B21=2,'ETS Projections'!AE$71,0))</f>
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -10742,123 +10829,123 @@
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!G$71,0))</f>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="J18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!H$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!H$71,0))</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!I$71,0))</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="L18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!J$71,0))</f>
         <v>0.22499999999999998</v>
       </c>
       <c r="M18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!K$71,0))</f>
         <v>0.48499999999999999</v>
       </c>
       <c r="N18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!L$71,0))</f>
         <v>0.61</v>
       </c>
       <c r="O18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!M$71,0))</f>
         <v>0.67554787893254264</v>
       </c>
       <c r="P18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!N$71,0))</f>
         <v>0.70533329774742748</v>
       </c>
       <c r="Q18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!O$71,0))</f>
         <v>0.76702920449344913</v>
       </c>
       <c r="R18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!P$71,0))</f>
         <v>0.71887152156448098</v>
       </c>
       <c r="S18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!Q$71,0))</f>
         <v>0.68980453195441105</v>
       </c>
       <c r="T18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!R$71,0))</f>
         <v>0.66563926421639297</v>
       </c>
       <c r="U18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!S$71,0))</f>
         <v>0.64618847711678717</v>
       </c>
       <c r="V18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!T$71,0))</f>
         <v>0.6304675233748841</v>
       </c>
       <c r="W18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!U$71,0))</f>
         <v>0.61775493845911467</v>
       </c>
       <c r="X18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!V$71,0))</f>
         <v>0.62308739476792896</v>
       </c>
       <c r="Y18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!W$71,0))</f>
         <v>0.62891664700627326</v>
       </c>
       <c r="Z18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!X$71,0))</f>
         <v>0.63521305905982683</v>
       </c>
       <c r="AA18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!Y$71,0))</f>
         <v>0.641951661578396</v>
       </c>
       <c r="AB18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!Z$71,0))</f>
         <v>0.64991874023548524</v>
       </c>
       <c r="AC18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AA$71,0))</f>
         <v>0.6719213131081081</v>
       </c>
       <c r="AD18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AB$71,0))</f>
         <v>0.69434436309455783</v>
       </c>
       <c r="AE18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AC$71,0))</f>
         <v>0.71719848448643142</v>
       </c>
       <c r="AF18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AD$71,0))</f>
         <v>0.74049442492889994</v>
       </c>
       <c r="AG18" s="8">
-        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AE$66,0))</f>
+        <f>IF('ETS Coverage'!$B22=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B18)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B18)),IF('ETS Coverage'!$B22=2,'ETS Projections'!AE$71,0))</f>
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -10869,123 +10956,123 @@
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG19" s="8">
-        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33">
+        <f>IF('ETS Coverage'!$B23=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B19)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B19)),IF('ETS Coverage'!$B23=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -10996,123 +11083,123 @@
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG20" s="8">
-        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33">
+        <f>IF('ETS Coverage'!$B24=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B20)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B20)),IF('ETS Coverage'!$B24=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -11123,123 +11210,123 @@
         <v>0</v>
       </c>
       <c r="E21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG21" s="8">
-        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33">
+        <f>IF('ETS Coverage'!$B25=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B21)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B21)),IF('ETS Coverage'!$B25=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -11250,123 +11337,123 @@
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG22" s="8">
-        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33">
+        <f>IF('ETS Coverage'!$B26=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B22)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B22)),IF('ETS Coverage'!$B26=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -11377,123 +11464,123 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG23" s="8">
-        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33">
+        <f>IF('ETS Coverage'!$B27=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B23)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B23)),IF('ETS Coverage'!$B27=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -11504,123 +11591,123 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG24" s="8">
-        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33">
+        <f>IF('ETS Coverage'!$B28=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B24)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B24)),IF('ETS Coverage'!$B28=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -11631,123 +11718,123 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG25" s="8">
-        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:33">
+        <f>IF('ETS Coverage'!$B29=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B25)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B25)),IF('ETS Coverage'!$B29=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -11758,123 +11845,123 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG26" s="8">
-        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AE$66,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:33">
+        <f>IF('ETS Coverage'!$B30=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B26)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B26)),IF('ETS Coverage'!$B30=2,'ETS Projections'!AE$71,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -11885,123 +11972,123 @@
         <v>0</v>
       </c>
       <c r="E27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!H$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!H$71,0))</f>
         <v>0</v>
       </c>
       <c r="K27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!I$71,0))</f>
         <v>0</v>
       </c>
       <c r="L27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!J$71,0))</f>
         <v>0</v>
       </c>
       <c r="M27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!K$71,0))</f>
         <v>0</v>
       </c>
       <c r="N27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!L$71,0))</f>
         <v>0</v>
       </c>
       <c r="O27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!M$71,0))</f>
         <v>0</v>
       </c>
       <c r="P27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!N$71,0))</f>
         <v>0</v>
       </c>
       <c r="Q27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!O$71,0))</f>
         <v>0</v>
       </c>
       <c r="R27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!P$71,0))</f>
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!Q$71,0))</f>
         <v>0</v>
       </c>
       <c r="T27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!R$71,0))</f>
         <v>0</v>
       </c>
       <c r="U27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!S$71,0))</f>
         <v>0</v>
       </c>
       <c r="V27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!T$71,0))</f>
         <v>0</v>
       </c>
       <c r="W27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!U$71,0))</f>
         <v>0</v>
       </c>
       <c r="X27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!V$71,0))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!W$71,0))</f>
         <v>0</v>
       </c>
       <c r="Z27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!X$71,0))</f>
         <v>0</v>
       </c>
       <c r="AA27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!Y$71,0))</f>
         <v>0</v>
       </c>
       <c r="AB27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!Z$71,0))</f>
         <v>0</v>
       </c>
       <c r="AC27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AA$71,0))</f>
         <v>0</v>
       </c>
       <c r="AD27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AB$71,0))</f>
         <v>0</v>
       </c>
       <c r="AE27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AC$71,0))</f>
         <v>0</v>
       </c>
       <c r="AF27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AD$71,0))</f>
         <v>0</v>
       </c>
       <c r="AG27" s="8">
-        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AE$66,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:33">
+        <f>IF('ETS Coverage'!$B31=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B27)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B27)),IF('ETS Coverage'!$B31=2,'ETS Projections'!AE$71,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -12012,119 +12099,119 @@
         <v>0</v>
       </c>
       <c r="E28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!C$65*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!C$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!C$70*('Allowance Schedule'!E$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!E$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!C$71,0))</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!D$65*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!D$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!D$70*('Allowance Schedule'!F$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!F$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!D$71,0))</f>
         <v>0</v>
       </c>
       <c r="G28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!E$65*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!E$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!E$70*('Allowance Schedule'!G$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!G$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!E$71,0))</f>
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!F$65*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!F$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!F$70*('Allowance Schedule'!H$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!H$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!F$71,0))</f>
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!G$65*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!G$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!G$70*('Allowance Schedule'!I$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!I$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!G$71,0))</f>
         <v>0</v>
       </c>
       <c r="J28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!H$65*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!H$66,0))</f>
-        <v>0.4825395020511708</v>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!H$70*('Allowance Schedule'!J$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!J$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!H$71,0))</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="K28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!I$65*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!I$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!I$70*('Allowance Schedule'!K$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!K$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!I$71,0))</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="L28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!J$65*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!J$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!J$70*('Allowance Schedule'!L$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!L$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!J$71,0))</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="M28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!K$65*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!K$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!K$70*('Allowance Schedule'!M$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!M$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!K$71,0))</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="N28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!L$65*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!L$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!L$70*('Allowance Schedule'!N$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!N$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!L$71,0))</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="O28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!M$65*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!M$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!M$70*('Allowance Schedule'!O$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!O$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!M$71,0))</f>
         <v>1</v>
       </c>
       <c r="P28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!N$65*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!N$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!N$70*('Allowance Schedule'!P$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!P$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!N$71,0))</f>
         <v>1</v>
       </c>
       <c r="Q28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!O$65*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!O$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!O$70*('Allowance Schedule'!Q$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Q$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!O$71,0))</f>
         <v>1</v>
       </c>
       <c r="R28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!P$65*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!P$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!P$70*('Allowance Schedule'!R$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!R$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!P$71,0))</f>
         <v>1</v>
       </c>
       <c r="S28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!Q$65*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!Q$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!Q$70*('Allowance Schedule'!S$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!S$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!Q$71,0))</f>
         <v>1</v>
       </c>
       <c r="T28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!R$65*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!R$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!R$70*('Allowance Schedule'!T$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!T$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!R$71,0))</f>
         <v>1</v>
       </c>
       <c r="U28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!S$65*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!S$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!S$70*('Allowance Schedule'!U$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!U$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!S$71,0))</f>
         <v>1</v>
       </c>
       <c r="V28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!T$65*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!T$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!T$70*('Allowance Schedule'!V$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!V$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!T$71,0))</f>
         <v>1</v>
       </c>
       <c r="W28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!U$65*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!U$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!U$70*('Allowance Schedule'!W$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!W$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!U$71,0))</f>
         <v>1</v>
       </c>
       <c r="X28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!V$65*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!V$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!V$70*('Allowance Schedule'!X$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!X$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!V$71,0))</f>
         <v>1</v>
       </c>
       <c r="Y28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!W$65*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!W$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!W$70*('Allowance Schedule'!Y$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Y$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!W$71,0))</f>
         <v>1</v>
       </c>
       <c r="Z28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!X$65*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!X$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!X$70*('Allowance Schedule'!Z$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!Z$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!X$71,0))</f>
         <v>1</v>
       </c>
       <c r="AA28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!Y$65*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!Y$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!Y$70*('Allowance Schedule'!AA$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AA$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!Y$71,0))</f>
         <v>1</v>
       </c>
       <c r="AB28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!Z$65*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!Z$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!Z$70*('Allowance Schedule'!AB$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AB$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!Z$71,0))</f>
         <v>1</v>
       </c>
       <c r="AC28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AA$65*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AA$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AA$70*('Allowance Schedule'!AC$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AC$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AA$71,0))</f>
         <v>1</v>
       </c>
       <c r="AD28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AB$65*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AB$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AB$70*('Allowance Schedule'!AD$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AD$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AB$71,0))</f>
         <v>1</v>
       </c>
       <c r="AE28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AC$65*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AC$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AC$70*('Allowance Schedule'!AE$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AE$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AC$71,0))</f>
         <v>1</v>
       </c>
       <c r="AF28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AD$65*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AD$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AD$70*('Allowance Schedule'!AF$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AF$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AD$71,0))</f>
         <v>1</v>
       </c>
       <c r="AG28" s="8">
-        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AE$65*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AE$66,0))</f>
+        <f>IF('ETS Coverage'!$B32=1,'ETS Projections'!AE$70*('Allowance Schedule'!AG$10*('Carbon Leakage Risk'!$B28)+'Allowance Schedule'!AG$11*(1-'Carbon Leakage Risk'!$B28)),IF('ETS Coverage'!$B32=2,'ETS Projections'!AE$71,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -12152,17 +12239,17 @@
   </sheetPr>
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B27" sqref="A27:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.26953125" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12257,7 +12344,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12382,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12412,7 +12499,7 @@
       </c>
       <c r="H3" s="7">
         <f>Calcs!J5</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I3" s="7">
         <f>Calcs!K5</f>
@@ -12507,7 +12594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12537,7 +12624,7 @@
       </c>
       <c r="H4" s="7">
         <f>Calcs!J6</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I4" s="7">
         <f>Calcs!K6</f>
@@ -12632,7 +12719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12662,7 +12749,7 @@
       </c>
       <c r="H5" s="7">
         <f>Calcs!J7</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I5" s="7">
         <f>Calcs!K7</f>
@@ -12757,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12787,7 +12874,7 @@
       </c>
       <c r="H6" s="7">
         <f>Calcs!J8</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I6" s="7">
         <f>Calcs!K8</f>
@@ -12882,7 +12969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12912,7 +12999,7 @@
       </c>
       <c r="H7" s="7">
         <f>Calcs!J9</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I7" s="7">
         <f>Calcs!K9</f>
@@ -13007,7 +13094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13037,7 +13124,7 @@
       </c>
       <c r="H8" s="7">
         <f>Calcs!J10</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I8" s="7">
         <f>Calcs!K10</f>
@@ -13132,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -13257,7 +13344,7 @@
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -13382,7 +13469,7 @@
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -13507,7 +13594,7 @@
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -13537,7 +13624,7 @@
       </c>
       <c r="H12" s="7">
         <f>Calcs!J14</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I12" s="7">
         <f>Calcs!K14</f>
@@ -13632,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -13757,7 +13844,7 @@
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -13882,7 +13969,7 @@
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14007,7 +14094,7 @@
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14132,7 +14219,7 @@
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14162,7 +14249,7 @@
       </c>
       <c r="H17" s="7">
         <f>Calcs!J19</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I17" s="7">
         <f>Calcs!K19</f>
@@ -14257,7 +14344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14287,7 +14374,7 @@
       </c>
       <c r="H18" s="7">
         <f>Calcs!J20</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I18" s="7">
         <f>Calcs!K20</f>
@@ -14382,7 +14469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14412,7 +14499,7 @@
       </c>
       <c r="H19" s="7">
         <f>Calcs!J21</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I19" s="7">
         <f>Calcs!K21</f>
@@ -14507,7 +14594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14537,7 +14624,7 @@
       </c>
       <c r="H20" s="7">
         <f>Calcs!J22</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I20" s="7">
         <f>Calcs!K22</f>
@@ -14632,7 +14719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14662,7 +14749,7 @@
       </c>
       <c r="H21" s="7">
         <f>Calcs!J23</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I21" s="7">
         <f>Calcs!K23</f>
@@ -14757,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14787,7 +14874,7 @@
       </c>
       <c r="H22" s="7">
         <f>Calcs!J24</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I22" s="7">
         <f>Calcs!K24</f>
@@ -14882,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14912,7 +14999,7 @@
       </c>
       <c r="H23" s="7">
         <f>Calcs!J25</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I23" s="7">
         <f>Calcs!K25</f>
@@ -15007,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -15037,7 +15124,7 @@
       </c>
       <c r="H24" s="7">
         <f>Calcs!J26</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I24" s="7">
         <f>Calcs!K26</f>
@@ -15132,7 +15219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -15257,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -15287,7 +15374,7 @@
       </c>
       <c r="H26" s="7">
         <f>Calcs!J28</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I26" s="7">
         <f>Calcs!K28</f>
